--- a/results/learning_curves_comparison.xlsx
+++ b/results/learning_curves_comparison.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,27 +450,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lossValue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>logcosh</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>entropyLim</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LWPE</t>
         </is>
       </c>
     </row>
@@ -484,18 +489,21 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>164.5243835449219</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.95885181427002</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.628923416137695</v>
-      </c>
       <c r="E2" t="n">
+        <v>1.399589896202087</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.07209575176239</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.6109818816184998</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>164.5243835449219</v>
       </c>
     </row>
@@ -509,18 +517,21 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>164.1773529052734</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.936007976531982</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.636925220489502</v>
-      </c>
       <c r="E3" t="n">
+        <v>1.391404986381531</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.059489488601685</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.6026219725608826</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>164.1773529052734</v>
       </c>
     </row>
@@ -534,18 +545,21 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>159.1756591796875</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.771184206008911</v>
       </c>
-      <c r="D4" t="n">
-        <v>7.606391429901123</v>
-      </c>
       <c r="E4" t="n">
+        <v>1.330858469009399</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.009396553039551</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.558278501033783</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>159.1756591796875</v>
       </c>
     </row>
@@ -559,18 +573,21 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>157.2815856933594</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.799927592277527</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.639805316925049</v>
-      </c>
       <c r="E5" t="n">
+        <v>1.34161376953125</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.017294049263</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.5648580193519592</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>157.2815856933594</v>
       </c>
     </row>
@@ -584,18 +601,21 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>155.901611328125</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.754290580749512</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.631587505340576</v>
-      </c>
       <c r="E6" t="n">
+        <v>1.324496388435364</v>
+      </c>
+      <c r="F6" t="n">
         <v>0.9988620281219482</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.5516400337219238</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>155.901611328125</v>
       </c>
     </row>
@@ -609,18 +629,21 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>155.2279663085938</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.762273073196411</v>
       </c>
-      <c r="D7" t="n">
-        <v>7.642153263092041</v>
-      </c>
       <c r="E7" t="n">
+        <v>1.327506303787231</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.003931403160095</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.555055558681488</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>155.2279663085938</v>
       </c>
     </row>
@@ -634,18 +657,21 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>155.3390502929688</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.771347045898438</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.646525382995605</v>
-      </c>
       <c r="E8" t="n">
+        <v>1.330919623374939</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.006645083427429</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.5570932030677795</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>155.3390502929688</v>
       </c>
     </row>
@@ -659,18 +685,21 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>156.3474731445312</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.74724817276001</v>
       </c>
-      <c r="D9" t="n">
-        <v>7.626973152160645</v>
-      </c>
       <c r="E9" t="n">
+        <v>1.321835160255432</v>
+      </c>
+      <c r="F9" t="n">
         <v>0.9970992803573608</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.5499459505081177</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>156.3474731445312</v>
       </c>
     </row>
@@ -684,18 +713,21 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>155.5435791015625</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.819828271865845</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.658740997314453</v>
-      </c>
       <c r="E10" t="n">
+        <v>1.349010109901428</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.016986846923828</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.5676206350326538</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>155.5435791015625</v>
       </c>
     </row>
@@ -709,18 +741,21 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>155.3705444335938</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.694918990135193</v>
       </c>
-      <c r="D11" t="n">
-        <v>7.626172065734863</v>
-      </c>
       <c r="E11" t="n">
+        <v>1.30189049243927</v>
+      </c>
+      <c r="F11" t="n">
         <v>0.9837191700935364</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.537350594997406</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>155.3705444335938</v>
       </c>
     </row>
@@ -734,18 +769,21 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>155.6437072753906</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.715929985046387</v>
       </c>
-      <c r="D12" t="n">
-        <v>7.615135669708252</v>
-      </c>
       <c r="E12" t="n">
+        <v>1.309935092926025</v>
+      </c>
+      <c r="F12" t="n">
         <v>0.986335277557373</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.5418853759765625</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>155.6437072753906</v>
       </c>
     </row>
@@ -759,18 +797,21 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>158.3531036376953</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.698878526687622</v>
       </c>
-      <c r="D13" t="n">
-        <v>7.606748104095459</v>
-      </c>
       <c r="E13" t="n">
+        <v>1.303410291671753</v>
+      </c>
+      <c r="F13" t="n">
         <v>0.9804248213768005</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.5363702178001404</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>158.3531036376953</v>
       </c>
     </row>
@@ -784,18 +825,21 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>152.9725494384766</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.745498538017273</v>
       </c>
-      <c r="D14" t="n">
-        <v>7.65473747253418</v>
-      </c>
       <c r="E14" t="n">
+        <v>1.321173191070557</v>
+      </c>
+      <c r="F14" t="n">
         <v>0.9940728545188904</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.5481238961219788</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>152.9725494384766</v>
       </c>
     </row>
@@ -809,18 +853,21 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>152.6921539306641</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.695070624351501</v>
       </c>
-      <c r="D15" t="n">
-        <v>7.63555908203125</v>
-      </c>
       <c r="E15" t="n">
+        <v>1.30194878578186</v>
+      </c>
+      <c r="F15" t="n">
         <v>0.9773043990135193</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.5345359444618225</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>152.6921539306641</v>
       </c>
     </row>
@@ -834,18 +881,21 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>154.1239013671875</v>
+      </c>
+      <c r="D16" t="n">
         <v>1.715358972549438</v>
       </c>
-      <c r="D16" t="n">
-        <v>7.649508953094482</v>
-      </c>
       <c r="E16" t="n">
+        <v>1.309717178344727</v>
+      </c>
+      <c r="F16" t="n">
         <v>0.9856475591659546</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.539756715297699</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>154.1239013671875</v>
       </c>
     </row>
@@ -859,18 +909,21 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>151.8872528076172</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.714242339134216</v>
       </c>
-      <c r="D17" t="n">
-        <v>7.654062747955322</v>
-      </c>
       <c r="E17" t="n">
+        <v>1.309290766716003</v>
+      </c>
+      <c r="F17" t="n">
         <v>0.9820242524147034</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.5386934876441956</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>151.8872528076172</v>
       </c>
     </row>
@@ -884,18 +937,21 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>151.2652282714844</v>
+      </c>
+      <c r="D18" t="n">
         <v>1.680762529373169</v>
       </c>
-      <c r="D18" t="n">
-        <v>7.644608020782471</v>
-      </c>
       <c r="E18" t="n">
+        <v>1.296442270278931</v>
+      </c>
+      <c r="F18" t="n">
         <v>0.9731184840202332</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.5311573147773743</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>151.2652282714844</v>
       </c>
     </row>
@@ -909,18 +965,21 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>152.657958984375</v>
+      </c>
+      <c r="D19" t="n">
         <v>1.654002785682678</v>
       </c>
-      <c r="D19" t="n">
-        <v>7.61027717590332</v>
-      </c>
       <c r="E19" t="n">
+        <v>1.286080360412598</v>
+      </c>
+      <c r="F19" t="n">
         <v>0.9585148096084595</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.5217231512069702</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>152.657958984375</v>
       </c>
     </row>
@@ -934,18 +993,21 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>152.4039459228516</v>
+      </c>
+      <c r="D20" t="n">
         <v>1.707411050796509</v>
       </c>
-      <c r="D20" t="n">
-        <v>7.63634204864502</v>
-      </c>
       <c r="E20" t="n">
+        <v>1.306679368019104</v>
+      </c>
+      <c r="F20" t="n">
         <v>0.9807340502738953</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.5379292368888855</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>152.4039459228516</v>
       </c>
     </row>
@@ -959,18 +1021,21 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>152.7432250976562</v>
+      </c>
+      <c r="D21" t="n">
         <v>1.666004180908203</v>
       </c>
-      <c r="D21" t="n">
-        <v>7.620225429534912</v>
-      </c>
       <c r="E21" t="n">
+        <v>1.290737867355347</v>
+      </c>
+      <c r="F21" t="n">
         <v>0.9634403586387634</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.5257092118263245</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>152.7432250976562</v>
       </c>
     </row>
@@ -984,18 +1049,21 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>151.0833740234375</v>
+      </c>
+      <c r="D22" t="n">
         <v>1.648090243339539</v>
       </c>
-      <c r="D22" t="n">
-        <v>7.615380764007568</v>
-      </c>
       <c r="E22" t="n">
+        <v>1.283779621124268</v>
+      </c>
+      <c r="F22" t="n">
         <v>0.9589473605155945</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.5220295190811157</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>151.0833740234375</v>
       </c>
     </row>
@@ -1009,18 +1077,21 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>150.6800079345703</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.763483762741089</v>
       </c>
-      <c r="D23" t="n">
-        <v>7.65775728225708</v>
-      </c>
       <c r="E23" t="n">
+        <v>1.327962279319763</v>
+      </c>
+      <c r="F23" t="n">
         <v>0.9961443543434143</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.5518916249275208</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>150.6800079345703</v>
       </c>
     </row>
@@ -1034,18 +1105,21 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>152.8378601074219</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.677266120910645</v>
       </c>
-      <c r="D24" t="n">
-        <v>7.632890701293945</v>
-      </c>
       <c r="E24" t="n">
+        <v>1.295093059539795</v>
+      </c>
+      <c r="F24" t="n">
         <v>0.9668427109718323</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.5276223421096802</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>152.8378601074219</v>
       </c>
     </row>
@@ -1059,18 +1133,21 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>154.8439331054688</v>
+      </c>
+      <c r="D25" t="n">
         <v>1.632772326469421</v>
       </c>
-      <c r="D25" t="n">
-        <v>7.604915618896484</v>
-      </c>
       <c r="E25" t="n">
+        <v>1.277799844741821</v>
+      </c>
+      <c r="F25" t="n">
         <v>0.9467662572860718</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.5130354166030884</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>154.8439331054688</v>
       </c>
     </row>
@@ -1084,18 +1161,21 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>150.2192230224609</v>
+      </c>
+      <c r="D26" t="n">
         <v>1.713358521461487</v>
       </c>
-      <c r="D26" t="n">
-        <v>7.65338659286499</v>
-      </c>
       <c r="E26" t="n">
+        <v>1.308953166007996</v>
+      </c>
+      <c r="F26" t="n">
         <v>0.9784860014915466</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.5375218391418457</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>150.2192230224609</v>
       </c>
     </row>
@@ -1109,18 +1189,21 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>149.5271453857422</v>
+      </c>
+      <c r="D27" t="n">
         <v>1.713837027549744</v>
       </c>
-      <c r="D27" t="n">
-        <v>7.641631603240967</v>
-      </c>
       <c r="E27" t="n">
+        <v>1.309136033058167</v>
+      </c>
+      <c r="F27" t="n">
         <v>0.9796005487442017</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.5386911034584045</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>149.5271453857422</v>
       </c>
     </row>
@@ -1134,18 +1217,21 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>151.2318267822266</v>
+      </c>
+      <c r="D28" t="n">
         <v>1.720193862915039</v>
       </c>
-      <c r="D28" t="n">
-        <v>7.646368980407715</v>
-      </c>
       <c r="E28" t="n">
+        <v>1.311561584472656</v>
+      </c>
+      <c r="F28" t="n">
         <v>0.9854727387428284</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.5418081879615784</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>151.2318267822266</v>
       </c>
     </row>
@@ -1159,18 +1245,21 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>153.0768432617188</v>
+      </c>
+      <c r="D29" t="n">
         <v>1.649789810180664</v>
       </c>
-      <c r="D29" t="n">
-        <v>7.608010768890381</v>
-      </c>
       <c r="E29" t="n">
+        <v>1.284441471099854</v>
+      </c>
+      <c r="F29" t="n">
         <v>0.9557422995567322</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.5195868015289307</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>153.0768432617188</v>
       </c>
     </row>
@@ -1184,18 +1273,21 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>150.6074066162109</v>
+      </c>
+      <c r="D30" t="n">
         <v>1.708055973052979</v>
       </c>
-      <c r="D30" t="n">
-        <v>7.633283615112305</v>
-      </c>
       <c r="E30" t="n">
+        <v>1.306926131248474</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.9802184104919434</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.5381166934967041</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>150.6074066162109</v>
       </c>
     </row>
@@ -1209,18 +1301,21 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>153.6496124267578</v>
+      </c>
+      <c r="D31" t="n">
         <v>1.667433381080627</v>
       </c>
-      <c r="D31" t="n">
-        <v>7.61292028427124</v>
-      </c>
       <c r="E31" t="n">
+        <v>1.291291356086731</v>
+      </c>
+      <c r="F31" t="n">
         <v>0.9627060890197754</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.5254045128822327</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>153.6496124267578</v>
       </c>
     </row>
@@ -1234,18 +1329,21 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>153.0816955566406</v>
+      </c>
+      <c r="D32" t="n">
         <v>1.651566863059998</v>
       </c>
-      <c r="D32" t="n">
-        <v>7.617293834686279</v>
-      </c>
       <c r="E32" t="n">
+        <v>1.285133004188538</v>
+      </c>
+      <c r="F32" t="n">
         <v>0.9603593349456787</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.5222576856613159</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>153.0816955566406</v>
       </c>
     </row>
@@ -1259,18 +1357,21 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>149.3976135253906</v>
+      </c>
+      <c r="D33" t="n">
         <v>1.753093600273132</v>
       </c>
-      <c r="D33" t="n">
-        <v>7.666763305664062</v>
-      </c>
       <c r="E33" t="n">
+        <v>1.324044466018677</v>
+      </c>
+      <c r="F33" t="n">
         <v>0.9903984665870667</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.5477595329284668</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>149.3976135253906</v>
       </c>
     </row>
@@ -1284,18 +1385,21 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>153.6506958007812</v>
+      </c>
+      <c r="D34" t="n">
         <v>1.682256698608398</v>
       </c>
-      <c r="D34" t="n">
-        <v>7.619668483734131</v>
-      </c>
       <c r="E34" t="n">
+        <v>1.29701840877533</v>
+      </c>
+      <c r="F34" t="n">
         <v>0.9665298461914062</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.5278403162956238</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>153.6506958007812</v>
       </c>
     </row>
@@ -1309,18 +1413,21 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>153.3245544433594</v>
+      </c>
+      <c r="D35" t="n">
         <v>1.649595141410828</v>
       </c>
-      <c r="D35" t="n">
-        <v>7.602799892425537</v>
-      </c>
       <c r="E35" t="n">
+        <v>1.284365653991699</v>
+      </c>
+      <c r="F35" t="n">
         <v>0.9524130821228027</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.518222987651825</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>153.3245544433594</v>
       </c>
     </row>
@@ -1334,18 +1441,21 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>150.6837615966797</v>
+      </c>
+      <c r="D36" t="n">
         <v>1.753198385238647</v>
       </c>
-      <c r="D36" t="n">
-        <v>7.658615589141846</v>
-      </c>
       <c r="E36" t="n">
+        <v>1.324083924293518</v>
+      </c>
+      <c r="F36" t="n">
         <v>0.9892672300338745</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.547027587890625</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>150.6837615966797</v>
       </c>
     </row>
@@ -1359,18 +1469,21 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>150.4107360839844</v>
+      </c>
+      <c r="D37" t="n">
         <v>1.684725880622864</v>
       </c>
-      <c r="D37" t="n">
-        <v>7.636136054992676</v>
-      </c>
       <c r="E37" t="n">
+        <v>1.297969937324524</v>
+      </c>
+      <c r="F37" t="n">
         <v>0.9721089005470276</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.531313955783844</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>150.4107360839844</v>
       </c>
     </row>
@@ -1384,18 +1497,21 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>153.6678161621094</v>
+      </c>
+      <c r="D38" t="n">
         <v>1.655723452568054</v>
       </c>
-      <c r="D38" t="n">
-        <v>7.594430923461914</v>
-      </c>
       <c r="E38" t="n">
+        <v>1.286749124526978</v>
+      </c>
+      <c r="F38" t="n">
         <v>0.954089879989624</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.5198695063591003</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>153.6678161621094</v>
       </c>
     </row>
@@ -1409,18 +1525,21 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>150.5871429443359</v>
+      </c>
+      <c r="D39" t="n">
         <v>1.725755214691162</v>
       </c>
-      <c r="D39" t="n">
-        <v>7.649495601654053</v>
-      </c>
       <c r="E39" t="n">
+        <v>1.313680052757263</v>
+      </c>
+      <c r="F39" t="n">
         <v>0.9830899834632874</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.541928768157959</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>150.5871429443359</v>
       </c>
     </row>
@@ -1434,18 +1553,21 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>151.2929992675781</v>
+      </c>
+      <c r="D40" t="n">
         <v>1.724417209625244</v>
       </c>
-      <c r="D40" t="n">
-        <v>7.640670776367188</v>
-      </c>
       <c r="E40" t="n">
+        <v>1.313170671463013</v>
+      </c>
+      <c r="F40" t="n">
         <v>0.986893892288208</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.541606068611145</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>151.2929992675781</v>
       </c>
     </row>
@@ -1459,18 +1581,21 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>151.0047607421875</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.693583846092224</v>
       </c>
-      <c r="D41" t="n">
-        <v>7.634925365447998</v>
-      </c>
       <c r="E41" t="n">
+        <v>1.301377654075623</v>
+      </c>
+      <c r="F41" t="n">
         <v>0.9749161601066589</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.5333468914031982</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>151.0047607421875</v>
       </c>
     </row>
@@ -1484,18 +1609,21 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>150.630859375</v>
+      </c>
+      <c r="D42" t="n">
         <v>1.760220289230347</v>
       </c>
-      <c r="D42" t="n">
-        <v>7.655223369598389</v>
-      </c>
       <c r="E42" t="n">
+        <v>1.326732993125916</v>
+      </c>
+      <c r="F42" t="n">
         <v>0.9918087720870972</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.548908531665802</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>150.630859375</v>
       </c>
     </row>
@@ -1509,18 +1637,21 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>150.1019897460938</v>
+      </c>
+      <c r="D43" t="n">
         <v>1.695425271987915</v>
       </c>
-      <c r="D43" t="n">
-        <v>7.626664638519287</v>
-      </c>
       <c r="E43" t="n">
+        <v>1.302084922790527</v>
+      </c>
+      <c r="F43" t="n">
         <v>0.9758448004722595</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.5351400971412659</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>150.1019897460938</v>
       </c>
     </row>
@@ -1534,18 +1665,21 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>152.7362365722656</v>
+      </c>
+      <c r="D44" t="n">
         <v>1.684739112854004</v>
       </c>
-      <c r="D44" t="n">
-        <v>7.620655536651611</v>
-      </c>
       <c r="E44" t="n">
+        <v>1.297975063323975</v>
+      </c>
+      <c r="F44" t="n">
         <v>0.9726152420043945</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.5303783416748047</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>152.7362365722656</v>
       </c>
     </row>
@@ -1559,18 +1693,21 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>153.7891845703125</v>
+      </c>
+      <c r="D45" t="n">
         <v>1.659931540489197</v>
       </c>
-      <c r="D45" t="n">
-        <v>7.603856086730957</v>
-      </c>
       <c r="E45" t="n">
+        <v>1.28838324546814</v>
+      </c>
+      <c r="F45" t="n">
         <v>0.9585591554641724</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.5216532945632935</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>153.7891845703125</v>
       </c>
     </row>
@@ -1584,18 +1721,21 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>149.6816864013672</v>
+      </c>
+      <c r="D46" t="n">
         <v>1.770396590232849</v>
       </c>
-      <c r="D46" t="n">
-        <v>7.655795574188232</v>
-      </c>
       <c r="E46" t="n">
+        <v>1.330562472343445</v>
+      </c>
+      <c r="F46" t="n">
         <v>0.9924280643463135</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.5511927604675293</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>149.6816864013672</v>
       </c>
     </row>
@@ -1609,18 +1749,21 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>151.8698120117188</v>
+      </c>
+      <c r="D47" t="n">
         <v>1.699818134307861</v>
       </c>
-      <c r="D47" t="n">
-        <v>7.629449367523193</v>
-      </c>
       <c r="E47" t="n">
+        <v>1.303770780563354</v>
+      </c>
+      <c r="F47" t="n">
         <v>0.9771701693534851</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.5348227620124817</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>151.8698120117188</v>
       </c>
     </row>
@@ -1634,18 +1777,21 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>153.2537536621094</v>
+      </c>
+      <c r="D48" t="n">
         <v>1.639423727989197</v>
       </c>
-      <c r="D48" t="n">
-        <v>7.600908279418945</v>
-      </c>
       <c r="E48" t="n">
+        <v>1.280399799346924</v>
+      </c>
+      <c r="F48" t="n">
         <v>0.951000988483429</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.5155820250511169</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>153.2537536621094</v>
       </c>
     </row>
@@ -1659,18 +1805,21 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>150.441650390625</v>
+      </c>
+      <c r="D49" t="n">
         <v>1.746611475944519</v>
       </c>
-      <c r="D49" t="n">
-        <v>7.644258975982666</v>
-      </c>
       <c r="E49" t="n">
+        <v>1.32159423828125</v>
+      </c>
+      <c r="F49" t="n">
         <v>0.9893447756767273</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.5465848445892334</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>150.441650390625</v>
       </c>
     </row>
@@ -1684,18 +1833,21 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>150.3343200683594</v>
+      </c>
+      <c r="D50" t="n">
         <v>1.724769711494446</v>
       </c>
-      <c r="D50" t="n">
-        <v>7.631017208099365</v>
-      </c>
       <c r="E50" t="n">
+        <v>1.313304901123047</v>
+      </c>
+      <c r="F50" t="n">
         <v>0.9862430691719055</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.5419489741325378</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>150.3343200683594</v>
       </c>
     </row>
@@ -1709,18 +1861,21 @@
         </is>
       </c>
       <c r="C51" t="n">
+        <v>152.0513000488281</v>
+      </c>
+      <c r="D51" t="n">
         <v>1.739313840866089</v>
       </c>
-      <c r="D51" t="n">
-        <v>7.638679981231689</v>
-      </c>
       <c r="E51" t="n">
+        <v>1.318830490112305</v>
+      </c>
+      <c r="F51" t="n">
         <v>0.987659752368927</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.5443498492240906</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>152.0513000488281</v>
       </c>
     </row>
@@ -1735,7 +1890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1756,27 +1911,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lossValue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>logcosh</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>entropyLim</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LWPE</t>
         </is>
       </c>
     </row>
@@ -1793,15 +1953,18 @@
         <v>1.95885181427002</v>
       </c>
       <c r="D2" t="n">
-        <v>7.628923416137695</v>
+        <v>1.95885181427002</v>
       </c>
       <c r="E2" t="n">
+        <v>1.399589896202087</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.07209575176239</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.6109818816184998</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>164.5243835449219</v>
       </c>
     </row>
@@ -1818,15 +1981,18 @@
         <v>1.95017147064209</v>
       </c>
       <c r="D3" t="n">
-        <v>7.626979351043701</v>
+        <v>1.95017147064209</v>
       </c>
       <c r="E3" t="n">
+        <v>1.396485447883606</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.069860100746155</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.6088268160820007</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>164.7296142578125</v>
       </c>
     </row>
@@ -1843,15 +2009,18 @@
         <v>1.941918134689331</v>
       </c>
       <c r="D4" t="n">
-        <v>7.62510871887207</v>
+        <v>1.941918134689331</v>
       </c>
       <c r="E4" t="n">
+        <v>1.393527269363403</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.067678451538086</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.6067628264427185</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>164.92919921875</v>
       </c>
     </row>
@@ -1868,15 +2037,18 @@
         <v>1.934071183204651</v>
       </c>
       <c r="D5" t="n">
-        <v>7.623311519622803</v>
+        <v>1.934071183204651</v>
       </c>
       <c r="E5" t="n">
+        <v>1.390708923339844</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.065550804138184</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.6047856211662292</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>165.1231689453125</v>
       </c>
     </row>
@@ -1893,15 +2065,18 @@
         <v>1.926605105400085</v>
       </c>
       <c r="D6" t="n">
-        <v>7.621584415435791</v>
+        <v>1.926605105400085</v>
       </c>
       <c r="E6" t="n">
+        <v>1.388022065162659</v>
+      </c>
+      <c r="F6" t="n">
         <v>1.063475489616394</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.6028909087181091</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>165.3119201660156</v>
       </c>
     </row>
@@ -1918,15 +2093,18 @@
         <v>1.919491171836853</v>
       </c>
       <c r="D7" t="n">
-        <v>7.619923114776611</v>
+        <v>1.919491171836853</v>
       </c>
       <c r="E7" t="n">
+        <v>1.385457038879395</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.061449408531189</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.6010726690292358</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>165.4957427978516</v>
       </c>
     </row>
@@ -1943,15 +2121,18 @@
         <v>1.912707924842834</v>
       </c>
       <c r="D8" t="n">
-        <v>7.61832332611084</v>
+        <v>1.912707924842834</v>
       </c>
       <c r="E8" t="n">
+        <v>1.383006811141968</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.059470534324646</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.599327027797699</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>165.6749572753906</v>
       </c>
     </row>
@@ -1968,15 +2149,18 @@
         <v>1.906229853630066</v>
       </c>
       <c r="D9" t="n">
-        <v>7.616782665252686</v>
+        <v>1.906229853630066</v>
       </c>
       <c r="E9" t="n">
+        <v>1.380662798881531</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.057537078857422</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.5976487994194031</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>165.8499298095703</v>
       </c>
     </row>
@@ -1993,15 +2177,18 @@
         <v>1.900050282478333</v>
       </c>
       <c r="D10" t="n">
-        <v>7.61530065536499</v>
+        <v>1.900050282478333</v>
       </c>
       <c r="E10" t="n">
+        <v>1.378423094749451</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.055650591850281</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.5960374474525452</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>166.0206756591797</v>
       </c>
     </row>
@@ -2018,15 +2205,18 @@
         <v>1.894139409065247</v>
       </c>
       <c r="D11" t="n">
-        <v>7.613871097564697</v>
+        <v>1.894139409065247</v>
       </c>
       <c r="E11" t="n">
+        <v>1.376277327537537</v>
+      </c>
+      <c r="F11" t="n">
         <v>1.053804874420166</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.5944859981536865</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>166.1875915527344</v>
       </c>
     </row>
@@ -2043,15 +2233,18 @@
         <v>1.888486742973328</v>
       </c>
       <c r="D12" t="n">
-        <v>7.612497329711914</v>
+        <v>1.888486742973328</v>
       </c>
       <c r="E12" t="n">
+        <v>1.374222278594971</v>
+      </c>
+      <c r="F12" t="n">
         <v>1.052001714706421</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.5929929614067078</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>166.3508911132812</v>
       </c>
     </row>
@@ -2068,15 +2261,18 @@
         <v>1.883076906204224</v>
       </c>
       <c r="D13" t="n">
-        <v>7.611174583435059</v>
+        <v>1.883076906204224</v>
       </c>
       <c r="E13" t="n">
+        <v>1.372252464294434</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.050281047821045</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.5915554761886597</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>166.5108947753906</v>
       </c>
     </row>
@@ -2093,15 +2289,18 @@
         <v>1.87789261341095</v>
       </c>
       <c r="D14" t="n">
-        <v>7.609896183013916</v>
+        <v>1.87789261341095</v>
       </c>
       <c r="E14" t="n">
+        <v>1.370362162590027</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.04872465133667</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.5901699662208557</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>166.6682739257812</v>
       </c>
     </row>
@@ -2118,15 +2317,18 @@
         <v>1.872914791107178</v>
       </c>
       <c r="D15" t="n">
-        <v>7.608665943145752</v>
+        <v>1.872914791107178</v>
       </c>
       <c r="E15" t="n">
+        <v>1.368544816970825</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.047199010848999</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.5888321995735168</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>166.8226623535156</v>
       </c>
     </row>
@@ -2143,15 +2345,18 @@
         <v>1.868145942687988</v>
       </c>
       <c r="D16" t="n">
-        <v>7.607479095458984</v>
+        <v>1.868145942687988</v>
       </c>
       <c r="E16" t="n">
+        <v>1.366801381111145</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.045713186264038</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.5875436067581177</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>166.9749298095703</v>
       </c>
     </row>
@@ -2168,15 +2373,18 @@
         <v>1.863564848899841</v>
       </c>
       <c r="D17" t="n">
-        <v>7.606334209442139</v>
+        <v>1.863564848899841</v>
       </c>
       <c r="E17" t="n">
+        <v>1.365124464035034</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.044257164001465</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.5862990021705627</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>167.1253662109375</v>
       </c>
     </row>
@@ -2193,15 +2401,18 @@
         <v>1.859159588813782</v>
       </c>
       <c r="D18" t="n">
-        <v>7.605232715606689</v>
+        <v>1.859159588813782</v>
       </c>
       <c r="E18" t="n">
+        <v>1.363510012626648</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.042831063270569</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.5850964188575745</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>167.25</v>
       </c>
     </row>
@@ -2218,15 +2429,18 @@
         <v>1.854923605918884</v>
       </c>
       <c r="D19" t="n">
-        <v>7.604167461395264</v>
+        <v>1.854923605918884</v>
       </c>
       <c r="E19" t="n">
+        <v>1.361955761909485</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.041432619094849</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.5839338302612305</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>167.3526458740234</v>
       </c>
     </row>
@@ -2243,15 +2457,18 @@
         <v>1.850848078727722</v>
       </c>
       <c r="D20" t="n">
-        <v>7.603143692016602</v>
+        <v>1.850848078727722</v>
       </c>
       <c r="E20" t="n">
+        <v>1.360458731651306</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.040075898170471</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.5828109979629517</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>167.4591979980469</v>
       </c>
     </row>
@@ -2268,15 +2485,18 @@
         <v>1.846922278404236</v>
       </c>
       <c r="D21" t="n">
-        <v>7.602151870727539</v>
+        <v>1.846922278404236</v>
       </c>
       <c r="E21" t="n">
+        <v>1.359015226364136</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.038758993148804</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.5817238688468933</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>167.5680084228516</v>
       </c>
     </row>
@@ -2293,15 +2513,18 @@
         <v>1.843135595321655</v>
       </c>
       <c r="D22" t="n">
-        <v>7.601197242736816</v>
+        <v>1.843135595321655</v>
       </c>
       <c r="E22" t="n">
+        <v>1.357621312141418</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.037468314170837</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.5806711316108704</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>167.6802368164062</v>
       </c>
     </row>
@@ -2318,15 +2541,18 @@
         <v>1.83948278427124</v>
       </c>
       <c r="D23" t="n">
-        <v>7.600275039672852</v>
+        <v>1.83948278427124</v>
       </c>
       <c r="E23" t="n">
+        <v>1.356275320053101</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.036203384399414</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.5796522498130798</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>167.7976684570312</v>
       </c>
     </row>
@@ -2343,15 +2569,18 @@
         <v>1.835960626602173</v>
       </c>
       <c r="D24" t="n">
-        <v>7.59938383102417</v>
+        <v>1.835960626602173</v>
       </c>
       <c r="E24" t="n">
+        <v>1.354976296424866</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.035007834434509</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.5786651372909546</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>167.9241333007812</v>
       </c>
     </row>
@@ -2368,15 +2597,18 @@
         <v>1.832553505897522</v>
       </c>
       <c r="D25" t="n">
-        <v>7.598525524139404</v>
+        <v>1.832553505897522</v>
       </c>
       <c r="E25" t="n">
+        <v>1.353718400001526</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.033884406089783</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.5777075290679932</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>168.072021484375</v>
       </c>
     </row>
@@ -2393,15 +2625,18 @@
         <v>1.829259276390076</v>
       </c>
       <c r="D26" t="n">
-        <v>7.597695350646973</v>
+        <v>1.829259276390076</v>
       </c>
       <c r="E26" t="n">
+        <v>1.352501153945923</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.032781481742859</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.5767784714698792</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>168.0620422363281</v>
       </c>
     </row>
@@ -2418,15 +2653,18 @@
         <v>1.826072216033936</v>
       </c>
       <c r="D27" t="n">
-        <v>7.596896171569824</v>
+        <v>1.826072216033936</v>
       </c>
       <c r="E27" t="n">
+        <v>1.351322412490845</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.031697750091553</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.5758765339851379</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>167.9717254638672</v>
       </c>
     </row>
@@ -2443,15 +2681,18 @@
         <v>1.822987079620361</v>
       </c>
       <c r="D28" t="n">
-        <v>7.596123218536377</v>
+        <v>1.822987079620361</v>
       </c>
       <c r="E28" t="n">
+        <v>1.350180387496948</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.030634045600891</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.57500159740448</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>167.8778076171875</v>
       </c>
     </row>
@@ -2468,15 +2709,18 @@
         <v>1.81999671459198</v>
       </c>
       <c r="D29" t="n">
-        <v>7.595376491546631</v>
+        <v>1.81999671459198</v>
       </c>
       <c r="E29" t="n">
+        <v>1.349072575569153</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.029588341712952</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.5741507411003113</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>167.7842864990234</v>
       </c>
     </row>
@@ -2493,15 +2737,18 @@
         <v>1.817098736763</v>
       </c>
       <c r="D30" t="n">
-        <v>7.594655990600586</v>
+        <v>1.817098736763</v>
       </c>
       <c r="E30" t="n">
+        <v>1.347998023033142</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.028560876846313</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.5733242034912109</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>167.6915740966797</v>
       </c>
     </row>
@@ -2518,15 +2765,18 @@
         <v>1.814282178878784</v>
       </c>
       <c r="D31" t="n">
-        <v>7.59395694732666</v>
+        <v>1.814282178878784</v>
       </c>
       <c r="E31" t="n">
+        <v>1.34695291519165</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.027550220489502</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.5725193619728088</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>167.5986938476562</v>
       </c>
     </row>
@@ -2543,15 +2793,18 @@
         <v>1.81155252456665</v>
       </c>
       <c r="D32" t="n">
-        <v>7.593287467956543</v>
+        <v>1.81155252456665</v>
       </c>
       <c r="E32" t="n">
+        <v>1.3459392786026</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.026557803153992</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.5717374086380005</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>167.5061340332031</v>
       </c>
     </row>
@@ -2568,15 +2821,18 @@
         <v>1.808900833129883</v>
       </c>
       <c r="D33" t="n">
-        <v>7.59263801574707</v>
+        <v>1.808900833129883</v>
       </c>
       <c r="E33" t="n">
+        <v>1.344953894615173</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.025581955909729</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.5709762573242188</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>167.4139862060547</v>
       </c>
     </row>
@@ -2593,15 +2849,18 @@
         <v>1.806302070617676</v>
       </c>
       <c r="D34" t="n">
-        <v>7.592008590698242</v>
+        <v>1.806302070617676</v>
       </c>
       <c r="E34" t="n">
+        <v>1.343987345695496</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.024617671966553</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.5702281594276428</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>167.3223114013672</v>
       </c>
     </row>
@@ -2618,15 +2877,18 @@
         <v>1.803650975227356</v>
       </c>
       <c r="D35" t="n">
-        <v>7.591384410858154</v>
+        <v>1.803650975227356</v>
       </c>
       <c r="E35" t="n">
+        <v>1.343000769615173</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.023632645606995</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.5694596767425537</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>167.2307739257812</v>
       </c>
     </row>
@@ -2643,15 +2905,18 @@
         <v>1.801071643829346</v>
       </c>
       <c r="D36" t="n">
-        <v>7.590780258178711</v>
+        <v>1.801071643829346</v>
       </c>
       <c r="E36" t="n">
+        <v>1.342040061950684</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.022663354873657</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.5687104463577271</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>167.1393432617188</v>
       </c>
     </row>
@@ -2668,15 +2933,18 @@
         <v>1.798555016517639</v>
       </c>
       <c r="D37" t="n">
-        <v>7.590198993682861</v>
+        <v>1.798555016517639</v>
       </c>
       <c r="E37" t="n">
+        <v>1.341102123260498</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.021707653999329</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.5679783821105957</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>167.0483093261719</v>
       </c>
     </row>
@@ -2693,15 +2961,18 @@
         <v>1.79589831829071</v>
       </c>
       <c r="D38" t="n">
-        <v>7.589704990386963</v>
+        <v>1.79589831829071</v>
       </c>
       <c r="E38" t="n">
+        <v>1.340111255645752</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.020723462104797</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.5672164559364319</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>166.9550476074219</v>
       </c>
     </row>
@@ -2718,15 +2989,18 @@
         <v>1.792343497276306</v>
       </c>
       <c r="D39" t="n">
-        <v>7.589554309844971</v>
+        <v>1.792343497276306</v>
       </c>
       <c r="E39" t="n">
+        <v>1.338784337043762</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.019492387771606</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.5662360787391663</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>166.8339233398438</v>
       </c>
     </row>
@@ -2743,15 +3017,18 @@
         <v>1.788870811462402</v>
       </c>
       <c r="D40" t="n">
-        <v>7.589415073394775</v>
+        <v>1.788870811462402</v>
       </c>
       <c r="E40" t="n">
+        <v>1.337486743927002</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.018278241157532</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.5652762055397034</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>166.7136383056641</v>
       </c>
     </row>
@@ -2768,15 +3045,18 @@
         <v>1.785475254058838</v>
       </c>
       <c r="D41" t="n">
-        <v>7.589287281036377</v>
+        <v>1.785475254058838</v>
       </c>
       <c r="E41" t="n">
+        <v>1.336216807365417</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.017081260681152</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.5643361210823059</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>166.5940856933594</v>
       </c>
     </row>
@@ -2793,15 +3073,18 @@
         <v>1.782155394554138</v>
       </c>
       <c r="D42" t="n">
-        <v>7.589170932769775</v>
+        <v>1.782155394554138</v>
       </c>
       <c r="E42" t="n">
+        <v>1.334973931312561</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.01590096950531</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.5634157657623291</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>166.4752807617188</v>
       </c>
     </row>
@@ -2818,15 +3101,18 @@
         <v>1.778901934623718</v>
       </c>
       <c r="D43" t="n">
-        <v>7.589066982269287</v>
+        <v>1.778901934623718</v>
       </c>
       <c r="E43" t="n">
+        <v>1.333754777908325</v>
+      </c>
+      <c r="F43" t="n">
         <v>1.014850497245789</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.5625123381614685</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>166.3619995117188</v>
       </c>
     </row>
@@ -2843,15 +3129,18 @@
         <v>1.775721192359924</v>
       </c>
       <c r="D44" t="n">
-        <v>7.588973522186279</v>
+        <v>1.775721192359924</v>
       </c>
       <c r="E44" t="n">
+        <v>1.332561850547791</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.013864278793335</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.5616280436515808</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>166.2882995605469</v>
       </c>
     </row>
@@ -2868,15 +3157,18 @@
         <v>1.772607326507568</v>
       </c>
       <c r="D45" t="n">
-        <v>7.588889598846436</v>
+        <v>1.772607326507568</v>
       </c>
       <c r="E45" t="n">
+        <v>1.331393003463745</v>
+      </c>
+      <c r="F45" t="n">
         <v>1.012890100479126</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.5607611536979675</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>166.2145385742188</v>
       </c>
     </row>
@@ -2893,15 +3185,18 @@
         <v>1.769552111625671</v>
       </c>
       <c r="D46" t="n">
-        <v>7.58881664276123</v>
+        <v>1.769552111625671</v>
       </c>
       <c r="E46" t="n">
+        <v>1.330245137214661</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.011926174163818</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.5599099397659302</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>166.1401062011719</v>
       </c>
     </row>
@@ -2918,15 +3213,18 @@
         <v>1.76656186580658</v>
       </c>
       <c r="D47" t="n">
-        <v>7.588751792907715</v>
+        <v>1.76656186580658</v>
       </c>
       <c r="E47" t="n">
+        <v>1.329120755195618</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.010975003242493</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.5590754747390747</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>166.0658874511719</v>
       </c>
     </row>
@@ -2943,15 +3241,18 @@
         <v>1.763630390167236</v>
       </c>
       <c r="D48" t="n">
-        <v>7.58869743347168</v>
+        <v>1.763630390167236</v>
       </c>
       <c r="E48" t="n">
+        <v>1.328017473220825</v>
+      </c>
+      <c r="F48" t="n">
         <v>1.010034084320068</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.5582564473152161</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>165.9909820556641</v>
       </c>
     </row>
@@ -2968,15 +3269,18 @@
         <v>1.760754227638245</v>
       </c>
       <c r="D49" t="n">
-        <v>7.588650226593018</v>
+        <v>1.760754227638245</v>
       </c>
       <c r="E49" t="n">
+        <v>1.326934099197388</v>
+      </c>
+      <c r="F49" t="n">
         <v>1.009104490280151</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.5574521422386169</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>165.9160919189453</v>
       </c>
     </row>
@@ -2993,15 +3297,18 @@
         <v>1.757930636405945</v>
       </c>
       <c r="D50" t="n">
-        <v>7.588610172271729</v>
+        <v>1.757930636405945</v>
       </c>
       <c r="E50" t="n">
+        <v>1.325869798660278</v>
+      </c>
+      <c r="F50" t="n">
         <v>1.00818407535553</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.55666184425354</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>165.8408203125</v>
       </c>
     </row>
@@ -3018,15 +3325,18 @@
         <v>1.755160570144653</v>
       </c>
       <c r="D51" t="n">
-        <v>7.588582038879395</v>
+        <v>1.755160570144653</v>
       </c>
       <c r="E51" t="n">
+        <v>1.324824690818787</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.007275104522705</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.555885910987854</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>165.7653198242188</v>
       </c>
     </row>
@@ -3041,7 +3351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3062,27 +3372,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lossValue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>logcosh</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>entropyLim</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LWPE</t>
         </is>
       </c>
     </row>
@@ -3096,18 +3411,21 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1.399589896202087</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.95885181427002</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.628923416137695</v>
-      </c>
       <c r="E2" t="n">
+        <v>1.399589896202087</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.07209575176239</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.6109818816184998</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>164.5243835449219</v>
       </c>
     </row>
@@ -3121,18 +3439,21 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>1.398471832275391</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.955723524093628</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.628226280212402</v>
-      </c>
       <c r="E3" t="n">
+        <v>1.398471832275391</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.07129693031311</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.6102070808410645</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>164.5972747802734</v>
       </c>
     </row>
@@ -3146,18 +3467,21 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1.397373080253601</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.952651381492615</v>
       </c>
-      <c r="D4" t="n">
-        <v>7.62753963470459</v>
-      </c>
       <c r="E4" t="n">
+        <v>1.397373080253601</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.070504903793335</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.6094442009925842</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>164.6696472167969</v>
       </c>
     </row>
@@ -3171,18 +3495,21 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>1.396292328834534</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.949632406234741</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.626861572265625</v>
-      </c>
       <c r="E5" t="n">
+        <v>1.396292328834534</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.069718241691589</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.6086919903755188</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>164.7414093017578</v>
       </c>
     </row>
@@ -3196,18 +3523,21 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>1.395228385925293</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.946662187576294</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.626192092895508</v>
-      </c>
       <c r="E6" t="n">
+        <v>1.395228385925293</v>
+      </c>
+      <c r="F6" t="n">
         <v>1.068938255310059</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.6079505681991577</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>164.8126983642578</v>
       </c>
     </row>
@@ -3221,18 +3551,21 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>1.39418089389801</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.943740248680115</v>
       </c>
-      <c r="D7" t="n">
-        <v>7.625531196594238</v>
-      </c>
       <c r="E7" t="n">
+        <v>1.39418089389801</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.068164348602295</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.6072193384170532</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>164.8829956054688</v>
       </c>
     </row>
@@ -3246,18 +3579,21 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>1.393151879310608</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.940872192382812</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.624878883361816</v>
-      </c>
       <c r="E8" t="n">
+        <v>1.393151879310608</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.067397356033325</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.6064996123313904</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>164.9529113769531</v>
       </c>
     </row>
@@ -3271,18 +3607,21 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>1.392138838768005</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.938050389289856</v>
       </c>
-      <c r="D9" t="n">
-        <v>7.6242356300354</v>
-      </c>
       <c r="E9" t="n">
+        <v>1.392138838768005</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.066635727882385</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.605789840221405</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>165.0217437744141</v>
       </c>
     </row>
@@ -3296,18 +3635,21 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>1.39114248752594</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.935277342796326</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.623598575592041</v>
-      </c>
       <c r="E10" t="n">
+        <v>1.39114248752594</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.06588077545166</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.6050901412963867</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>165.0903625488281</v>
       </c>
     </row>
@@ -3321,18 +3663,21 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>1.390162348747253</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.932551383972168</v>
       </c>
-      <c r="D11" t="n">
-        <v>7.622972011566162</v>
-      </c>
       <c r="E11" t="n">
+        <v>1.390162348747253</v>
+      </c>
+      <c r="F11" t="n">
         <v>1.065132021903992</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.6044008135795593</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>165.1582641601562</v>
       </c>
     </row>
@@ -3346,18 +3691,21 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>1.38919723033905</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.929868936538696</v>
       </c>
-      <c r="D12" t="n">
-        <v>7.622354984283447</v>
-      </c>
       <c r="E12" t="n">
+        <v>1.38919723033905</v>
+      </c>
+      <c r="F12" t="n">
         <v>1.064388632774353</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.6037206053733826</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>165.2255706787109</v>
       </c>
     </row>
@@ -3371,18 +3719,21 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>1.388247728347778</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.927231788635254</v>
       </c>
-      <c r="D13" t="n">
-        <v>7.621744155883789</v>
-      </c>
       <c r="E13" t="n">
+        <v>1.388247728347778</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.063651561737061</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.6030505299568176</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>165.2922973632812</v>
       </c>
     </row>
@@ -3396,18 +3747,21 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>1.387313008308411</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.924637317657471</v>
       </c>
-      <c r="D14" t="n">
-        <v>7.621141910552979</v>
-      </c>
       <c r="E14" t="n">
+        <v>1.387313008308411</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.062920212745667</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6023890972137451</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>165.3580474853516</v>
       </c>
     </row>
@@ -3421,18 +3775,21 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>1.386392712593079</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.92208468914032</v>
       </c>
-      <c r="D15" t="n">
-        <v>7.620548248291016</v>
-      </c>
       <c r="E15" t="n">
+        <v>1.386392712593079</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.062193393707275</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.601736843585968</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>165.4235229492188</v>
       </c>
     </row>
@@ -3446,18 +3803,21 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>1.385487675666809</v>
+      </c>
+      <c r="D16" t="n">
         <v>1.919576168060303</v>
       </c>
-      <c r="D16" t="n">
-        <v>7.619960784912109</v>
-      </c>
       <c r="E16" t="n">
+        <v>1.385487675666809</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.061473965644836</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.6010944247245789</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>165.4885406494141</v>
       </c>
     </row>
@@ -3471,18 +3831,21 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>1.384596109390259</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.917106509208679</v>
       </c>
-      <c r="D17" t="n">
-        <v>7.619381904602051</v>
-      </c>
       <c r="E17" t="n">
+        <v>1.384596109390259</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.060760021209717</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.6004604697227478</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>165.552978515625</v>
       </c>
     </row>
@@ -3496,18 +3859,21 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>1.38371741771698</v>
+      </c>
+      <c r="D18" t="n">
         <v>1.914673805236816</v>
       </c>
-      <c r="D18" t="n">
-        <v>7.618809223175049</v>
-      </c>
       <c r="E18" t="n">
+        <v>1.38371741771698</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.060049772262573</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.599834144115448</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>165.6168823242188</v>
       </c>
     </row>
@@ -3521,18 +3887,21 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>1.382854342460632</v>
+      </c>
+      <c r="D19" t="n">
         <v>1.912286043167114</v>
       </c>
-      <c r="D19" t="n">
-        <v>7.618246078491211</v>
-      </c>
       <c r="E19" t="n">
+        <v>1.382854342460632</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.059347867965698</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.5992181897163391</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>165.6802673339844</v>
       </c>
     </row>
@@ -3546,18 +3915,21 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>1.382003903388977</v>
+      </c>
+      <c r="D20" t="n">
         <v>1.909934759140015</v>
       </c>
-      <c r="D20" t="n">
-        <v>7.61768913269043</v>
-      </c>
       <c r="E20" t="n">
+        <v>1.382003903388977</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.05864942073822</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.5986099243164062</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>165.7429504394531</v>
       </c>
     </row>
@@ -3571,18 +3943,21 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>1.381165742874146</v>
+      </c>
+      <c r="D21" t="n">
         <v>1.907618880271912</v>
       </c>
-      <c r="D21" t="n">
-        <v>7.617139339447021</v>
-      </c>
       <c r="E21" t="n">
+        <v>1.381165742874146</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.05795693397522</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.5980096459388733</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>165.8052673339844</v>
       </c>
     </row>
@@ -3596,18 +3971,21 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>1.380340337753296</v>
+      </c>
+      <c r="D22" t="n">
         <v>1.905339479446411</v>
       </c>
-      <c r="D22" t="n">
-        <v>7.616596221923828</v>
-      </c>
       <c r="E22" t="n">
+        <v>1.380340337753296</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.057269096374512</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.5974172353744507</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>165.8671112060547</v>
       </c>
     </row>
@@ -3621,18 +3999,21 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>1.379527807235718</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.903096914291382</v>
       </c>
-      <c r="D23" t="n">
-        <v>7.616061210632324</v>
-      </c>
       <c r="E23" t="n">
+        <v>1.379527807235718</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.056587934494019</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.5968332290649414</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>165.9285736083984</v>
       </c>
     </row>
@@ -3646,18 +4027,21 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>1.378727436065674</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.900889277458191</v>
       </c>
-      <c r="D24" t="n">
-        <v>7.615532398223877</v>
-      </c>
       <c r="E24" t="n">
+        <v>1.378727436065674</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.055911660194397</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.5962570309638977</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>165.9892883300781</v>
       </c>
     </row>
@@ -3671,18 +4055,21 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>1.377938628196716</v>
+      </c>
+      <c r="D25" t="n">
         <v>1.898715019226074</v>
       </c>
-      <c r="D25" t="n">
-        <v>7.615010738372803</v>
-      </c>
       <c r="E25" t="n">
+        <v>1.377938628196716</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.055239915847778</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.5956881642341614</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>166.0499267578125</v>
       </c>
     </row>
@@ -3696,18 +4083,21 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>1.377163887023926</v>
+      </c>
+      <c r="D26" t="n">
         <v>1.896580338478088</v>
       </c>
-      <c r="D26" t="n">
-        <v>7.614494800567627</v>
-      </c>
       <c r="E26" t="n">
+        <v>1.377163887023926</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.054575324058533</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.5951283574104309</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>166.1100921630859</v>
       </c>
     </row>
@@ -3721,18 +4111,21 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>1.376397967338562</v>
+      </c>
+      <c r="D27" t="n">
         <v>1.894471287727356</v>
       </c>
-      <c r="D27" t="n">
-        <v>7.613987445831299</v>
-      </c>
       <c r="E27" t="n">
+        <v>1.376397967338562</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.053913831710815</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.5945741534233093</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>166.1694030761719</v>
       </c>
     </row>
@@ -3746,18 +4139,21 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>1.375643134117126</v>
+      </c>
+      <c r="D28" t="n">
         <v>1.892394185066223</v>
       </c>
-      <c r="D28" t="n">
-        <v>7.613484382629395</v>
-      </c>
       <c r="E28" t="n">
+        <v>1.375643134117126</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.053257346153259</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.5940271615982056</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>166.2284851074219</v>
       </c>
     </row>
@@ -3771,18 +4167,21 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>1.374899983406067</v>
+      </c>
+      <c r="D29" t="n">
         <v>1.890349864959717</v>
       </c>
-      <c r="D29" t="n">
-        <v>7.612988948822021</v>
-      </c>
       <c r="E29" t="n">
+        <v>1.374899983406067</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.052605509757996</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.5934873223304749</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>166.2871704101562</v>
       </c>
     </row>
@@ -3796,18 +4195,21 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>1.374168634414673</v>
+      </c>
+      <c r="D30" t="n">
         <v>1.888339400291443</v>
       </c>
-      <c r="D30" t="n">
-        <v>7.612498760223389</v>
-      </c>
       <c r="E30" t="n">
+        <v>1.374168634414673</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.051960229873657</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.5929557085037231</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>166.3455352783203</v>
       </c>
     </row>
@@ -3821,18 +4223,21 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>1.373447179794312</v>
+      </c>
+      <c r="D31" t="n">
         <v>1.886357307434082</v>
       </c>
-      <c r="D31" t="n">
-        <v>7.612016677856445</v>
-      </c>
       <c r="E31" t="n">
+        <v>1.373447179794312</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.051318526268005</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.5924295783042908</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>166.4033813476562</v>
       </c>
     </row>
@@ -3846,18 +4251,21 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>1.372735977172852</v>
+      </c>
+      <c r="D32" t="n">
         <v>1.884404063224792</v>
       </c>
-      <c r="D32" t="n">
-        <v>7.611541748046875</v>
-      </c>
       <c r="E32" t="n">
+        <v>1.372735977172852</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.050681829452515</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.5919107794761658</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>166.4610290527344</v>
       </c>
     </row>
@@ -3871,18 +4279,21 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>1.372035145759583</v>
+      </c>
+      <c r="D33" t="n">
         <v>1.882480502128601</v>
       </c>
-      <c r="D33" t="n">
-        <v>7.611070156097412</v>
-      </c>
       <c r="E33" t="n">
+        <v>1.372035145759583</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.05010449886322</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.5913984179496765</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>166.5180053710938</v>
       </c>
     </row>
@@ -3896,18 +4307,21 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>1.371343731880188</v>
+      </c>
+      <c r="D34" t="n">
         <v>1.880583763122559</v>
       </c>
-      <c r="D34" t="n">
-        <v>7.610607147216797</v>
-      </c>
       <c r="E34" t="n">
+        <v>1.371343731880188</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.049537897109985</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.5908920168876648</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>166.57470703125</v>
       </c>
     </row>
@@ -3921,18 +4335,21 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>1.370662093162537</v>
+      </c>
+      <c r="D35" t="n">
         <v>1.878714442253113</v>
       </c>
-      <c r="D35" t="n">
-        <v>7.610148429870605</v>
-      </c>
       <c r="E35" t="n">
+        <v>1.370662093162537</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.048975706100464</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.5903925895690918</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>166.6315002441406</v>
       </c>
     </row>
@@ -3946,18 +4363,21 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>1.36998975276947</v>
+      </c>
+      <c r="D36" t="n">
         <v>1.876872062683105</v>
       </c>
-      <c r="D36" t="n">
-        <v>7.609695911407471</v>
-      </c>
       <c r="E36" t="n">
+        <v>1.36998975276947</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.048416018486023</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.5898985266685486</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>166.6875</v>
       </c>
     </row>
@@ -3971,18 +4391,21 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>1.369329214096069</v>
+      </c>
+      <c r="D37" t="n">
         <v>1.875062346458435</v>
       </c>
-      <c r="D37" t="n">
-        <v>7.609249591827393</v>
-      </c>
       <c r="E37" t="n">
+        <v>1.369329214096069</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.047863721847534</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.5894129872322083</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>166.7434539794922</v>
       </c>
     </row>
@@ -3996,18 +4419,21 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>1.368675231933594</v>
+      </c>
+      <c r="D38" t="n">
         <v>1.873271942138672</v>
       </c>
-      <c r="D38" t="n">
-        <v>7.608808040618896</v>
-      </c>
       <c r="E38" t="n">
+        <v>1.368675231933594</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.047312498092651</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.5889312028884888</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>166.7989196777344</v>
       </c>
     </row>
@@ -4021,18 +4447,21 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>1.368031144142151</v>
+      </c>
+      <c r="D39" t="n">
         <v>1.871509075164795</v>
       </c>
-      <c r="D39" t="n">
-        <v>7.608372211456299</v>
-      </c>
       <c r="E39" t="n">
+        <v>1.368031144142151</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.046767354011536</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.5884559750556946</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>166.8542785644531</v>
       </c>
     </row>
@@ -4046,18 +4475,21 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>1.367396593093872</v>
+      </c>
+      <c r="D40" t="n">
         <v>1.869773507118225</v>
       </c>
-      <c r="D40" t="n">
-        <v>7.607942581176758</v>
-      </c>
       <c r="E40" t="n">
+        <v>1.367396593093872</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.04622757434845</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.5879874229431152</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>166.9092712402344</v>
       </c>
     </row>
@@ -4071,18 +4503,21 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>1.366771340370178</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.868063926696777</v>
       </c>
-      <c r="D41" t="n">
-        <v>7.607518196105957</v>
-      </c>
       <c r="E41" t="n">
+        <v>1.366771340370178</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.04569137096405</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.5875245332717896</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>166.9644470214844</v>
       </c>
     </row>
@@ -4096,18 +4531,21 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>1.366152048110962</v>
+      </c>
+      <c r="D42" t="n">
         <v>1.866371393203735</v>
       </c>
-      <c r="D42" t="n">
-        <v>7.607097625732422</v>
-      </c>
       <c r="E42" t="n">
+        <v>1.366152048110962</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.045156955718994</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.5870656967163086</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>167.0187072753906</v>
       </c>
     </row>
@@ -4121,18 +4559,21 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>1.365544080734253</v>
+      </c>
+      <c r="D43" t="n">
         <v>1.864710688591003</v>
       </c>
-      <c r="D43" t="n">
-        <v>7.606682300567627</v>
-      </c>
       <c r="E43" t="n">
+        <v>1.365544080734253</v>
+      </c>
+      <c r="F43" t="n">
         <v>1.044629335403442</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.5866144895553589</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>167.0732421875</v>
       </c>
     </row>
@@ -4146,18 +4587,21 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>1.364943742752075</v>
+      </c>
+      <c r="D44" t="n">
         <v>1.863071441650391</v>
       </c>
-      <c r="D44" t="n">
-        <v>7.606273651123047</v>
-      </c>
       <c r="E44" t="n">
+        <v>1.364943742752075</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.044104695320129</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.5861685276031494</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>167.1273803710938</v>
       </c>
     </row>
@@ -4171,18 +4615,21 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>1.364349126815796</v>
+      </c>
+      <c r="D45" t="n">
         <v>1.861448645591736</v>
       </c>
-      <c r="D45" t="n">
-        <v>7.605869770050049</v>
-      </c>
       <c r="E45" t="n">
+        <v>1.364349126815796</v>
+      </c>
+      <c r="F45" t="n">
         <v>1.043581247329712</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.5857259631156921</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>167.1788482666016</v>
       </c>
     </row>
@@ -4196,18 +4643,21 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>1.363763809204102</v>
+      </c>
+      <c r="D46" t="n">
         <v>1.859851598739624</v>
       </c>
-      <c r="D46" t="n">
-        <v>7.605472564697266</v>
-      </c>
       <c r="E46" t="n">
+        <v>1.363763809204102</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.043063640594482</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.5852900147438049</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>167.2135314941406</v>
       </c>
     </row>
@@ -4221,18 +4671,21 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>1.363186836242676</v>
+      </c>
+      <c r="D47" t="n">
         <v>1.858278512954712</v>
       </c>
-      <c r="D47" t="n">
-        <v>7.605077266693115</v>
-      </c>
       <c r="E47" t="n">
+        <v>1.363186836242676</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.042549610137939</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.5848594307899475</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>167.2499389648438</v>
       </c>
     </row>
@@ -4246,18 +4699,21 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>1.362616539001465</v>
+      </c>
+      <c r="D48" t="n">
         <v>1.856723785400391</v>
       </c>
-      <c r="D48" t="n">
-        <v>7.60468864440918</v>
-      </c>
       <c r="E48" t="n">
+        <v>1.362616539001465</v>
+      </c>
+      <c r="F48" t="n">
         <v>1.042038559913635</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.5844336152076721</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>167.2870025634766</v>
       </c>
     </row>
@@ -4271,18 +4727,21 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>1.362053990364075</v>
+      </c>
+      <c r="D49" t="n">
         <v>1.855190992355347</v>
       </c>
-      <c r="D49" t="n">
-        <v>7.604306221008301</v>
-      </c>
       <c r="E49" t="n">
+        <v>1.362053990364075</v>
+      </c>
+      <c r="F49" t="n">
         <v>1.041531205177307</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.5840126872062683</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>167.3248748779297</v>
       </c>
     </row>
@@ -4296,18 +4755,21 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>1.361498355865479</v>
+      </c>
+      <c r="D50" t="n">
         <v>1.8536776304245</v>
       </c>
-      <c r="D50" t="n">
-        <v>7.603926658630371</v>
-      </c>
       <c r="E50" t="n">
+        <v>1.361498355865479</v>
+      </c>
+      <c r="F50" t="n">
         <v>1.041027069091797</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.5835967063903809</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>167.3629760742188</v>
       </c>
     </row>
@@ -4321,18 +4783,21 @@
         </is>
       </c>
       <c r="C51" t="n">
+        <v>1.360951781272888</v>
+      </c>
+      <c r="D51" t="n">
         <v>1.852189779281616</v>
       </c>
-      <c r="D51" t="n">
-        <v>7.603552341461182</v>
-      </c>
       <c r="E51" t="n">
+        <v>1.360951781272888</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.040531277656555</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.5831866860389709</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>167.4015960693359</v>
       </c>
     </row>
@@ -4347,7 +4812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4368,27 +4833,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lossValue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>logcosh</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>entropyLim</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LWPE</t>
         </is>
       </c>
     </row>
@@ -4402,18 +4872,21 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>1.07209575176239</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.95885181427002</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.628923416137695</v>
-      </c>
       <c r="E2" t="n">
+        <v>1.399589896202087</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.07209575176239</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.6109818816184998</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>164.5243835449219</v>
       </c>
     </row>
@@ -4427,18 +4900,21 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>1.071334958076477</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.956624865531921</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.628984928131104</v>
-      </c>
       <c r="E3" t="n">
+        <v>1.398794054985046</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.071334958076477</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.6103642582893372</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>164.5694274902344</v>
       </c>
     </row>
@@ -4452,18 +4928,21 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>1.070574045181274</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.954423069953918</v>
       </c>
-      <c r="D4" t="n">
-        <v>7.62904691696167</v>
-      </c>
       <c r="E4" t="n">
+        <v>1.398006796836853</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.070574045181274</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.6097514033317566</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>164.6146850585938</v>
       </c>
     </row>
@@ -4477,18 +4956,21 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>1.069813847541809</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.952248692512512</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.629114151000977</v>
-      </c>
       <c r="E5" t="n">
+        <v>1.397228956222534</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.069813847541809</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.6091434359550476</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>164.6601867675781</v>
       </c>
     </row>
@@ -4502,18 +4984,21 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>1.069051742553711</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.95009183883667</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.629183292388916</v>
-      </c>
       <c r="E6" t="n">
+        <v>1.396456837654114</v>
+      </c>
+      <c r="F6" t="n">
         <v>1.069051742553711</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.6085381507873535</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>164.7057952880859</v>
       </c>
     </row>
@@ -4527,18 +5012,21 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>1.068290233612061</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.94796347618103</v>
       </c>
-      <c r="D7" t="n">
-        <v>7.629257678985596</v>
-      </c>
       <c r="E7" t="n">
+        <v>1.395694613456726</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.068290233612061</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.607938289642334</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>164.7480010986328</v>
       </c>
     </row>
@@ -4552,18 +5040,21 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>1.067528128623962</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.945856332778931</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.629331111907959</v>
-      </c>
       <c r="E8" t="n">
+        <v>1.394939541816711</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.067528128623962</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.6073418855667114</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>164.785888671875</v>
       </c>
     </row>
@@ -4577,18 +5068,21 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>1.066764116287231</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.943771362304688</v>
       </c>
-      <c r="D9" t="n">
-        <v>7.629409790039062</v>
-      </c>
       <c r="E9" t="n">
+        <v>1.394191980361938</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.066764116287231</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.6067489981651306</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>164.8240356445312</v>
       </c>
     </row>
@@ -4602,18 +5096,21 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>1.066000461578369</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.941709876060486</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.629491329193115</v>
-      </c>
       <c r="E10" t="n">
+        <v>1.393452525138855</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.066000461578369</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.6061604619026184</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>164.8623962402344</v>
       </c>
     </row>
@@ -4627,18 +5124,21 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>1.065238237380981</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.939678192138672</v>
       </c>
-      <c r="D11" t="n">
-        <v>7.629576683044434</v>
-      </c>
       <c r="E11" t="n">
+        <v>1.392723321914673</v>
+      </c>
+      <c r="F11" t="n">
         <v>1.065238237380981</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.6055777072906494</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>164.9010925292969</v>
       </c>
     </row>
@@ -4652,18 +5152,21 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>1.064473748207092</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.937663197517395</v>
       </c>
-      <c r="D12" t="n">
-        <v>7.629662990570068</v>
-      </c>
       <c r="E12" t="n">
+        <v>1.3919997215271</v>
+      </c>
+      <c r="F12" t="n">
         <v>1.064473748207092</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.6049975752830505</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>164.9395904541016</v>
       </c>
     </row>
@@ -4677,18 +5180,21 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>1.063707709312439</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.935673356056213</v>
       </c>
-      <c r="D13" t="n">
-        <v>7.629752635955811</v>
-      </c>
       <c r="E13" t="n">
+        <v>1.391284823417664</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.063707709312439</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.6044217348098755</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>164.9784698486328</v>
       </c>
     </row>
@@ -4702,18 +5208,21 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>1.062942743301392</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.933708786964417</v>
       </c>
-      <c r="D14" t="n">
-        <v>7.629847049713135</v>
-      </c>
       <c r="E14" t="n">
+        <v>1.390578627586365</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.062942743301392</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6038505434989929</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>165.0172729492188</v>
       </c>
     </row>
@@ -4727,18 +5236,21 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>1.062177419662476</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.931767225265503</v>
       </c>
-      <c r="D15" t="n">
-        <v>7.629941940307617</v>
-      </c>
       <c r="E15" t="n">
+        <v>1.389880299568176</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.062177419662476</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.6032836437225342</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>165.0565185546875</v>
       </c>
     </row>
@@ -4752,18 +5264,21 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>1.061410665512085</v>
+      </c>
+      <c r="D16" t="n">
         <v>1.929849028587341</v>
       </c>
-      <c r="D16" t="n">
-        <v>7.630041122436523</v>
-      </c>
       <c r="E16" t="n">
+        <v>1.389190077781677</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.061410665512085</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.6027205586433411</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>165.0958557128906</v>
       </c>
     </row>
@@ -4777,18 +5292,21 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>1.060644030570984</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.92795717716217</v>
       </c>
-      <c r="D17" t="n">
-        <v>7.630144119262695</v>
-      </c>
       <c r="E17" t="n">
+        <v>1.388509035110474</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.060644030570984</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.6021627187728882</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>165.1353149414062</v>
       </c>
     </row>
@@ -4802,18 +5320,21 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>1.059877634048462</v>
+      </c>
+      <c r="D18" t="n">
         <v>1.92609179019928</v>
       </c>
-      <c r="D18" t="n">
-        <v>7.6302490234375</v>
-      </c>
       <c r="E18" t="n">
+        <v>1.387837052345276</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.059877634048462</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.6016095876693726</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>165.1748352050781</v>
       </c>
     </row>
@@ -4827,18 +5348,21 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>1.059109926223755</v>
+      </c>
+      <c r="D19" t="n">
         <v>1.924246549606323</v>
       </c>
-      <c r="D19" t="n">
-        <v>7.63035774230957</v>
-      </c>
       <c r="E19" t="n">
+        <v>1.387172102928162</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.059109926223755</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.6010599732398987</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>165.2147216796875</v>
       </c>
     </row>
@@ -4852,18 +5376,21 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>1.058341026306152</v>
+      </c>
+      <c r="D20" t="n">
         <v>1.922425270080566</v>
       </c>
-      <c r="D20" t="n">
-        <v>7.63046932220459</v>
-      </c>
       <c r="E20" t="n">
+        <v>1.386515498161316</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.058341026306152</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.6005146503448486</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>165.2547607421875</v>
       </c>
     </row>
@@ -4877,18 +5404,21 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>1.057572841644287</v>
+      </c>
+      <c r="D21" t="n">
         <v>1.920629143714905</v>
       </c>
-      <c r="D21" t="n">
-        <v>7.630584716796875</v>
-      </c>
       <c r="E21" t="n">
+        <v>1.385867595672607</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.057572841644287</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.5999742150306702</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>165.2950744628906</v>
       </c>
     </row>
@@ -4902,18 +5432,21 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>1.056822299957275</v>
+      </c>
+      <c r="D22" t="n">
         <v>1.918744087219238</v>
       </c>
-      <c r="D22" t="n">
-        <v>7.630551338195801</v>
-      </c>
       <c r="E22" t="n">
+        <v>1.385187387466431</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.056822299957275</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.5994246602058411</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>165.3410949707031</v>
       </c>
     </row>
@@ -4927,18 +5460,21 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>1.056143403053284</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.916713953018188</v>
       </c>
-      <c r="D23" t="n">
-        <v>7.630158424377441</v>
-      </c>
       <c r="E23" t="n">
+        <v>1.384454369544983</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.056143403053284</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.5988711714744568</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>165.3996276855469</v>
       </c>
     </row>
@@ -4952,18 +5488,21 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>1.055464625358582</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.914697766304016</v>
       </c>
-      <c r="D24" t="n">
-        <v>7.629767894744873</v>
-      </c>
       <c r="E24" t="n">
+        <v>1.383726000785828</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.055464625358582</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.5983200073242188</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>165.4583740234375</v>
       </c>
     </row>
@@ -4977,18 +5516,21 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>1.054785966873169</v>
+      </c>
+      <c r="D25" t="n">
         <v>1.912698149681091</v>
       </c>
-      <c r="D25" t="n">
-        <v>7.629380226135254</v>
-      </c>
       <c r="E25" t="n">
+        <v>1.383003354072571</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.054785966873169</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.5977717638015747</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>165.5174560546875</v>
       </c>
     </row>
@@ -5002,18 +5544,21 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>1.054108023643494</v>
+      </c>
+      <c r="D26" t="n">
         <v>1.910712718963623</v>
       </c>
-      <c r="D26" t="n">
-        <v>7.62899112701416</v>
-      </c>
       <c r="E26" t="n">
+        <v>1.382285356521606</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.054108023643494</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.5972261428833008</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>165.5768280029297</v>
       </c>
     </row>
@@ -5027,18 +5572,21 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>1.053430914878845</v>
+      </c>
+      <c r="D27" t="n">
         <v>1.908743143081665</v>
       </c>
-      <c r="D27" t="n">
-        <v>7.628602981567383</v>
-      </c>
       <c r="E27" t="n">
+        <v>1.381572723388672</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.053430914878845</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.5966833233833313</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>165.6361694335938</v>
       </c>
     </row>
@@ -5052,18 +5600,21 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>1.05275285243988</v>
+      </c>
+      <c r="D28" t="n">
         <v>1.906787157058716</v>
       </c>
-      <c r="D28" t="n">
-        <v>7.628215789794922</v>
-      </c>
       <c r="E28" t="n">
+        <v>1.38086462020874</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.05275285243988</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.5961426496505737</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>165.6960754394531</v>
       </c>
     </row>
@@ -5077,18 +5628,21 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>1.05207371711731</v>
+      </c>
+      <c r="D29" t="n">
         <v>1.904842376708984</v>
       </c>
-      <c r="D29" t="n">
-        <v>7.627830982208252</v>
-      </c>
       <c r="E29" t="n">
+        <v>1.380160212516785</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.05207371711731</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.5956037640571594</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>165.7562866210938</v>
       </c>
     </row>
@@ -5102,18 +5656,21 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>1.051395773887634</v>
+      </c>
+      <c r="D30" t="n">
         <v>1.902912616729736</v>
       </c>
-      <c r="D30" t="n">
-        <v>7.627444744110107</v>
-      </c>
       <c r="E30" t="n">
+        <v>1.37946093082428</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.051395773887634</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.5950678586959839</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>165.8166656494141</v>
       </c>
     </row>
@@ -5127,18 +5684,21 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>1.050718307495117</v>
+      </c>
+      <c r="D31" t="n">
         <v>1.901001334190369</v>
       </c>
-      <c r="D31" t="n">
-        <v>7.627060890197754</v>
-      </c>
       <c r="E31" t="n">
+        <v>1.378768086433411</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.050718307495117</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.594535231590271</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>165.8772583007812</v>
       </c>
     </row>
@@ -5152,18 +5712,21 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>1.050039887428284</v>
+      </c>
+      <c r="D32" t="n">
         <v>1.899098038673401</v>
       </c>
-      <c r="D32" t="n">
-        <v>7.626679420471191</v>
-      </c>
       <c r="E32" t="n">
+        <v>1.378077626228333</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.050039887428284</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.5940039157867432</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>165.9381866455078</v>
       </c>
     </row>
@@ -5177,18 +5740,21 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>1.04936158657074</v>
+      </c>
+      <c r="D33" t="n">
         <v>1.897212147712708</v>
       </c>
-      <c r="D33" t="n">
-        <v>7.626297473907471</v>
-      </c>
       <c r="E33" t="n">
+        <v>1.377393245697021</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.04936158657074</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.5934754014015198</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>165.9995727539062</v>
       </c>
     </row>
@@ -5202,18 +5768,21 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>1.048683643341064</v>
+      </c>
+      <c r="D34" t="n">
         <v>1.895341277122498</v>
       </c>
-      <c r="D34" t="n">
-        <v>7.625915050506592</v>
-      </c>
       <c r="E34" t="n">
+        <v>1.376713991165161</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.048683643341064</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.5929499268531799</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>166.0612640380859</v>
       </c>
     </row>
@@ -5227,18 +5796,21 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>1.048007130622864</v>
+      </c>
+      <c r="D35" t="n">
         <v>1.893486976623535</v>
       </c>
-      <c r="D35" t="n">
-        <v>7.625535488128662</v>
-      </c>
       <c r="E35" t="n">
+        <v>1.37604033946991</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.048007130622864</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.5924274325370789</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>166.1231689453125</v>
       </c>
     </row>
@@ -5252,18 +5824,21 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>1.047327995300293</v>
+      </c>
+      <c r="D36" t="n">
         <v>1.89164137840271</v>
       </c>
-      <c r="D36" t="n">
-        <v>7.625156402587891</v>
-      </c>
       <c r="E36" t="n">
+        <v>1.375369548797607</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.047327995300293</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.5919058322906494</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>166.1856689453125</v>
       </c>
     </row>
@@ -5277,18 +5852,21 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>1.046651601791382</v>
+      </c>
+      <c r="D37" t="n">
         <v>1.889816641807556</v>
       </c>
-      <c r="D37" t="n">
-        <v>7.624779224395752</v>
-      </c>
       <c r="E37" t="n">
+        <v>1.374706029891968</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.046651601791382</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.5913886427879333</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>166.2484436035156</v>
       </c>
     </row>
@@ -5302,18 +5880,21 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>1.045973658561707</v>
+      </c>
+      <c r="D38" t="n">
         <v>1.88800036907196</v>
       </c>
-      <c r="D38" t="n">
-        <v>7.624402523040771</v>
-      </c>
       <c r="E38" t="n">
+        <v>1.374045252799988</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.045973658561707</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.5908730030059814</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>166.3115539550781</v>
       </c>
     </row>
@@ -5327,18 +5908,21 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>1.045296192169189</v>
+      </c>
+      <c r="D39" t="n">
         <v>1.886198997497559</v>
       </c>
-      <c r="D39" t="n">
-        <v>7.624026775360107</v>
-      </c>
       <c r="E39" t="n">
+        <v>1.373389601707458</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.045296192169189</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.590359628200531</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>166.3751678466797</v>
       </c>
     </row>
@@ -5352,18 +5936,21 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>1.044619679450989</v>
+      </c>
+      <c r="D40" t="n">
         <v>1.8844153881073</v>
       </c>
-      <c r="D40" t="n">
-        <v>7.623651027679443</v>
-      </c>
       <c r="E40" t="n">
+        <v>1.372740149497986</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.044619679450989</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.5898498296737671</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>166.4390869140625</v>
       </c>
     </row>
@@ -5377,18 +5964,21 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>1.043942332267761</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.882645487785339</v>
       </c>
-      <c r="D41" t="n">
-        <v>7.623278141021729</v>
-      </c>
       <c r="E41" t="n">
+        <v>1.372095346450806</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.043942332267761</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.5893422365188599</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>166.5033569335938</v>
       </c>
     </row>
@@ -5402,18 +5992,21 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>1.043265104293823</v>
+      </c>
+      <c r="D42" t="n">
         <v>1.880889177322388</v>
       </c>
-      <c r="D42" t="n">
-        <v>7.622907161712646</v>
-      </c>
       <c r="E42" t="n">
+        <v>1.371455073356628</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.043265104293823</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.5888370275497437</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>166.5681457519531</v>
       </c>
     </row>
@@ -5427,18 +6020,21 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>1.042588710784912</v>
+      </c>
+      <c r="D43" t="n">
         <v>1.879147052764893</v>
       </c>
-      <c r="D43" t="n">
-        <v>7.622533321380615</v>
-      </c>
       <c r="E43" t="n">
+        <v>1.370819807052612</v>
+      </c>
+      <c r="F43" t="n">
         <v>1.042588710784912</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.5883347392082214</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>166.6333618164062</v>
       </c>
     </row>
@@ -5452,18 +6048,21 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>1.041911125183105</v>
+      </c>
+      <c r="D44" t="n">
         <v>1.877416133880615</v>
       </c>
-      <c r="D44" t="n">
-        <v>7.622162818908691</v>
-      </c>
       <c r="E44" t="n">
+        <v>1.370188355445862</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.041911125183105</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.5878342390060425</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>166.6992492675781</v>
       </c>
     </row>
@@ -5477,18 +6076,21 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>1.041233658790588</v>
+      </c>
+      <c r="D45" t="n">
         <v>1.875699758529663</v>
       </c>
-      <c r="D45" t="n">
-        <v>7.621792316436768</v>
-      </c>
       <c r="E45" t="n">
+        <v>1.369561910629272</v>
+      </c>
+      <c r="F45" t="n">
         <v>1.041233658790588</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.5873362421989441</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>166.7654113769531</v>
       </c>
     </row>
@@ -5502,18 +6104,21 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>1.040557503700256</v>
+      </c>
+      <c r="D46" t="n">
         <v>1.873999834060669</v>
       </c>
-      <c r="D46" t="n">
-        <v>7.62142276763916</v>
-      </c>
       <c r="E46" t="n">
+        <v>1.368941187858582</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.040557503700256</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.5868417620658875</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>166.83251953125</v>
       </c>
     </row>
@@ -5527,18 +6132,21 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>1.039881110191345</v>
+      </c>
+      <c r="D47" t="n">
         <v>1.872314691543579</v>
       </c>
-      <c r="D47" t="n">
-        <v>7.621053218841553</v>
-      </c>
       <c r="E47" t="n">
+        <v>1.368325471878052</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.039881110191345</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.5863497257232666</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>166.8997955322266</v>
       </c>
     </row>
@@ -5552,18 +6160,21 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>1.039232969284058</v>
+      </c>
+      <c r="D48" t="n">
         <v>1.870640277862549</v>
       </c>
-      <c r="D48" t="n">
-        <v>7.620687007904053</v>
-      </c>
       <c r="E48" t="n">
+        <v>1.367713570594788</v>
+      </c>
+      <c r="F48" t="n">
         <v>1.039232969284058</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.5858592987060547</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>166.9675445556641</v>
       </c>
     </row>
@@ -5577,18 +6188,21 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>1.038636803627014</v>
+      </c>
+      <c r="D49" t="n">
         <v>1.869155406951904</v>
       </c>
-      <c r="D49" t="n">
-        <v>7.62035608291626</v>
-      </c>
       <c r="E49" t="n">
+        <v>1.367170572280884</v>
+      </c>
+      <c r="F49" t="n">
         <v>1.038636803627014</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.5854138135910034</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>167.0184020996094</v>
       </c>
     </row>
@@ -5602,18 +6216,21 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>1.038040399551392</v>
+      </c>
+      <c r="D50" t="n">
         <v>1.86767840385437</v>
       </c>
-      <c r="D50" t="n">
-        <v>7.620023727416992</v>
-      </c>
       <c r="E50" t="n">
+        <v>1.36663031578064</v>
+      </c>
+      <c r="F50" t="n">
         <v>1.038040399551392</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.5849693417549133</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>167.0694122314453</v>
       </c>
     </row>
@@ -5627,18 +6244,21 @@
         </is>
       </c>
       <c r="C51" t="n">
+        <v>1.0374436378479</v>
+      </c>
+      <c r="D51" t="n">
         <v>1.866212368011475</v>
       </c>
-      <c r="D51" t="n">
-        <v>7.619691848754883</v>
-      </c>
       <c r="E51" t="n">
+        <v>1.366093873977661</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.0374436378479</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.5845267176628113</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>167.12109375</v>
       </c>
     </row>
@@ -5653,7 +6273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5674,27 +6294,32 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>lossValue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>mse</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>rmse</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>mae</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>logcosh</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>entropyLim</t>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>LWPE</t>
         </is>
       </c>
     </row>
@@ -5708,18 +6333,21 @@
         </is>
       </c>
       <c r="C2" t="n">
+        <v>0.6109818816184998</v>
+      </c>
+      <c r="D2" t="n">
         <v>1.95885181427002</v>
       </c>
-      <c r="D2" t="n">
-        <v>7.628923416137695</v>
-      </c>
       <c r="E2" t="n">
+        <v>1.399589896202087</v>
+      </c>
+      <c r="F2" t="n">
         <v>1.07209575176239</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>0.6109818816184998</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>164.5243835449219</v>
       </c>
     </row>
@@ -5733,18 +6361,21 @@
         </is>
       </c>
       <c r="C3" t="n">
+        <v>0.6104152202606201</v>
+      </c>
+      <c r="D3" t="n">
         <v>1.956683754920959</v>
       </c>
-      <c r="D3" t="n">
-        <v>7.628603935241699</v>
-      </c>
       <c r="E3" t="n">
+        <v>1.398815155029297</v>
+      </c>
+      <c r="F3" t="n">
         <v>1.071476578712463</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>0.6104152202606201</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>164.5735473632812</v>
       </c>
     </row>
@@ -5758,18 +6389,21 @@
         </is>
       </c>
       <c r="C4" t="n">
+        <v>0.6098540425300598</v>
+      </c>
+      <c r="D4" t="n">
         <v>1.954538464546204</v>
       </c>
-      <c r="D4" t="n">
-        <v>7.628286838531494</v>
-      </c>
       <c r="E4" t="n">
+        <v>1.398048043251038</v>
+      </c>
+      <c r="F4" t="n">
         <v>1.070861101150513</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>0.6098540425300598</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>164.6222839355469</v>
       </c>
     </row>
@@ -5783,18 +6417,21 @@
         </is>
       </c>
       <c r="C5" t="n">
+        <v>0.6092979907989502</v>
+      </c>
+      <c r="D5" t="n">
         <v>1.952420234680176</v>
       </c>
-      <c r="D5" t="n">
-        <v>7.627969741821289</v>
-      </c>
       <c r="E5" t="n">
+        <v>1.397290349006653</v>
+      </c>
+      <c r="F5" t="n">
         <v>1.070247769355774</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>0.6092979907989502</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>164.6710205078125</v>
       </c>
     </row>
@@ -5808,18 +6445,21 @@
         </is>
       </c>
       <c r="C6" t="n">
+        <v>0.6087461709976196</v>
+      </c>
+      <c r="D6" t="n">
         <v>1.950320482254028</v>
       </c>
-      <c r="D6" t="n">
-        <v>7.6276535987854</v>
-      </c>
       <c r="E6" t="n">
+        <v>1.396538734436035</v>
+      </c>
+      <c r="F6" t="n">
         <v>1.069636464118958</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>0.6087461709976196</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>164.7194213867188</v>
       </c>
     </row>
@@ -5833,18 +6473,21 @@
         </is>
       </c>
       <c r="C7" t="n">
+        <v>0.6082002520561218</v>
+      </c>
+      <c r="D7" t="n">
         <v>1.948247194290161</v>
       </c>
-      <c r="D7" t="n">
-        <v>7.627338886260986</v>
-      </c>
       <c r="E7" t="n">
+        <v>1.395796298980713</v>
+      </c>
+      <c r="F7" t="n">
         <v>1.069029569625854</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>0.6082002520561218</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>164.7677612304688</v>
       </c>
     </row>
@@ -5858,18 +6501,21 @@
         </is>
       </c>
       <c r="C8" t="n">
+        <v>0.6076586246490479</v>
+      </c>
+      <c r="D8" t="n">
         <v>1.946196556091309</v>
       </c>
-      <c r="D8" t="n">
-        <v>7.627027034759521</v>
-      </c>
       <c r="E8" t="n">
+        <v>1.395061492919922</v>
+      </c>
+      <c r="F8" t="n">
         <v>1.068424582481384</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>0.6076586246490479</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>164.8155212402344</v>
       </c>
     </row>
@@ -5883,18 +6529,21 @@
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0.6071228981018066</v>
+      </c>
+      <c r="D9" t="n">
         <v>1.944171547889709</v>
       </c>
-      <c r="D9" t="n">
-        <v>7.626713275909424</v>
-      </c>
       <c r="E9" t="n">
+        <v>1.394335508346558</v>
+      </c>
+      <c r="F9" t="n">
         <v>1.067823767662048</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>0.6071228981018066</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>164.8632507324219</v>
       </c>
     </row>
@@ -5908,18 +6557,21 @@
         </is>
       </c>
       <c r="C10" t="n">
+        <v>0.6065917015075684</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.942167520523071</v>
       </c>
-      <c r="D10" t="n">
-        <v>7.626401901245117</v>
-      </c>
       <c r="E10" t="n">
+        <v>1.393616676330566</v>
+      </c>
+      <c r="F10" t="n">
         <v>1.067225337028503</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>0.6065917015075684</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>164.9108428955078</v>
       </c>
     </row>
@@ -5933,18 +6585,21 @@
         </is>
       </c>
       <c r="C11" t="n">
+        <v>0.6060641407966614</v>
+      </c>
+      <c r="D11" t="n">
         <v>1.940181851387024</v>
       </c>
-      <c r="D11" t="n">
-        <v>7.626091003417969</v>
-      </c>
       <c r="E11" t="n">
+        <v>1.392904162406921</v>
+      </c>
+      <c r="F11" t="n">
         <v>1.066628932952881</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>0.6060641407966614</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>164.958251953125</v>
       </c>
     </row>
@@ -5958,18 +6613,21 @@
         </is>
       </c>
       <c r="C12" t="n">
+        <v>0.605541467666626</v>
+      </c>
+      <c r="D12" t="n">
         <v>1.938218951225281</v>
       </c>
-      <c r="D12" t="n">
-        <v>7.62578010559082</v>
-      </c>
       <c r="E12" t="n">
+        <v>1.392199277877808</v>
+      </c>
+      <c r="F12" t="n">
         <v>1.06603467464447</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>0.605541467666626</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>165.0054931640625</v>
       </c>
     </row>
@@ -5983,18 +6641,21 @@
         </is>
       </c>
       <c r="C13" t="n">
+        <v>0.6050233840942383</v>
+      </c>
+      <c r="D13" t="n">
         <v>1.936276912689209</v>
       </c>
-      <c r="D13" t="n">
-        <v>7.625471115112305</v>
-      </c>
       <c r="E13" t="n">
+        <v>1.391501665115356</v>
+      </c>
+      <c r="F13" t="n">
         <v>1.065443634986877</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>0.6050233840942383</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>165.0522613525391</v>
       </c>
     </row>
@@ -6008,18 +6669,21 @@
         </is>
       </c>
       <c r="C14" t="n">
+        <v>0.6045100688934326</v>
+      </c>
+      <c r="D14" t="n">
         <v>1.934357643127441</v>
       </c>
-      <c r="D14" t="n">
-        <v>7.625164031982422</v>
-      </c>
       <c r="E14" t="n">
+        <v>1.390811920166016</v>
+      </c>
+      <c r="F14" t="n">
         <v>1.064855694770813</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>0.6045100688934326</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>165.0991516113281</v>
       </c>
     </row>
@@ -6033,18 +6697,21 @@
         </is>
       </c>
       <c r="C15" t="n">
+        <v>0.6040013432502747</v>
+      </c>
+      <c r="D15" t="n">
         <v>1.932458519935608</v>
       </c>
-      <c r="D15" t="n">
-        <v>7.624855995178223</v>
-      </c>
       <c r="E15" t="n">
+        <v>1.390128970146179</v>
+      </c>
+      <c r="F15" t="n">
         <v>1.064270496368408</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.6040013432502747</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>165.1454162597656</v>
       </c>
     </row>
@@ -6058,18 +6725,21 @@
         </is>
       </c>
       <c r="C16" t="n">
+        <v>0.6034969091415405</v>
+      </c>
+      <c r="D16" t="n">
         <v>1.930579543113708</v>
       </c>
-      <c r="D16" t="n">
-        <v>7.624551296234131</v>
-      </c>
       <c r="E16" t="n">
+        <v>1.389452934265137</v>
+      </c>
+      <c r="F16" t="n">
         <v>1.063687801361084</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>0.6034969091415405</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>165.1918029785156</v>
       </c>
     </row>
@@ -6083,18 +6753,21 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>0.6029967665672302</v>
+      </c>
+      <c r="D17" t="n">
         <v>1.928720593452454</v>
       </c>
-      <c r="D17" t="n">
-        <v>7.624246597290039</v>
-      </c>
       <c r="E17" t="n">
+        <v>1.388783812522888</v>
+      </c>
+      <c r="F17" t="n">
         <v>1.06310760974884</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>0.6029967665672302</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>165.2376708984375</v>
       </c>
     </row>
@@ -6108,18 +6781,21 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>0.6025010347366333</v>
+      </c>
+      <c r="D18" t="n">
         <v>1.926883220672607</v>
       </c>
-      <c r="D18" t="n">
-        <v>7.623941421508789</v>
-      </c>
       <c r="E18" t="n">
+        <v>1.388122200965881</v>
+      </c>
+      <c r="F18" t="n">
         <v>1.062530517578125</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.6025010347366333</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>165.2815093994141</v>
       </c>
     </row>
@@ -6133,18 +6809,21 @@
         </is>
       </c>
       <c r="C19" t="n">
+        <v>0.602009654045105</v>
+      </c>
+      <c r="D19" t="n">
         <v>1.925064325332642</v>
       </c>
-      <c r="D19" t="n">
-        <v>7.623638153076172</v>
-      </c>
       <c r="E19" t="n">
+        <v>1.387466907501221</v>
+      </c>
+      <c r="F19" t="n">
         <v>1.061955571174622</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>0.602009654045105</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>165.3251800537109</v>
       </c>
     </row>
@@ -6158,18 +6837,21 @@
         </is>
       </c>
       <c r="C20" t="n">
+        <v>0.6015201210975647</v>
+      </c>
+      <c r="D20" t="n">
         <v>1.923256635665894</v>
       </c>
-      <c r="D20" t="n">
-        <v>7.623335838317871</v>
-      </c>
       <c r="E20" t="n">
+        <v>1.386815309524536</v>
+      </c>
+      <c r="F20" t="n">
         <v>1.061380863189697</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.6015201210975647</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>165.3684539794922</v>
       </c>
     </row>
@@ -6183,18 +6865,21 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>0.6010381579399109</v>
+      </c>
+      <c r="D21" t="n">
         <v>1.921480298042297</v>
       </c>
-      <c r="D21" t="n">
-        <v>7.623034000396729</v>
-      </c>
       <c r="E21" t="n">
+        <v>1.38617467880249</v>
+      </c>
+      <c r="F21" t="n">
         <v>1.060812950134277</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>0.6010381579399109</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>165.4119567871094</v>
       </c>
     </row>
@@ -6208,18 +6893,21 @@
         </is>
       </c>
       <c r="C22" t="n">
+        <v>0.6005587577819824</v>
+      </c>
+      <c r="D22" t="n">
         <v>1.919718742370605</v>
       </c>
-      <c r="D22" t="n">
-        <v>7.622731685638428</v>
-      </c>
       <c r="E22" t="n">
+        <v>1.385539174079895</v>
+      </c>
+      <c r="F22" t="n">
         <v>1.060245633125305</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>0.6005587577819824</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>165.4552001953125</v>
       </c>
     </row>
@@ -6233,18 +6921,21 @@
         </is>
       </c>
       <c r="C23" t="n">
+        <v>0.6000837683677673</v>
+      </c>
+      <c r="D23" t="n">
         <v>1.917974948883057</v>
       </c>
-      <c r="D23" t="n">
-        <v>7.62243127822876</v>
-      </c>
       <c r="E23" t="n">
+        <v>1.384909749031067</v>
+      </c>
+      <c r="F23" t="n">
         <v>1.059680819511414</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>0.6000837683677673</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>165.4982452392578</v>
       </c>
     </row>
@@ -6258,18 +6949,21 @@
         </is>
       </c>
       <c r="C24" t="n">
+        <v>0.5996122360229492</v>
+      </c>
+      <c r="D24" t="n">
         <v>1.916248798370361</v>
       </c>
-      <c r="D24" t="n">
-        <v>7.622132778167725</v>
-      </c>
       <c r="E24" t="n">
+        <v>1.384286403656006</v>
+      </c>
+      <c r="F24" t="n">
         <v>1.059118390083313</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>0.5996122360229492</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>165.5411682128906</v>
       </c>
     </row>
@@ -6283,18 +6977,21 @@
         </is>
       </c>
       <c r="C25" t="n">
+        <v>0.5991455316543579</v>
+      </c>
+      <c r="D25" t="n">
         <v>1.914543986320496</v>
       </c>
-      <c r="D25" t="n">
-        <v>7.621833324432373</v>
-      </c>
       <c r="E25" t="n">
+        <v>1.383670449256897</v>
+      </c>
+      <c r="F25" t="n">
         <v>1.05855929851532</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>0.5991455316543579</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>165.5839538574219</v>
       </c>
     </row>
@@ -6308,18 +7005,21 @@
         </is>
       </c>
       <c r="C26" t="n">
+        <v>0.5986825227737427</v>
+      </c>
+      <c r="D26" t="n">
         <v>1.912855386734009</v>
       </c>
-      <c r="D26" t="n">
-        <v>7.621536731719971</v>
-      </c>
       <c r="E26" t="n">
+        <v>1.383060097694397</v>
+      </c>
+      <c r="F26" t="n">
         <v>1.058002948760986</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>0.5986825227737427</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>165.6265563964844</v>
       </c>
     </row>
@@ -6333,18 +7033,21 @@
         </is>
       </c>
       <c r="C27" t="n">
+        <v>0.5982227325439453</v>
+      </c>
+      <c r="D27" t="n">
         <v>1.911181449890137</v>
       </c>
-      <c r="D27" t="n">
-        <v>7.621239185333252</v>
-      </c>
       <c r="E27" t="n">
+        <v>1.382454872131348</v>
+      </c>
+      <c r="F27" t="n">
         <v>1.057448267936707</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>0.5982227325439453</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>165.6690979003906</v>
       </c>
     </row>
@@ -6358,18 +7061,21 @@
         </is>
       </c>
       <c r="C28" t="n">
+        <v>0.5977677702903748</v>
+      </c>
+      <c r="D28" t="n">
         <v>1.909530997276306</v>
       </c>
-      <c r="D28" t="n">
-        <v>7.620944499969482</v>
-      </c>
       <c r="E28" t="n">
+        <v>1.381857752799988</v>
+      </c>
+      <c r="F28" t="n">
         <v>1.056896448135376</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>0.5977677702903748</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>165.7114715576172</v>
       </c>
     </row>
@@ -6383,18 +7089,21 @@
         </is>
       </c>
       <c r="C29" t="n">
+        <v>0.5973156690597534</v>
+      </c>
+      <c r="D29" t="n">
         <v>1.907893657684326</v>
       </c>
-      <c r="D29" t="n">
-        <v>7.620651721954346</v>
-      </c>
       <c r="E29" t="n">
+        <v>1.38126528263092</v>
+      </c>
+      <c r="F29" t="n">
         <v>1.05634617805481</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.5973156690597534</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>165.7538299560547</v>
       </c>
     </row>
@@ -6408,18 +7117,21 @@
         </is>
       </c>
       <c r="C30" t="n">
+        <v>0.5968677997589111</v>
+      </c>
+      <c r="D30" t="n">
         <v>1.906274795532227</v>
       </c>
-      <c r="D30" t="n">
-        <v>7.620357513427734</v>
-      </c>
       <c r="E30" t="n">
+        <v>1.380679130554199</v>
+      </c>
+      <c r="F30" t="n">
         <v>1.05579936504364</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>0.5968677997589111</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>165.7959289550781</v>
       </c>
     </row>
@@ -6433,18 +7145,21 @@
         </is>
       </c>
       <c r="C31" t="n">
+        <v>0.5964235663414001</v>
+      </c>
+      <c r="D31" t="n">
         <v>1.904672384262085</v>
       </c>
-      <c r="D31" t="n">
-        <v>7.620064735412598</v>
-      </c>
       <c r="E31" t="n">
+        <v>1.380098700523376</v>
+      </c>
+      <c r="F31" t="n">
         <v>1.055254340171814</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>0.5964235663414001</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>165.837890625</v>
       </c>
     </row>
@@ -6458,18 +7173,21 @@
         </is>
       </c>
       <c r="C32" t="n">
+        <v>0.5959835648536682</v>
+      </c>
+      <c r="D32" t="n">
         <v>1.903088450431824</v>
       </c>
-      <c r="D32" t="n">
-        <v>7.61977481842041</v>
-      </c>
       <c r="E32" t="n">
+        <v>1.379524707794189</v>
+      </c>
+      <c r="F32" t="n">
         <v>1.054713129997253</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>0.5959835648536682</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>165.8795776367188</v>
       </c>
     </row>
@@ -6483,18 +7201,21 @@
         </is>
       </c>
       <c r="C33" t="n">
+        <v>0.5955466628074646</v>
+      </c>
+      <c r="D33" t="n">
         <v>1.901520252227783</v>
       </c>
-      <c r="D33" t="n">
-        <v>7.619482517242432</v>
-      </c>
       <c r="E33" t="n">
+        <v>1.378956198692322</v>
+      </c>
+      <c r="F33" t="n">
         <v>1.054173588752747</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>0.5955466628074646</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>165.9213409423828</v>
       </c>
     </row>
@@ -6508,18 +7229,21 @@
         </is>
       </c>
       <c r="C34" t="n">
+        <v>0.5951134562492371</v>
+      </c>
+      <c r="D34" t="n">
         <v>1.899968266487122</v>
       </c>
-      <c r="D34" t="n">
-        <v>7.619192123413086</v>
-      </c>
       <c r="E34" t="n">
+        <v>1.378393411636353</v>
+      </c>
+      <c r="F34" t="n">
         <v>1.053636193275452</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>0.5951134562492371</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>165.9629364013672</v>
       </c>
     </row>
@@ -6533,18 +7257,21 @@
         </is>
       </c>
       <c r="C35" t="n">
+        <v>0.5946835279464722</v>
+      </c>
+      <c r="D35" t="n">
         <v>1.898430347442627</v>
       </c>
-      <c r="D35" t="n">
-        <v>7.618903160095215</v>
-      </c>
       <c r="E35" t="n">
+        <v>1.377835392951965</v>
+      </c>
+      <c r="F35" t="n">
         <v>1.053100943565369</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>0.5946835279464722</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>166.0044708251953</v>
       </c>
     </row>
@@ -6558,18 +7285,21 @@
         </is>
       </c>
       <c r="C36" t="n">
+        <v>0.594257652759552</v>
+      </c>
+      <c r="D36" t="n">
         <v>1.896910905838013</v>
       </c>
-      <c r="D36" t="n">
-        <v>7.618613243103027</v>
-      </c>
       <c r="E36" t="n">
+        <v>1.377283930778503</v>
+      </c>
+      <c r="F36" t="n">
         <v>1.052569150924683</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.594257652759552</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>166.0456848144531</v>
       </c>
     </row>
@@ -6583,18 +7313,21 @@
         </is>
       </c>
       <c r="C37" t="n">
+        <v>0.5938341617584229</v>
+      </c>
+      <c r="D37" t="n">
         <v>1.895402431488037</v>
       </c>
-      <c r="D37" t="n">
-        <v>7.618326663970947</v>
-      </c>
       <c r="E37" t="n">
+        <v>1.376736164093018</v>
+      </c>
+      <c r="F37" t="n">
         <v>1.052037835121155</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>0.5938341617584229</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>166.0870056152344</v>
       </c>
     </row>
@@ -6608,18 +7341,21 @@
         </is>
       </c>
       <c r="C38" t="n">
+        <v>0.5934147834777832</v>
+      </c>
+      <c r="D38" t="n">
         <v>1.893914580345154</v>
       </c>
-      <c r="D38" t="n">
-        <v>7.618038654327393</v>
-      </c>
       <c r="E38" t="n">
+        <v>1.376195669174194</v>
+      </c>
+      <c r="F38" t="n">
         <v>1.051509499549866</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>0.5934147834777832</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>166.1282196044922</v>
       </c>
     </row>
@@ -6633,18 +7369,21 @@
         </is>
       </c>
       <c r="C39" t="n">
+        <v>0.5929980278015137</v>
+      </c>
+      <c r="D39" t="n">
         <v>1.892435669898987</v>
       </c>
-      <c r="D39" t="n">
-        <v>7.617753505706787</v>
-      </c>
       <c r="E39" t="n">
+        <v>1.375658273696899</v>
+      </c>
+      <c r="F39" t="n">
         <v>1.050983428955078</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>0.5929980278015137</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>166.1690368652344</v>
       </c>
     </row>
@@ -6658,18 +7397,21 @@
         </is>
       </c>
       <c r="C40" t="n">
+        <v>0.5925851464271545</v>
+      </c>
+      <c r="D40" t="n">
         <v>1.890974044799805</v>
       </c>
-      <c r="D40" t="n">
-        <v>7.617467880249023</v>
-      </c>
       <c r="E40" t="n">
+        <v>1.375126957893372</v>
+      </c>
+      <c r="F40" t="n">
         <v>1.050459742546082</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>0.5925851464271545</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>166.2102508544922</v>
       </c>
     </row>
@@ -6683,18 +7425,21 @@
         </is>
       </c>
       <c r="C41" t="n">
+        <v>0.5921760201454163</v>
+      </c>
+      <c r="D41" t="n">
         <v>1.889531254768372</v>
       </c>
-      <c r="D41" t="n">
-        <v>7.617183208465576</v>
-      </c>
       <c r="E41" t="n">
+        <v>1.374602198600769</v>
+      </c>
+      <c r="F41" t="n">
         <v>1.049938559532166</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>0.5921760201454163</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>166.2512512207031</v>
       </c>
     </row>
@@ -6708,18 +7453,21 @@
         </is>
       </c>
       <c r="C42" t="n">
+        <v>0.5917702317237854</v>
+      </c>
+      <c r="D42" t="n">
         <v>1.888102173805237</v>
       </c>
-      <c r="D42" t="n">
-        <v>7.616899967193604</v>
-      </c>
       <c r="E42" t="n">
+        <v>1.374082326889038</v>
+      </c>
+      <c r="F42" t="n">
         <v>1.049419522285461</v>
       </c>
-      <c r="F42" t="n">
+      <c r="G42" t="n">
         <v>0.5917702317237854</v>
       </c>
-      <c r="G42" t="n">
+      <c r="H42" t="n">
         <v>166.2920532226562</v>
       </c>
     </row>
@@ -6733,18 +7481,21 @@
         </is>
       </c>
       <c r="C43" t="n">
+        <v>0.5913675427436829</v>
+      </c>
+      <c r="D43" t="n">
         <v>1.886686682701111</v>
       </c>
-      <c r="D43" t="n">
-        <v>7.616617202758789</v>
-      </c>
       <c r="E43" t="n">
+        <v>1.3735671043396</v>
+      </c>
+      <c r="F43" t="n">
         <v>1.048903822898865</v>
       </c>
-      <c r="F43" t="n">
+      <c r="G43" t="n">
         <v>0.5913675427436829</v>
       </c>
-      <c r="G43" t="n">
+      <c r="H43" t="n">
         <v>166.3327331542969</v>
       </c>
     </row>
@@ -6758,18 +7509,21 @@
         </is>
       </c>
       <c r="C44" t="n">
+        <v>0.5909681916236877</v>
+      </c>
+      <c r="D44" t="n">
         <v>1.885286569595337</v>
       </c>
-      <c r="D44" t="n">
-        <v>7.616334915161133</v>
-      </c>
       <c r="E44" t="n">
+        <v>1.37305736541748</v>
+      </c>
+      <c r="F44" t="n">
         <v>1.048389554023743</v>
       </c>
-      <c r="F44" t="n">
+      <c r="G44" t="n">
         <v>0.5909681916236877</v>
       </c>
-      <c r="G44" t="n">
+      <c r="H44" t="n">
         <v>166.3732299804688</v>
       </c>
     </row>
@@ -6783,18 +7537,21 @@
         </is>
       </c>
       <c r="C45" t="n">
+        <v>0.5905714631080627</v>
+      </c>
+      <c r="D45" t="n">
         <v>1.883899450302124</v>
       </c>
-      <c r="D45" t="n">
-        <v>7.616053581237793</v>
-      </c>
       <c r="E45" t="n">
+        <v>1.372552156448364</v>
+      </c>
+      <c r="F45" t="n">
         <v>1.047877192497253</v>
       </c>
-      <c r="F45" t="n">
+      <c r="G45" t="n">
         <v>0.5905714631080627</v>
       </c>
-      <c r="G45" t="n">
+      <c r="H45" t="n">
         <v>166.413818359375</v>
       </c>
     </row>
@@ -6808,18 +7565,21 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>0.5901781320571899</v>
+      </c>
+      <c r="D46" t="n">
         <v>1.882525682449341</v>
       </c>
-      <c r="D46" t="n">
-        <v>7.615772724151611</v>
-      </c>
       <c r="E46" t="n">
+        <v>1.372051596641541</v>
+      </c>
+      <c r="F46" t="n">
         <v>1.047367930412292</v>
       </c>
-      <c r="F46" t="n">
+      <c r="G46" t="n">
         <v>0.5901781320571899</v>
       </c>
-      <c r="G46" t="n">
+      <c r="H46" t="n">
         <v>166.4543151855469</v>
       </c>
     </row>
@@ -6833,18 +7593,21 @@
         </is>
       </c>
       <c r="C47" t="n">
+        <v>0.589788019657135</v>
+      </c>
+      <c r="D47" t="n">
         <v>1.88116729259491</v>
       </c>
-      <c r="D47" t="n">
-        <v>7.615495681762695</v>
-      </c>
       <c r="E47" t="n">
+        <v>1.371556520462036</v>
+      </c>
+      <c r="F47" t="n">
         <v>1.046859741210938</v>
       </c>
-      <c r="F47" t="n">
+      <c r="G47" t="n">
         <v>0.589788019657135</v>
       </c>
-      <c r="G47" t="n">
+      <c r="H47" t="n">
         <v>166.4944915771484</v>
       </c>
     </row>
@@ -6858,18 +7621,21 @@
         </is>
       </c>
       <c r="C48" t="n">
+        <v>0.5894008874893188</v>
+      </c>
+      <c r="D48" t="n">
         <v>1.879820346832275</v>
       </c>
-      <c r="D48" t="n">
-        <v>7.615217208862305</v>
-      </c>
       <c r="E48" t="n">
+        <v>1.371065378189087</v>
+      </c>
+      <c r="F48" t="n">
         <v>1.04637885093689</v>
       </c>
-      <c r="F48" t="n">
+      <c r="G48" t="n">
         <v>0.5894008874893188</v>
       </c>
-      <c r="G48" t="n">
+      <c r="H48" t="n">
         <v>166.5349731445312</v>
       </c>
     </row>
@@ -6883,18 +7649,21 @@
         </is>
       </c>
       <c r="C49" t="n">
+        <v>0.5890169143676758</v>
+      </c>
+      <c r="D49" t="n">
         <v>1.878488898277283</v>
       </c>
-      <c r="D49" t="n">
-        <v>7.614941120147705</v>
-      </c>
       <c r="E49" t="n">
+        <v>1.370579719543457</v>
+      </c>
+      <c r="F49" t="n">
         <v>1.045915961265564</v>
       </c>
-      <c r="F49" t="n">
+      <c r="G49" t="n">
         <v>0.5890169143676758</v>
       </c>
-      <c r="G49" t="n">
+      <c r="H49" t="n">
         <v>166.5750274658203</v>
       </c>
     </row>
@@ -6908,18 +7677,21 @@
         </is>
       </c>
       <c r="C50" t="n">
+        <v>0.588636577129364</v>
+      </c>
+      <c r="D50" t="n">
         <v>1.877171874046326</v>
       </c>
-      <c r="D50" t="n">
-        <v>7.614662647247314</v>
-      </c>
       <c r="E50" t="n">
+        <v>1.370099186897278</v>
+      </c>
+      <c r="F50" t="n">
         <v>1.045456409454346</v>
       </c>
-      <c r="F50" t="n">
+      <c r="G50" t="n">
         <v>0.588636577129364</v>
       </c>
-      <c r="G50" t="n">
+      <c r="H50" t="n">
         <v>166.6153259277344</v>
       </c>
     </row>
@@ -6933,18 +7705,21 @@
         </is>
       </c>
       <c r="C51" t="n">
+        <v>0.5882579684257507</v>
+      </c>
+      <c r="D51" t="n">
         <v>1.87586498260498</v>
       </c>
-      <c r="D51" t="n">
-        <v>7.614386558532715</v>
-      </c>
       <c r="E51" t="n">
+        <v>1.369622230529785</v>
+      </c>
+      <c r="F51" t="n">
         <v>1.044996023178101</v>
       </c>
-      <c r="F51" t="n">
+      <c r="G51" t="n">
         <v>0.5882579684257507</v>
       </c>
-      <c r="G51" t="n">
+      <c r="H51" t="n">
         <v>166.6553039550781</v>
       </c>
     </row>

--- a/results/learning_curves_comparison.xlsx
+++ b/results/learning_curves_comparison.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -757,6 +757,1126 @@
       </c>
       <c r="H11" t="n">
         <v>155.3705444335938</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>155.6437072753906</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.715929985046387</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.309935092926025</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.986335277557373</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5418853759765625</v>
+      </c>
+      <c r="H12" t="n">
+        <v>155.6437072753906</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>158.3531036376953</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.698878526687622</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.303410291671753</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9804248213768005</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5363702178001404</v>
+      </c>
+      <c r="H13" t="n">
+        <v>158.3531036376953</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>152.9725494384766</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.745498538017273</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.321173191070557</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9940728545188904</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5481238961219788</v>
+      </c>
+      <c r="H14" t="n">
+        <v>152.9725494384766</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>152.6921539306641</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.695070624351501</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.30194878578186</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9773043990135193</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5345359444618225</v>
+      </c>
+      <c r="H15" t="n">
+        <v>152.6921539306641</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>154.1239013671875</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.715358972549438</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.309717178344727</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9856475591659546</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.539756715297699</v>
+      </c>
+      <c r="H16" t="n">
+        <v>154.1239013671875</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>151.8872528076172</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.714242339134216</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.309290766716003</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9820242524147034</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5386934876441956</v>
+      </c>
+      <c r="H17" t="n">
+        <v>151.8872528076172</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>151.2652282714844</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.680762529373169</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.296442270278931</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9731184840202332</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5311573147773743</v>
+      </c>
+      <c r="H18" t="n">
+        <v>151.2652282714844</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>152.657958984375</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.654002785682678</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.286080360412598</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9585148096084595</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5217231512069702</v>
+      </c>
+      <c r="H19" t="n">
+        <v>152.657958984375</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>152.4039459228516</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.707411050796509</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.306679368019104</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9807340502738953</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5379292368888855</v>
+      </c>
+      <c r="H20" t="n">
+        <v>152.4039459228516</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>152.7432250976562</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.666004180908203</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.290737867355347</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9634403586387634</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5257092118263245</v>
+      </c>
+      <c r="H21" t="n">
+        <v>152.7432250976562</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>151.0833740234375</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.648090243339539</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.283779621124268</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9589473605155945</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5220295190811157</v>
+      </c>
+      <c r="H22" t="n">
+        <v>151.0833740234375</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>150.6800079345703</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.763483762741089</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.327962279319763</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9961443543434143</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5518916249275208</v>
+      </c>
+      <c r="H23" t="n">
+        <v>150.6800079345703</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>152.8378601074219</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.677266120910645</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.295093059539795</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9668427109718323</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5276223421096802</v>
+      </c>
+      <c r="H24" t="n">
+        <v>152.8378601074219</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>154.8439331054688</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.632772326469421</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.277799844741821</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9467662572860718</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5130354166030884</v>
+      </c>
+      <c r="H25" t="n">
+        <v>154.8439331054688</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>150.2192230224609</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.713358521461487</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.308953166007996</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9784860014915466</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5375218391418457</v>
+      </c>
+      <c r="H26" t="n">
+        <v>150.2192230224609</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>149.5271453857422</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.713837027549744</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.309136033058167</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9796005487442017</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5386911034584045</v>
+      </c>
+      <c r="H27" t="n">
+        <v>149.5271453857422</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>151.2318267822266</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.720193862915039</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.311561584472656</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9854727387428284</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5418081879615784</v>
+      </c>
+      <c r="H28" t="n">
+        <v>151.2318267822266</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>153.0768432617188</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.649789810180664</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.284441471099854</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9557422995567322</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5195868015289307</v>
+      </c>
+      <c r="H29" t="n">
+        <v>153.0768432617188</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>150.6074066162109</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.708055973052979</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.306926131248474</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9802184104919434</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5381166934967041</v>
+      </c>
+      <c r="H30" t="n">
+        <v>150.6074066162109</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>153.6496124267578</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.667433381080627</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.291291356086731</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9627060890197754</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5254045128822327</v>
+      </c>
+      <c r="H31" t="n">
+        <v>153.6496124267578</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>153.0816955566406</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.651566863059998</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.285133004188538</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9603593349456787</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5222576856613159</v>
+      </c>
+      <c r="H32" t="n">
+        <v>153.0816955566406</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>149.3976135253906</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.753093600273132</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.324044466018677</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9903984665870667</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5477595329284668</v>
+      </c>
+      <c r="H33" t="n">
+        <v>149.3976135253906</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>153.6506958007812</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.682256698608398</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.29701840877533</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9665298461914062</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5278403162956238</v>
+      </c>
+      <c r="H34" t="n">
+        <v>153.6506958007812</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>153.3245544433594</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.649595141410828</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.284365653991699</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9524130821228027</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.518222987651825</v>
+      </c>
+      <c r="H35" t="n">
+        <v>153.3245544433594</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>150.6837615966797</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.753198385238647</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.324083924293518</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9892672300338745</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.547027587890625</v>
+      </c>
+      <c r="H36" t="n">
+        <v>150.6837615966797</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>150.4107360839844</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.684725880622864</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.297969937324524</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9721089005470276</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.531313955783844</v>
+      </c>
+      <c r="H37" t="n">
+        <v>150.4107360839844</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>153.6678161621094</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.655723452568054</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.286749124526978</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.954089879989624</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5198695063591003</v>
+      </c>
+      <c r="H38" t="n">
+        <v>153.6678161621094</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>150.5871429443359</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.725755214691162</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.313680052757263</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9830899834632874</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.541928768157959</v>
+      </c>
+      <c r="H39" t="n">
+        <v>150.5871429443359</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>151.2929992675781</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.724417209625244</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.313170671463013</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.986893892288208</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.541606068611145</v>
+      </c>
+      <c r="H40" t="n">
+        <v>151.2929992675781</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>151.0047607421875</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.693583846092224</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.301377654075623</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9749161601066589</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5333468914031982</v>
+      </c>
+      <c r="H41" t="n">
+        <v>151.0047607421875</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>150.630859375</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.760220289230347</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.326732993125916</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.9918087720870972</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.548908531665802</v>
+      </c>
+      <c r="H42" t="n">
+        <v>150.630859375</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>150.1019897460938</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.695425271987915</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.302084922790527</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9758448004722595</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5351400971412659</v>
+      </c>
+      <c r="H43" t="n">
+        <v>150.1019897460938</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>152.7362365722656</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.684739112854004</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.297975063323975</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9726152420043945</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5303783416748047</v>
+      </c>
+      <c r="H44" t="n">
+        <v>152.7362365722656</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>153.7891845703125</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.659931540489197</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.28838324546814</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9585591554641724</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5216532945632935</v>
+      </c>
+      <c r="H45" t="n">
+        <v>153.7891845703125</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>149.6816864013672</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.770396590232849</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.330562472343445</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9924280643463135</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5511927604675293</v>
+      </c>
+      <c r="H46" t="n">
+        <v>149.6816864013672</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>151.8698120117188</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.699818134307861</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.303770780563354</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9771701693534851</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5348227620124817</v>
+      </c>
+      <c r="H47" t="n">
+        <v>151.8698120117188</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>153.2537536621094</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.639423727989197</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.280399799346924</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.951000988483429</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5155820250511169</v>
+      </c>
+      <c r="H48" t="n">
+        <v>153.2537536621094</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>150.441650390625</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.746611475944519</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.32159423828125</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9893447756767273</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5465848445892334</v>
+      </c>
+      <c r="H49" t="n">
+        <v>150.441650390625</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>150.3343200683594</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.724769711494446</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.313304901123047</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9862430691719055</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5419489741325378</v>
+      </c>
+      <c r="H50" t="n">
+        <v>150.3343200683594</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>persistent_entropy</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>152.0513000488281</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.739313840866089</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.318830490112305</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.987659752368927</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5443498492240906</v>
+      </c>
+      <c r="H51" t="n">
+        <v>152.0513000488281</v>
       </c>
     </row>
   </sheetData>
@@ -770,7 +1890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1098,6 +2218,1126 @@
       </c>
       <c r="H11" t="n">
         <v>166.1875915527344</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.888486742973328</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.888486742973328</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.374222278594971</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.052001714706421</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.5929929614067078</v>
+      </c>
+      <c r="H12" t="n">
+        <v>166.3508911132812</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.883076906204224</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.883076906204224</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.372252464294434</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.050281047821045</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.5915554761886597</v>
+      </c>
+      <c r="H13" t="n">
+        <v>166.5108947753906</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.87789261341095</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.87789261341095</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.370362162590027</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.04872465133667</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.5901699662208557</v>
+      </c>
+      <c r="H14" t="n">
+        <v>166.6682739257812</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.872914791107178</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.872914791107178</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.368544816970825</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.047199010848999</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.5888321995735168</v>
+      </c>
+      <c r="H15" t="n">
+        <v>166.8226623535156</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.868145942687988</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.868145942687988</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.366801381111145</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.045713186264038</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.5875436067581177</v>
+      </c>
+      <c r="H16" t="n">
+        <v>166.9749298095703</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.863564848899841</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.863564848899841</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.365124464035034</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.044257164001465</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.5862990021705627</v>
+      </c>
+      <c r="H17" t="n">
+        <v>167.1253662109375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.859159588813782</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.859159588813782</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.363510012626648</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.042831063270569</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.5850964188575745</v>
+      </c>
+      <c r="H18" t="n">
+        <v>167.25</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.854923605918884</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.854923605918884</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.361955761909485</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.041432619094849</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5839338302612305</v>
+      </c>
+      <c r="H19" t="n">
+        <v>167.3526458740234</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.850848078727722</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.850848078727722</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.360458731651306</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.040075898170471</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5828109979629517</v>
+      </c>
+      <c r="H20" t="n">
+        <v>167.4591979980469</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.846922278404236</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.846922278404236</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.359015226364136</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.038758993148804</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5817238688468933</v>
+      </c>
+      <c r="H21" t="n">
+        <v>167.5680084228516</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.843135595321655</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.843135595321655</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.357621312141418</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.037468314170837</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5806711316108704</v>
+      </c>
+      <c r="H22" t="n">
+        <v>167.6802368164062</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.83948278427124</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.83948278427124</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.356275320053101</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.036203384399414</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5796522498130798</v>
+      </c>
+      <c r="H23" t="n">
+        <v>167.7976684570312</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.835960626602173</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.835960626602173</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.354976296424866</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.035007834434509</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5786651372909546</v>
+      </c>
+      <c r="H24" t="n">
+        <v>167.9241333007812</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.832553505897522</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.832553505897522</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.353718400001526</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.033884406089783</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5777075290679932</v>
+      </c>
+      <c r="H25" t="n">
+        <v>168.072021484375</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.829259276390076</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.829259276390076</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.352501153945923</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.032781481742859</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5767784714698792</v>
+      </c>
+      <c r="H26" t="n">
+        <v>168.0620422363281</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.826072216033936</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.826072216033936</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.351322412490845</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.031697750091553</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5758765339851379</v>
+      </c>
+      <c r="H27" t="n">
+        <v>167.9717254638672</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.822987079620361</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.822987079620361</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.350180387496948</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.030634045600891</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.57500159740448</v>
+      </c>
+      <c r="H28" t="n">
+        <v>167.8778076171875</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.81999671459198</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.81999671459198</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.349072575569153</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.029588341712952</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5741507411003113</v>
+      </c>
+      <c r="H29" t="n">
+        <v>167.7842864990234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.817098736763</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.817098736763</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.347998023033142</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.028560876846313</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5733242034912109</v>
+      </c>
+      <c r="H30" t="n">
+        <v>167.6915740966797</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.814282178878784</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.814282178878784</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.34695291519165</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.027550220489502</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5725193619728088</v>
+      </c>
+      <c r="H31" t="n">
+        <v>167.5986938476562</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.81155252456665</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.81155252456665</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.3459392786026</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.026557803153992</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5717374086380005</v>
+      </c>
+      <c r="H32" t="n">
+        <v>167.5061340332031</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.808900833129883</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.808900833129883</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.344953894615173</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.025581955909729</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5709762573242188</v>
+      </c>
+      <c r="H33" t="n">
+        <v>167.4139862060547</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1.806302070617676</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.806302070617676</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.343987345695496</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.024617671966553</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5702281594276428</v>
+      </c>
+      <c r="H34" t="n">
+        <v>167.3223114013672</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.803650975227356</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.803650975227356</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.343000769615173</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.023632645606995</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5694596767425537</v>
+      </c>
+      <c r="H35" t="n">
+        <v>167.2307739257812</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.801071643829346</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.801071643829346</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.342040061950684</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.022663354873657</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5687104463577271</v>
+      </c>
+      <c r="H36" t="n">
+        <v>167.1393432617188</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.798555016517639</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.798555016517639</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.341102123260498</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.021707653999329</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5679783821105957</v>
+      </c>
+      <c r="H37" t="n">
+        <v>167.0483093261719</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.79589831829071</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.79589831829071</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.340111255645752</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.020723462104797</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5672164559364319</v>
+      </c>
+      <c r="H38" t="n">
+        <v>166.9550476074219</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.792343497276306</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.792343497276306</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.338784337043762</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.019492387771606</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5662360787391663</v>
+      </c>
+      <c r="H39" t="n">
+        <v>166.8339233398438</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.788870811462402</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.788870811462402</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.337486743927002</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.018278241157532</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5652762055397034</v>
+      </c>
+      <c r="H40" t="n">
+        <v>166.7136383056641</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.785475254058838</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.785475254058838</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.336216807365417</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.017081260681152</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5643361210823059</v>
+      </c>
+      <c r="H41" t="n">
+        <v>166.5940856933594</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.782155394554138</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.782155394554138</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.334973931312561</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.01590096950531</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5634157657623291</v>
+      </c>
+      <c r="H42" t="n">
+        <v>166.4752807617188</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1.778901934623718</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.778901934623718</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.333754777908325</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.014850497245789</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5625123381614685</v>
+      </c>
+      <c r="H43" t="n">
+        <v>166.3619995117188</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.775721192359924</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.775721192359924</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.332561850547791</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.013864278793335</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5616280436515808</v>
+      </c>
+      <c r="H44" t="n">
+        <v>166.2882995605469</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.772607326507568</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.772607326507568</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.331393003463745</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.012890100479126</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5607611536979675</v>
+      </c>
+      <c r="H45" t="n">
+        <v>166.2145385742188</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.769552111625671</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.769552111625671</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.330245137214661</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.011926174163818</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5599099397659302</v>
+      </c>
+      <c r="H46" t="n">
+        <v>166.1401062011719</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.76656186580658</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.76656186580658</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.329120755195618</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.010975003242493</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5590754747390747</v>
+      </c>
+      <c r="H47" t="n">
+        <v>166.0658874511719</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.763630390167236</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.763630390167236</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.328017473220825</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.010034084320068</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5582564473152161</v>
+      </c>
+      <c r="H48" t="n">
+        <v>165.9909820556641</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.760754227638245</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.760754227638245</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.326934099197388</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.009104490280151</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5574521422386169</v>
+      </c>
+      <c r="H49" t="n">
+        <v>165.9160919189453</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1.757930636405945</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.757930636405945</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.325869798660278</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.00818407535553</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.55666184425354</v>
+      </c>
+      <c r="H50" t="n">
+        <v>165.8408203125</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mse</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.755160570144653</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.755160570144653</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.324824690818787</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.007275104522705</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.555885910987854</v>
+      </c>
+      <c r="H51" t="n">
+        <v>165.7653198242188</v>
       </c>
     </row>
   </sheetData>
@@ -1111,7 +3351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,6 +3679,1126 @@
       </c>
       <c r="H11" t="n">
         <v>165.1582641601562</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.38919723033905</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.929868936538696</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.38919723033905</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.064388632774353</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6037206053733826</v>
+      </c>
+      <c r="H12" t="n">
+        <v>165.2255706787109</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.388247728347778</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.927231788635254</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.388247728347778</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.063651561737061</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6030505299568176</v>
+      </c>
+      <c r="H13" t="n">
+        <v>165.2922973632812</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.387313008308411</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.924637317657471</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.387313008308411</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.062920212745667</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6023890972137451</v>
+      </c>
+      <c r="H14" t="n">
+        <v>165.3580474853516</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.386392712593079</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.92208468914032</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.386392712593079</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.062193393707275</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.601736843585968</v>
+      </c>
+      <c r="H15" t="n">
+        <v>165.4235229492188</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.385487675666809</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.919576168060303</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.385487675666809</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.061473965644836</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6010944247245789</v>
+      </c>
+      <c r="H16" t="n">
+        <v>165.4885406494141</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.384596109390259</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.917106509208679</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.384596109390259</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.060760021209717</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6004604697227478</v>
+      </c>
+      <c r="H17" t="n">
+        <v>165.552978515625</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.38371741771698</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.914673805236816</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.38371741771698</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.060049772262573</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.599834144115448</v>
+      </c>
+      <c r="H18" t="n">
+        <v>165.6168823242188</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.382854342460632</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.912286043167114</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.382854342460632</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.059347867965698</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.5992181897163391</v>
+      </c>
+      <c r="H19" t="n">
+        <v>165.6802673339844</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.382003903388977</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.909934759140015</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.382003903388977</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.05864942073822</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.5986099243164062</v>
+      </c>
+      <c r="H20" t="n">
+        <v>165.7429504394531</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.381165742874146</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.907618880271912</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.381165742874146</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.05795693397522</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5980096459388733</v>
+      </c>
+      <c r="H21" t="n">
+        <v>165.8052673339844</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.380340337753296</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.905339479446411</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.380340337753296</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.057269096374512</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5974172353744507</v>
+      </c>
+      <c r="H22" t="n">
+        <v>165.8671112060547</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.379527807235718</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.903096914291382</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.379527807235718</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.056587934494019</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5968332290649414</v>
+      </c>
+      <c r="H23" t="n">
+        <v>165.9285736083984</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.378727436065674</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.900889277458191</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.378727436065674</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.055911660194397</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5962570309638977</v>
+      </c>
+      <c r="H24" t="n">
+        <v>165.9892883300781</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.377938628196716</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.898715019226074</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.377938628196716</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.055239915847778</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5956881642341614</v>
+      </c>
+      <c r="H25" t="n">
+        <v>166.0499267578125</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.377163887023926</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.896580338478088</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.377163887023926</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.054575324058533</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5951283574104309</v>
+      </c>
+      <c r="H26" t="n">
+        <v>166.1100921630859</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.376397967338562</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.894471287727356</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.376397967338562</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.053913831710815</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5945741534233093</v>
+      </c>
+      <c r="H27" t="n">
+        <v>166.1694030761719</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.375643134117126</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.892394185066223</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.375643134117126</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.053257346153259</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5940271615982056</v>
+      </c>
+      <c r="H28" t="n">
+        <v>166.2284851074219</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.374899983406067</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.890349864959717</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.374899983406067</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.052605509757996</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5934873223304749</v>
+      </c>
+      <c r="H29" t="n">
+        <v>166.2871704101562</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.374168634414673</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.888339400291443</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.374168634414673</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.051960229873657</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5929557085037231</v>
+      </c>
+      <c r="H30" t="n">
+        <v>166.3455352783203</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.373447179794312</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.886357307434082</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.373447179794312</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.051318526268005</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5924295783042908</v>
+      </c>
+      <c r="H31" t="n">
+        <v>166.4033813476562</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.372735977172852</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.884404063224792</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.372735977172852</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.050681829452515</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5919107794761658</v>
+      </c>
+      <c r="H32" t="n">
+        <v>166.4610290527344</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.372035145759583</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.882480502128601</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.372035145759583</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.05010449886322</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5913984179496765</v>
+      </c>
+      <c r="H33" t="n">
+        <v>166.5180053710938</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1.371343731880188</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.880583763122559</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.371343731880188</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.049537897109985</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5908920168876648</v>
+      </c>
+      <c r="H34" t="n">
+        <v>166.57470703125</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.370662093162537</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.878714442253113</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.370662093162537</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.048975706100464</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5903925895690918</v>
+      </c>
+      <c r="H35" t="n">
+        <v>166.6315002441406</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.36998975276947</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.876872062683105</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.36998975276947</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.048416018486023</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5898985266685486</v>
+      </c>
+      <c r="H36" t="n">
+        <v>166.6875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.369329214096069</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.875062346458435</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.369329214096069</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.047863721847534</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5894129872322083</v>
+      </c>
+      <c r="H37" t="n">
+        <v>166.7434539794922</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.368675231933594</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.873271942138672</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.368675231933594</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.047312498092651</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5889312028884888</v>
+      </c>
+      <c r="H38" t="n">
+        <v>166.7989196777344</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.368031144142151</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.871509075164795</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.368031144142151</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.046767354011536</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5884559750556946</v>
+      </c>
+      <c r="H39" t="n">
+        <v>166.8542785644531</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.367396593093872</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.869773507118225</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.367396593093872</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.04622757434845</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5879874229431152</v>
+      </c>
+      <c r="H40" t="n">
+        <v>166.9092712402344</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.366771340370178</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.868063926696777</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.366771340370178</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.04569137096405</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5875245332717896</v>
+      </c>
+      <c r="H41" t="n">
+        <v>166.9644470214844</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.366152048110962</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.866371393203735</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.366152048110962</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.045156955718994</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5870656967163086</v>
+      </c>
+      <c r="H42" t="n">
+        <v>167.0187072753906</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1.365544080734253</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.864710688591003</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.365544080734253</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.044629335403442</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5866144895553589</v>
+      </c>
+      <c r="H43" t="n">
+        <v>167.0732421875</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.364943742752075</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.863071441650391</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.364943742752075</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.044104695320129</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5861685276031494</v>
+      </c>
+      <c r="H44" t="n">
+        <v>167.1273803710938</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.364349126815796</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.861448645591736</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.364349126815796</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.043581247329712</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5857259631156921</v>
+      </c>
+      <c r="H45" t="n">
+        <v>167.1788482666016</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.363763809204102</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.859851598739624</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.363763809204102</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.043063640594482</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5852900147438049</v>
+      </c>
+      <c r="H46" t="n">
+        <v>167.2135314941406</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.363186836242676</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.858278512954712</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.363186836242676</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.042549610137939</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5848594307899475</v>
+      </c>
+      <c r="H47" t="n">
+        <v>167.2499389648438</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.362616539001465</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.856723785400391</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.362616539001465</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.042038559913635</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5844336152076721</v>
+      </c>
+      <c r="H48" t="n">
+        <v>167.2870025634766</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.362053990364075</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.855190992355347</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.362053990364075</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.041531205177307</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5840126872062683</v>
+      </c>
+      <c r="H49" t="n">
+        <v>167.3248748779297</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1.361498355865479</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.8536776304245</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.361498355865479</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.041027069091797</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5835967063903809</v>
+      </c>
+      <c r="H50" t="n">
+        <v>167.3629760742188</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>rmse</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.360951781272888</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.852189779281616</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.360951781272888</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.040531277656555</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5831866860389709</v>
+      </c>
+      <c r="H51" t="n">
+        <v>167.4015960693359</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +4812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1780,6 +5140,1126 @@
       </c>
       <c r="H11" t="n">
         <v>164.9010925292969</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>1.064473748207092</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.937663197517395</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.3919997215271</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.064473748207092</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.6049975752830505</v>
+      </c>
+      <c r="H12" t="n">
+        <v>164.9395904541016</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>1.063707709312439</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.935673356056213</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.391284823417664</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.063707709312439</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6044217348098755</v>
+      </c>
+      <c r="H13" t="n">
+        <v>164.9784698486328</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.062942743301392</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.933708786964417</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.390578627586365</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.062942743301392</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6038505434989929</v>
+      </c>
+      <c r="H14" t="n">
+        <v>165.0172729492188</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1.062177419662476</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.931767225265503</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.389880299568176</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.062177419662476</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6032836437225342</v>
+      </c>
+      <c r="H15" t="n">
+        <v>165.0565185546875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1.061410665512085</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.929849028587341</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.389190077781677</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.061410665512085</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6027205586433411</v>
+      </c>
+      <c r="H16" t="n">
+        <v>165.0958557128906</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1.060644030570984</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.92795717716217</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.388509035110474</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.060644030570984</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6021627187728882</v>
+      </c>
+      <c r="H17" t="n">
+        <v>165.1353149414062</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1.059877634048462</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.92609179019928</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.387837052345276</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.059877634048462</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6016095876693726</v>
+      </c>
+      <c r="H18" t="n">
+        <v>165.1748352050781</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1.059109926223755</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.924246549606323</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.387172102928162</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.059109926223755</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.6010599732398987</v>
+      </c>
+      <c r="H19" t="n">
+        <v>165.2147216796875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1.058341026306152</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.922425270080566</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.386515498161316</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.058341026306152</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6005146503448486</v>
+      </c>
+      <c r="H20" t="n">
+        <v>165.2547607421875</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1.057572841644287</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.920629143714905</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.385867595672607</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.057572841644287</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.5999742150306702</v>
+      </c>
+      <c r="H21" t="n">
+        <v>165.2950744628906</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.056822299957275</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.918744087219238</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.385187387466431</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.056822299957275</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.5994246602058411</v>
+      </c>
+      <c r="H22" t="n">
+        <v>165.3410949707031</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1.056143403053284</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.916713953018188</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.384454369544983</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.056143403053284</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.5988711714744568</v>
+      </c>
+      <c r="H23" t="n">
+        <v>165.3996276855469</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1.055464625358582</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.914697766304016</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.383726000785828</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.055464625358582</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5983200073242188</v>
+      </c>
+      <c r="H24" t="n">
+        <v>165.4583740234375</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1.054785966873169</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.912698149681091</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.383003354072571</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.054785966873169</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5977717638015747</v>
+      </c>
+      <c r="H25" t="n">
+        <v>165.5174560546875</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>1.054108023643494</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.910712718963623</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.382285356521606</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.054108023643494</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5972261428833008</v>
+      </c>
+      <c r="H26" t="n">
+        <v>165.5768280029297</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1.053430914878845</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.908743143081665</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.381572723388672</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.053430914878845</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5966833233833313</v>
+      </c>
+      <c r="H27" t="n">
+        <v>165.6361694335938</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>1.05275285243988</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.906787157058716</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.38086462020874</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.05275285243988</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5961426496505737</v>
+      </c>
+      <c r="H28" t="n">
+        <v>165.6960754394531</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1.05207371711731</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.904842376708984</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.380160212516785</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.05207371711731</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5956037640571594</v>
+      </c>
+      <c r="H29" t="n">
+        <v>165.7562866210938</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.051395773887634</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.902912616729736</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.37946093082428</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.051395773887634</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5950678586959839</v>
+      </c>
+      <c r="H30" t="n">
+        <v>165.8166656494141</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1.050718307495117</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.901001334190369</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.378768086433411</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.050718307495117</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.594535231590271</v>
+      </c>
+      <c r="H31" t="n">
+        <v>165.8772583007812</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1.050039887428284</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.899098038673401</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.378077626228333</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.050039887428284</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5940039157867432</v>
+      </c>
+      <c r="H32" t="n">
+        <v>165.9381866455078</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1.04936158657074</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.897212147712708</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.377393245697021</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.04936158657074</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5934754014015198</v>
+      </c>
+      <c r="H33" t="n">
+        <v>165.9995727539062</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1.048683643341064</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.895341277122498</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.376713991165161</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.048683643341064</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5929499268531799</v>
+      </c>
+      <c r="H34" t="n">
+        <v>166.0612640380859</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1.048007130622864</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.893486976623535</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.37604033946991</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.048007130622864</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5924274325370789</v>
+      </c>
+      <c r="H35" t="n">
+        <v>166.1231689453125</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1.047327995300293</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.89164137840271</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.375369548797607</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.047327995300293</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.5919058322906494</v>
+      </c>
+      <c r="H36" t="n">
+        <v>166.1856689453125</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1.046651601791382</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.889816641807556</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.374706029891968</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.046651601791382</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5913886427879333</v>
+      </c>
+      <c r="H37" t="n">
+        <v>166.2484436035156</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1.045973658561707</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.88800036907196</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.374045252799988</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.045973658561707</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5908730030059814</v>
+      </c>
+      <c r="H38" t="n">
+        <v>166.3115539550781</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1.045296192169189</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.886198997497559</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.373389601707458</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.045296192169189</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.590359628200531</v>
+      </c>
+      <c r="H39" t="n">
+        <v>166.3751678466797</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1.044619679450989</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.8844153881073</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.372740149497986</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.044619679450989</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5898498296737671</v>
+      </c>
+      <c r="H40" t="n">
+        <v>166.4390869140625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1.043942332267761</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.882645487785339</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.372095346450806</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.043942332267761</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5893422365188599</v>
+      </c>
+      <c r="H41" t="n">
+        <v>166.5033569335938</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1.043265104293823</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.880889177322388</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.371455073356628</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.043265104293823</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5888370275497437</v>
+      </c>
+      <c r="H42" t="n">
+        <v>166.5681457519531</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1.042588710784912</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.879147052764893</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.370819807052612</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.042588710784912</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5883347392082214</v>
+      </c>
+      <c r="H43" t="n">
+        <v>166.6333618164062</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1.041911125183105</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.877416133880615</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.370188355445862</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.041911125183105</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5878342390060425</v>
+      </c>
+      <c r="H44" t="n">
+        <v>166.6992492675781</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1.041233658790588</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.875699758529663</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.369561910629272</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.041233658790588</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5873362421989441</v>
+      </c>
+      <c r="H45" t="n">
+        <v>166.7654113769531</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1.040557503700256</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.873999834060669</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.368941187858582</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.040557503700256</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5868417620658875</v>
+      </c>
+      <c r="H46" t="n">
+        <v>166.83251953125</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>1.039881110191345</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.872314691543579</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.368325471878052</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.039881110191345</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.5863497257232666</v>
+      </c>
+      <c r="H47" t="n">
+        <v>166.8997955322266</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>1.039232969284058</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.870640277862549</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.367713570594788</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.039232969284058</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5858592987060547</v>
+      </c>
+      <c r="H48" t="n">
+        <v>166.9675445556641</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1.038636803627014</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.869155406951904</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.367170572280884</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.038636803627014</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5854138135910034</v>
+      </c>
+      <c r="H49" t="n">
+        <v>167.0184020996094</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1.038040399551392</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.86767840385437</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.36663031578064</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.038040399551392</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.5849693417549133</v>
+      </c>
+      <c r="H50" t="n">
+        <v>167.0694122314453</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>mae</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>1.0374436378479</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.866212368011475</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.366093873977661</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0374436378479</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5845267176628113</v>
+      </c>
+      <c r="H51" t="n">
+        <v>167.12109375</v>
       </c>
     </row>
   </sheetData>
@@ -1793,7 +6273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2123,6 +6603,1126 @@
         <v>164.958251953125</v>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>0.605541467666626</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.938218951225281</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.392199277877808</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.06603467464447</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.605541467666626</v>
+      </c>
+      <c r="H12" t="n">
+        <v>165.0054931640625</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>0.6050233840942383</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.936276912689209</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.391501665115356</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.065443634986877</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.6050233840942383</v>
+      </c>
+      <c r="H13" t="n">
+        <v>165.0522613525391</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6045100688934326</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.934357643127441</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.390811920166016</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.064855694770813</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.6045100688934326</v>
+      </c>
+      <c r="H14" t="n">
+        <v>165.0991516113281</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>0.6040013432502747</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1.932458519935608</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.390128970146179</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.064270496368408</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.6040013432502747</v>
+      </c>
+      <c r="H15" t="n">
+        <v>165.1454162597656</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>0.6034969091415405</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1.930579543113708</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.389452934265137</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1.063687801361084</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.6034969091415405</v>
+      </c>
+      <c r="H16" t="n">
+        <v>165.1918029785156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>0.6029967665672302</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.928720593452454</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.388783812522888</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.06310760974884</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.6029967665672302</v>
+      </c>
+      <c r="H17" t="n">
+        <v>165.2376708984375</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>0.6025010347366333</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.926883220672607</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.388122200965881</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.062530517578125</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.6025010347366333</v>
+      </c>
+      <c r="H18" t="n">
+        <v>165.2815093994141</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>0.602009654045105</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1.925064325332642</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.387466907501221</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.061955571174622</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.602009654045105</v>
+      </c>
+      <c r="H19" t="n">
+        <v>165.3251800537109</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>0.6015201210975647</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1.923256635665894</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.386815309524536</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.061380863189697</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.6015201210975647</v>
+      </c>
+      <c r="H20" t="n">
+        <v>165.3684539794922</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>0.6010381579399109</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1.921480298042297</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.38617467880249</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.060812950134277</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.6010381579399109</v>
+      </c>
+      <c r="H21" t="n">
+        <v>165.4119567871094</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>0.6005587577819824</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.919718742370605</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.385539174079895</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.060245633125305</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.6005587577819824</v>
+      </c>
+      <c r="H22" t="n">
+        <v>165.4552001953125</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>0.6000837683677673</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.917974948883057</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.384909749031067</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1.059680819511414</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.6000837683677673</v>
+      </c>
+      <c r="H23" t="n">
+        <v>165.4982452392578</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>0.5996122360229492</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1.916248798370361</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.384286403656006</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.059118390083313</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.5996122360229492</v>
+      </c>
+      <c r="H24" t="n">
+        <v>165.5411682128906</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>0.5991455316543579</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.914543986320496</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.383670449256897</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.05855929851532</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.5991455316543579</v>
+      </c>
+      <c r="H25" t="n">
+        <v>165.5839538574219</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5986825227737427</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.912855386734009</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.383060097694397</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.058002948760986</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.5986825227737427</v>
+      </c>
+      <c r="H26" t="n">
+        <v>165.6265563964844</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.5982227325439453</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.911181449890137</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.382454872131348</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.057448267936707</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.5982227325439453</v>
+      </c>
+      <c r="H27" t="n">
+        <v>165.6690979003906</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.5977677702903748</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.909530997276306</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.381857752799988</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.056896448135376</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.5977677702903748</v>
+      </c>
+      <c r="H28" t="n">
+        <v>165.7114715576172</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5973156690597534</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.907893657684326</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.38126528263092</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.05634617805481</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.5973156690597534</v>
+      </c>
+      <c r="H29" t="n">
+        <v>165.7538299560547</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>0.5968677997589111</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.906274795532227</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.380679130554199</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.05579936504364</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.5968677997589111</v>
+      </c>
+      <c r="H30" t="n">
+        <v>165.7959289550781</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>0.5964235663414001</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.904672384262085</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.380098700523376</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.055254340171814</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.5964235663414001</v>
+      </c>
+      <c r="H31" t="n">
+        <v>165.837890625</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>0.5959835648536682</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1.903088450431824</v>
+      </c>
+      <c r="E32" t="n">
+        <v>1.379524707794189</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.054713129997253</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.5959835648536682</v>
+      </c>
+      <c r="H32" t="n">
+        <v>165.8795776367188</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>0.5955466628074646</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1.901520252227783</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1.378956198692322</v>
+      </c>
+      <c r="F33" t="n">
+        <v>1.054173588752747</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.5955466628074646</v>
+      </c>
+      <c r="H33" t="n">
+        <v>165.9213409423828</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.5951134562492371</v>
+      </c>
+      <c r="D34" t="n">
+        <v>1.899968266487122</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1.378393411636353</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.053636193275452</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.5951134562492371</v>
+      </c>
+      <c r="H34" t="n">
+        <v>165.9629364013672</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.5946835279464722</v>
+      </c>
+      <c r="D35" t="n">
+        <v>1.898430347442627</v>
+      </c>
+      <c r="E35" t="n">
+        <v>1.377835392951965</v>
+      </c>
+      <c r="F35" t="n">
+        <v>1.053100943565369</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.5946835279464722</v>
+      </c>
+      <c r="H35" t="n">
+        <v>166.0044708251953</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.594257652759552</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1.896910905838013</v>
+      </c>
+      <c r="E36" t="n">
+        <v>1.377283930778503</v>
+      </c>
+      <c r="F36" t="n">
+        <v>1.052569150924683</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.594257652759552</v>
+      </c>
+      <c r="H36" t="n">
+        <v>166.0456848144531</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.5938341617584229</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1.895402431488037</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1.376736164093018</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.052037835121155</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.5938341617584229</v>
+      </c>
+      <c r="H37" t="n">
+        <v>166.0870056152344</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.5934147834777832</v>
+      </c>
+      <c r="D38" t="n">
+        <v>1.893914580345154</v>
+      </c>
+      <c r="E38" t="n">
+        <v>1.376195669174194</v>
+      </c>
+      <c r="F38" t="n">
+        <v>1.051509499549866</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.5934147834777832</v>
+      </c>
+      <c r="H38" t="n">
+        <v>166.1282196044922</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.5929980278015137</v>
+      </c>
+      <c r="D39" t="n">
+        <v>1.892435669898987</v>
+      </c>
+      <c r="E39" t="n">
+        <v>1.375658273696899</v>
+      </c>
+      <c r="F39" t="n">
+        <v>1.050983428955078</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.5929980278015137</v>
+      </c>
+      <c r="H39" t="n">
+        <v>166.1690368652344</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5925851464271545</v>
+      </c>
+      <c r="D40" t="n">
+        <v>1.890974044799805</v>
+      </c>
+      <c r="E40" t="n">
+        <v>1.375126957893372</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1.050459742546082</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.5925851464271545</v>
+      </c>
+      <c r="H40" t="n">
+        <v>166.2102508544922</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.5921760201454163</v>
+      </c>
+      <c r="D41" t="n">
+        <v>1.889531254768372</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1.374602198600769</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1.049938559532166</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.5921760201454163</v>
+      </c>
+      <c r="H41" t="n">
+        <v>166.2512512207031</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.5917702317237854</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1.888102173805237</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1.374082326889038</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1.049419522285461</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.5917702317237854</v>
+      </c>
+      <c r="H42" t="n">
+        <v>166.2920532226562</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.5913675427436829</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1.886686682701111</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1.3735671043396</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1.048903822898865</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.5913675427436829</v>
+      </c>
+      <c r="H43" t="n">
+        <v>166.3327331542969</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.5909681916236877</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.885286569595337</v>
+      </c>
+      <c r="E44" t="n">
+        <v>1.37305736541748</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1.048389554023743</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.5909681916236877</v>
+      </c>
+      <c r="H44" t="n">
+        <v>166.3732299804688</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5905714631080627</v>
+      </c>
+      <c r="D45" t="n">
+        <v>1.883899450302124</v>
+      </c>
+      <c r="E45" t="n">
+        <v>1.372552156448364</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1.047877192497253</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.5905714631080627</v>
+      </c>
+      <c r="H45" t="n">
+        <v>166.413818359375</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5901781320571899</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1.882525682449341</v>
+      </c>
+      <c r="E46" t="n">
+        <v>1.372051596641541</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.047367930412292</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.5901781320571899</v>
+      </c>
+      <c r="H46" t="n">
+        <v>166.4543151855469</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.589788019657135</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.88116729259491</v>
+      </c>
+      <c r="E47" t="n">
+        <v>1.371556520462036</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1.046859741210938</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.589788019657135</v>
+      </c>
+      <c r="H47" t="n">
+        <v>166.4944915771484</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5894008874893188</v>
+      </c>
+      <c r="D48" t="n">
+        <v>1.879820346832275</v>
+      </c>
+      <c r="E48" t="n">
+        <v>1.371065378189087</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.04637885093689</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.5894008874893188</v>
+      </c>
+      <c r="H48" t="n">
+        <v>166.5349731445312</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.5890169143676758</v>
+      </c>
+      <c r="D49" t="n">
+        <v>1.878488898277283</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1.370579719543457</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.045915961265564</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.5890169143676758</v>
+      </c>
+      <c r="H49" t="n">
+        <v>166.5750274658203</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.588636577129364</v>
+      </c>
+      <c r="D50" t="n">
+        <v>1.877171874046326</v>
+      </c>
+      <c r="E50" t="n">
+        <v>1.370099186897278</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.045456409454346</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.588636577129364</v>
+      </c>
+      <c r="H50" t="n">
+        <v>166.6153259277344</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>logcosh</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.5882579684257507</v>
+      </c>
+      <c r="D51" t="n">
+        <v>1.87586498260498</v>
+      </c>
+      <c r="E51" t="n">
+        <v>1.369622230529785</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.044996023178101</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.5882579684257507</v>
+      </c>
+      <c r="H51" t="n">
+        <v>166.6553039550781</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/learning_curves_comparison.xlsx
+++ b/results/learning_curves_comparison.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="persistent_entropy" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="mse" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="rmse" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="mae" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="logcosh" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="LWPE" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="MSE" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RMSE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="MAE" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="LogCosh" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,22 +455,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -485,26 +485,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>164.5243835449219</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95885181427002</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399589896202087</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F2" t="n">
-        <v>1.07209575176239</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6109818816184998</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H2" t="n">
-        <v>164.5243835449219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="3">
@@ -513,26 +513,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>164.1773529052734</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D3" t="n">
-        <v>1.936007976531982</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E3" t="n">
-        <v>1.391404986381531</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F3" t="n">
-        <v>1.059489488601685</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6026219725608826</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H3" t="n">
-        <v>164.1773529052734</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="4">
@@ -541,26 +541,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>159.1756591796875</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D4" t="n">
-        <v>1.771184206008911</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E4" t="n">
-        <v>1.330858469009399</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F4" t="n">
-        <v>1.009396553039551</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G4" t="n">
-        <v>0.558278501033783</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H4" t="n">
-        <v>159.1756591796875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="5">
@@ -569,26 +569,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>157.2815856933594</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D5" t="n">
-        <v>1.799927592277527</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E5" t="n">
-        <v>1.34161376953125</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F5" t="n">
-        <v>1.017294049263</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5648580193519592</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H5" t="n">
-        <v>157.2815856933594</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="6">
@@ -597,26 +597,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>155.901611328125</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D6" t="n">
-        <v>1.754290580749512</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E6" t="n">
-        <v>1.324496388435364</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9988620281219482</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5516400337219238</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H6" t="n">
-        <v>155.901611328125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="7">
@@ -625,26 +625,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>155.2279663085938</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D7" t="n">
-        <v>1.762273073196411</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E7" t="n">
-        <v>1.327506303787231</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F7" t="n">
-        <v>1.003931403160095</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G7" t="n">
-        <v>0.555055558681488</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H7" t="n">
-        <v>155.2279663085938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="8">
@@ -653,26 +653,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>155.3390502929688</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D8" t="n">
-        <v>1.771347045898438</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E8" t="n">
-        <v>1.330919623374939</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F8" t="n">
-        <v>1.006645083427429</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5570932030677795</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H8" t="n">
-        <v>155.3390502929688</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="9">
@@ -681,26 +681,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>156.3474731445312</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D9" t="n">
-        <v>1.74724817276001</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E9" t="n">
-        <v>1.321835160255432</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9970992803573608</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5499459505081177</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H9" t="n">
-        <v>156.3474731445312</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="10">
@@ -709,26 +709,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>155.5435791015625</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D10" t="n">
-        <v>1.819828271865845</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E10" t="n">
-        <v>1.349010109901428</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F10" t="n">
-        <v>1.016986846923828</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5676206350326538</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H10" t="n">
-        <v>155.5435791015625</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="11">
@@ -737,26 +737,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>155.3705444335938</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D11" t="n">
-        <v>1.694918990135193</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E11" t="n">
-        <v>1.30189049243927</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9837191700935364</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G11" t="n">
-        <v>0.537350594997406</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H11" t="n">
-        <v>155.3705444335938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="12">
@@ -765,26 +765,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>155.6437072753906</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D12" t="n">
-        <v>1.715929985046387</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E12" t="n">
-        <v>1.309935092926025</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F12" t="n">
-        <v>0.986335277557373</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5418853759765625</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H12" t="n">
-        <v>155.6437072753906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="13">
@@ -793,26 +793,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>158.3531036376953</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D13" t="n">
-        <v>1.698878526687622</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E13" t="n">
-        <v>1.303410291671753</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9804248213768005</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5363702178001404</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H13" t="n">
-        <v>158.3531036376953</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="14">
@@ -821,26 +821,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>152.9725494384766</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D14" t="n">
-        <v>1.745498538017273</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E14" t="n">
-        <v>1.321173191070557</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9940728545188904</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5481238961219788</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H14" t="n">
-        <v>152.9725494384766</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="15">
@@ -849,26 +849,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>152.6921539306641</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D15" t="n">
-        <v>1.695070624351501</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E15" t="n">
-        <v>1.30194878578186</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9773043990135193</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5345359444618225</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H15" t="n">
-        <v>152.6921539306641</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="16">
@@ -877,26 +877,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>154.1239013671875</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D16" t="n">
-        <v>1.715358972549438</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E16" t="n">
-        <v>1.309717178344727</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9856475591659546</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G16" t="n">
-        <v>0.539756715297699</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H16" t="n">
-        <v>154.1239013671875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="17">
@@ -905,26 +905,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>151.8872528076172</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D17" t="n">
-        <v>1.714242339134216</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E17" t="n">
-        <v>1.309290766716003</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9820242524147034</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5386934876441956</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H17" t="n">
-        <v>151.8872528076172</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="18">
@@ -933,26 +933,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>151.2652282714844</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D18" t="n">
-        <v>1.680762529373169</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E18" t="n">
-        <v>1.296442270278931</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9731184840202332</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5311573147773743</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H18" t="n">
-        <v>151.2652282714844</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="19">
@@ -961,26 +961,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>152.657958984375</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D19" t="n">
-        <v>1.654002785682678</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E19" t="n">
-        <v>1.286080360412598</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9585148096084595</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5217231512069702</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H19" t="n">
-        <v>152.657958984375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="20">
@@ -989,26 +989,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>152.4039459228516</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D20" t="n">
-        <v>1.707411050796509</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E20" t="n">
-        <v>1.306679368019104</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9807340502738953</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5379292368888855</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H20" t="n">
-        <v>152.4039459228516</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="21">
@@ -1017,26 +1017,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>152.7432250976562</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D21" t="n">
-        <v>1.666004180908203</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E21" t="n">
-        <v>1.290737867355347</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9634403586387634</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5257092118263245</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H21" t="n">
-        <v>152.7432250976562</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="22">
@@ -1045,26 +1045,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>151.0833740234375</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D22" t="n">
-        <v>1.648090243339539</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E22" t="n">
-        <v>1.283779621124268</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9589473605155945</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5220295190811157</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H22" t="n">
-        <v>151.0833740234375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="23">
@@ -1073,26 +1073,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>150.6800079345703</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D23" t="n">
-        <v>1.763483762741089</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E23" t="n">
-        <v>1.327962279319763</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9961443543434143</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5518916249275208</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H23" t="n">
-        <v>150.6800079345703</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="24">
@@ -1101,26 +1101,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>152.8378601074219</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D24" t="n">
-        <v>1.677266120910645</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E24" t="n">
-        <v>1.295093059539795</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9668427109718323</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5276223421096802</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H24" t="n">
-        <v>152.8378601074219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="25">
@@ -1129,26 +1129,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>154.8439331054688</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D25" t="n">
-        <v>1.632772326469421</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E25" t="n">
-        <v>1.277799844741821</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9467662572860718</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5130354166030884</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H25" t="n">
-        <v>154.8439331054688</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="26">
@@ -1157,26 +1157,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>150.2192230224609</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D26" t="n">
-        <v>1.713358521461487</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E26" t="n">
-        <v>1.308953166007996</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9784860014915466</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5375218391418457</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H26" t="n">
-        <v>150.2192230224609</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="27">
@@ -1185,26 +1185,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>149.5271453857422</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D27" t="n">
-        <v>1.713837027549744</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E27" t="n">
-        <v>1.309136033058167</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9796005487442017</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5386911034584045</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H27" t="n">
-        <v>149.5271453857422</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="28">
@@ -1213,26 +1213,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>151.2318267822266</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D28" t="n">
-        <v>1.720193862915039</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E28" t="n">
-        <v>1.311561584472656</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9854727387428284</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5418081879615784</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H28" t="n">
-        <v>151.2318267822266</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="29">
@@ -1241,26 +1241,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>153.0768432617188</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D29" t="n">
-        <v>1.649789810180664</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E29" t="n">
-        <v>1.284441471099854</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9557422995567322</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5195868015289307</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H29" t="n">
-        <v>153.0768432617188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="30">
@@ -1269,26 +1269,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>150.6074066162109</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D30" t="n">
-        <v>1.708055973052979</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E30" t="n">
-        <v>1.306926131248474</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9802184104919434</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5381166934967041</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H30" t="n">
-        <v>150.6074066162109</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="31">
@@ -1297,26 +1297,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>153.6496124267578</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D31" t="n">
-        <v>1.667433381080627</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E31" t="n">
-        <v>1.291291356086731</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9627060890197754</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5254045128822327</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H31" t="n">
-        <v>153.6496124267578</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="32">
@@ -1325,26 +1325,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>153.0816955566406</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D32" t="n">
-        <v>1.651566863059998</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E32" t="n">
-        <v>1.285133004188538</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9603593349456787</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5222576856613159</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H32" t="n">
-        <v>153.0816955566406</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="33">
@@ -1353,26 +1353,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>149.3976135253906</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D33" t="n">
-        <v>1.753093600273132</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E33" t="n">
-        <v>1.324044466018677</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9903984665870667</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5477595329284668</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H33" t="n">
-        <v>149.3976135253906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="34">
@@ -1381,26 +1381,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>153.6506958007812</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D34" t="n">
-        <v>1.682256698608398</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E34" t="n">
-        <v>1.29701840877533</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9665298461914062</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5278403162956238</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H34" t="n">
-        <v>153.6506958007812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="35">
@@ -1409,26 +1409,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>153.3245544433594</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D35" t="n">
-        <v>1.649595141410828</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E35" t="n">
-        <v>1.284365653991699</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9524130821228027</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G35" t="n">
-        <v>0.518222987651825</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H35" t="n">
-        <v>153.3245544433594</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="36">
@@ -1437,26 +1437,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>150.6837615966797</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D36" t="n">
-        <v>1.753198385238647</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E36" t="n">
-        <v>1.324083924293518</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9892672300338745</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G36" t="n">
-        <v>0.547027587890625</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H36" t="n">
-        <v>150.6837615966797</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="37">
@@ -1465,26 +1465,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>150.4107360839844</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D37" t="n">
-        <v>1.684725880622864</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E37" t="n">
-        <v>1.297969937324524</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9721089005470276</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G37" t="n">
-        <v>0.531313955783844</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H37" t="n">
-        <v>150.4107360839844</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="38">
@@ -1493,26 +1493,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>153.6678161621094</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D38" t="n">
-        <v>1.655723452568054</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E38" t="n">
-        <v>1.286749124526978</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F38" t="n">
-        <v>0.954089879989624</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5198695063591003</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H38" t="n">
-        <v>153.6678161621094</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="39">
@@ -1521,26 +1521,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>150.5871429443359</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D39" t="n">
-        <v>1.725755214691162</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E39" t="n">
-        <v>1.313680052757263</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9830899834632874</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G39" t="n">
-        <v>0.541928768157959</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H39" t="n">
-        <v>150.5871429443359</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="40">
@@ -1549,26 +1549,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>151.2929992675781</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D40" t="n">
-        <v>1.724417209625244</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E40" t="n">
-        <v>1.313170671463013</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F40" t="n">
-        <v>0.986893892288208</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G40" t="n">
-        <v>0.541606068611145</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H40" t="n">
-        <v>151.2929992675781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="41">
@@ -1577,26 +1577,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>151.0047607421875</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D41" t="n">
-        <v>1.693583846092224</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E41" t="n">
-        <v>1.301377654075623</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9749161601066589</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5333468914031982</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H41" t="n">
-        <v>151.0047607421875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="42">
@@ -1605,26 +1605,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>150.630859375</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D42" t="n">
-        <v>1.760220289230347</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E42" t="n">
-        <v>1.326732993125916</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9918087720870972</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G42" t="n">
-        <v>0.548908531665802</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H42" t="n">
-        <v>150.630859375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="43">
@@ -1633,26 +1633,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>150.1019897460938</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D43" t="n">
-        <v>1.695425271987915</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E43" t="n">
-        <v>1.302084922790527</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9758448004722595</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5351400971412659</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H43" t="n">
-        <v>150.1019897460938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="44">
@@ -1661,26 +1661,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>152.7362365722656</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D44" t="n">
-        <v>1.684739112854004</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E44" t="n">
-        <v>1.297975063323975</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9726152420043945</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5303783416748047</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H44" t="n">
-        <v>152.7362365722656</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="45">
@@ -1689,26 +1689,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>153.7891845703125</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D45" t="n">
-        <v>1.659931540489197</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E45" t="n">
-        <v>1.28838324546814</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9585591554641724</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5216532945632935</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H45" t="n">
-        <v>153.7891845703125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="46">
@@ -1717,26 +1717,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>149.6816864013672</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D46" t="n">
-        <v>1.770396590232849</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E46" t="n">
-        <v>1.330562472343445</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9924280643463135</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5511927604675293</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H46" t="n">
-        <v>149.6816864013672</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="47">
@@ -1745,26 +1745,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>151.8698120117188</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D47" t="n">
-        <v>1.699818134307861</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E47" t="n">
-        <v>1.303770780563354</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9771701693534851</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5348227620124817</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H47" t="n">
-        <v>151.8698120117188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="48">
@@ -1773,26 +1773,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>153.2537536621094</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D48" t="n">
-        <v>1.639423727989197</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E48" t="n">
-        <v>1.280399799346924</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F48" t="n">
-        <v>0.951000988483429</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5155820250511169</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H48" t="n">
-        <v>153.2537536621094</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="49">
@@ -1801,26 +1801,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>150.441650390625</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D49" t="n">
-        <v>1.746611475944519</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E49" t="n">
-        <v>1.32159423828125</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9893447756767273</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5465848445892334</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H49" t="n">
-        <v>150.441650390625</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="50">
@@ -1829,26 +1829,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>150.3343200683594</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D50" t="n">
-        <v>1.724769711494446</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E50" t="n">
-        <v>1.313304901123047</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9862430691719055</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5419489741325378</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H50" t="n">
-        <v>150.3343200683594</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="51">
@@ -1857,26 +1857,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>persistent_entropy</t>
+          <t>LWPE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>152.0513000488281</v>
+        <v>11.17303085327148</v>
       </c>
       <c r="D51" t="n">
-        <v>1.739313840866089</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E51" t="n">
-        <v>1.318830490112305</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F51" t="n">
-        <v>0.987659752368927</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5443498492240906</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H51" t="n">
-        <v>152.0513000488281</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
   </sheetData>
@@ -1916,22 +1916,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1946,26 +1946,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.95885181427002</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95885181427002</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399589896202087</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F2" t="n">
-        <v>1.07209575176239</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6109818816184998</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H2" t="n">
-        <v>164.5243835449219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="3">
@@ -1974,26 +1974,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.95017147064209</v>
+        <v>26.04746437072754</v>
       </c>
       <c r="D3" t="n">
-        <v>1.95017147064209</v>
+        <v>26.04746437072754</v>
       </c>
       <c r="E3" t="n">
-        <v>1.396485447883606</v>
+        <v>5.103671550750732</v>
       </c>
       <c r="F3" t="n">
-        <v>1.069860100746155</v>
+        <v>3.435722827911377</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6088268160820007</v>
+        <v>2.897766351699829</v>
       </c>
       <c r="H3" t="n">
-        <v>164.7296142578125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="4">
@@ -2002,26 +2002,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.941918134689331</v>
+        <v>26.01970863342285</v>
       </c>
       <c r="D4" t="n">
-        <v>1.941918134689331</v>
+        <v>26.01970863342285</v>
       </c>
       <c r="E4" t="n">
-        <v>1.393527269363403</v>
+        <v>5.100951671600342</v>
       </c>
       <c r="F4" t="n">
-        <v>1.067678451538086</v>
+        <v>3.434042453765869</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6067628264427185</v>
+        <v>2.89608907699585</v>
       </c>
       <c r="H4" t="n">
-        <v>164.92919921875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="5">
@@ -2030,26 +2030,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.934071183204651</v>
+        <v>25.99181175231934</v>
       </c>
       <c r="D5" t="n">
-        <v>1.934071183204651</v>
+        <v>25.99181175231934</v>
       </c>
       <c r="E5" t="n">
-        <v>1.390708923339844</v>
+        <v>5.098216533660889</v>
       </c>
       <c r="F5" t="n">
-        <v>1.065550804138184</v>
+        <v>3.432352066040039</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6047856211662292</v>
+        <v>2.894402503967285</v>
       </c>
       <c r="H5" t="n">
-        <v>165.1231689453125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="6">
@@ -2058,26 +2058,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.926605105400085</v>
+        <v>25.96377754211426</v>
       </c>
       <c r="D6" t="n">
-        <v>1.926605105400085</v>
+        <v>25.96377754211426</v>
       </c>
       <c r="E6" t="n">
-        <v>1.388022065162659</v>
+        <v>5.095466136932373</v>
       </c>
       <c r="F6" t="n">
-        <v>1.063475489616394</v>
+        <v>3.430652618408203</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6028909087181091</v>
+        <v>2.892706871032715</v>
       </c>
       <c r="H6" t="n">
-        <v>165.3119201660156</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="7">
@@ -2086,26 +2086,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.919491171836853</v>
+        <v>25.93561553955078</v>
       </c>
       <c r="D7" t="n">
-        <v>1.919491171836853</v>
+        <v>25.93561553955078</v>
       </c>
       <c r="E7" t="n">
-        <v>1.385457038879395</v>
+        <v>5.092702388763428</v>
       </c>
       <c r="F7" t="n">
-        <v>1.061449408531189</v>
+        <v>3.428944110870361</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6010726690292358</v>
+        <v>2.89100193977356</v>
       </c>
       <c r="H7" t="n">
-        <v>165.4957427978516</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="8">
@@ -2114,26 +2114,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.912707924842834</v>
+        <v>25.90730285644531</v>
       </c>
       <c r="D8" t="n">
-        <v>1.912707924842834</v>
+        <v>25.90730285644531</v>
       </c>
       <c r="E8" t="n">
-        <v>1.383006811141968</v>
+        <v>5.089921474456787</v>
       </c>
       <c r="F8" t="n">
-        <v>1.059470534324646</v>
+        <v>3.427226305007935</v>
       </c>
       <c r="G8" t="n">
-        <v>0.599327027797699</v>
+        <v>2.889287948608398</v>
       </c>
       <c r="H8" t="n">
-        <v>165.6749572753906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="9">
@@ -2142,26 +2142,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.906229853630066</v>
+        <v>25.87885665893555</v>
       </c>
       <c r="D9" t="n">
-        <v>1.906229853630066</v>
+        <v>25.87885665893555</v>
       </c>
       <c r="E9" t="n">
-        <v>1.380662798881531</v>
+        <v>5.087126731872559</v>
       </c>
       <c r="F9" t="n">
-        <v>1.057537078857422</v>
+        <v>3.425498723983765</v>
       </c>
       <c r="G9" t="n">
-        <v>0.5976487994194031</v>
+        <v>2.887564182281494</v>
       </c>
       <c r="H9" t="n">
-        <v>165.8499298095703</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="10">
@@ -2170,26 +2170,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.900050282478333</v>
+        <v>25.85027694702148</v>
       </c>
       <c r="D10" t="n">
-        <v>1.900050282478333</v>
+        <v>25.85027694702148</v>
       </c>
       <c r="E10" t="n">
-        <v>1.378423094749451</v>
+        <v>5.084316730499268</v>
       </c>
       <c r="F10" t="n">
-        <v>1.055650591850281</v>
+        <v>3.42376184463501</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5960374474525452</v>
+        <v>2.885831117630005</v>
       </c>
       <c r="H10" t="n">
-        <v>166.0206756591797</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="11">
@@ -2198,26 +2198,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.894139409065247</v>
+        <v>25.82154273986816</v>
       </c>
       <c r="D11" t="n">
-        <v>1.894139409065247</v>
+        <v>25.82154273986816</v>
       </c>
       <c r="E11" t="n">
-        <v>1.376277327537537</v>
+        <v>5.081490039825439</v>
       </c>
       <c r="F11" t="n">
-        <v>1.053804874420166</v>
+        <v>3.422015428543091</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5944859981536865</v>
+        <v>2.884088039398193</v>
       </c>
       <c r="H11" t="n">
-        <v>166.1875915527344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="12">
@@ -2226,26 +2226,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.888486742973328</v>
+        <v>25.79267120361328</v>
       </c>
       <c r="D12" t="n">
-        <v>1.888486742973328</v>
+        <v>25.79267120361328</v>
       </c>
       <c r="E12" t="n">
-        <v>1.374222278594971</v>
+        <v>5.078648567199707</v>
       </c>
       <c r="F12" t="n">
-        <v>1.052001714706421</v>
+        <v>3.420259714126587</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5929929614067078</v>
+        <v>2.882336139678955</v>
       </c>
       <c r="H12" t="n">
-        <v>166.3508911132812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="13">
@@ -2254,26 +2254,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.883076906204224</v>
+        <v>25.7636547088623</v>
       </c>
       <c r="D13" t="n">
-        <v>1.883076906204224</v>
+        <v>25.7636547088623</v>
       </c>
       <c r="E13" t="n">
-        <v>1.372252464294434</v>
+        <v>5.075790882110596</v>
       </c>
       <c r="F13" t="n">
-        <v>1.050281047821045</v>
+        <v>3.418493509292603</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5915554761886597</v>
+        <v>2.880573749542236</v>
       </c>
       <c r="H13" t="n">
-        <v>166.5108947753906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="14">
@@ -2282,26 +2282,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.87789261341095</v>
+        <v>25.73448753356934</v>
       </c>
       <c r="D14" t="n">
-        <v>1.87789261341095</v>
+        <v>25.73448753356934</v>
       </c>
       <c r="E14" t="n">
-        <v>1.370362162590027</v>
+        <v>5.072916984558105</v>
       </c>
       <c r="F14" t="n">
-        <v>1.04872465133667</v>
+        <v>3.416717767715454</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5901699662208557</v>
+        <v>2.878801584243774</v>
       </c>
       <c r="H14" t="n">
-        <v>166.6682739257812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="15">
@@ -2310,26 +2310,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.872914791107178</v>
+        <v>25.70518112182617</v>
       </c>
       <c r="D15" t="n">
-        <v>1.872914791107178</v>
+        <v>25.70518112182617</v>
       </c>
       <c r="E15" t="n">
-        <v>1.368544816970825</v>
+        <v>5.070027828216553</v>
       </c>
       <c r="F15" t="n">
-        <v>1.047199010848999</v>
+        <v>3.414931297302246</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5888321995735168</v>
+        <v>2.877019643783569</v>
       </c>
       <c r="H15" t="n">
-        <v>166.8226623535156</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="16">
@@ -2338,26 +2338,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.868145942687988</v>
+        <v>25.67572021484375</v>
       </c>
       <c r="D16" t="n">
-        <v>1.868145942687988</v>
+        <v>25.67572021484375</v>
       </c>
       <c r="E16" t="n">
-        <v>1.366801381111145</v>
+        <v>5.067121505737305</v>
       </c>
       <c r="F16" t="n">
-        <v>1.045713186264038</v>
+        <v>3.413135766983032</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5875436067581177</v>
+        <v>2.875227689743042</v>
       </c>
       <c r="H16" t="n">
-        <v>166.9749298095703</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="17">
@@ -2366,26 +2366,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.863564848899841</v>
+        <v>25.64611625671387</v>
       </c>
       <c r="D17" t="n">
-        <v>1.863564848899841</v>
+        <v>25.64611625671387</v>
       </c>
       <c r="E17" t="n">
-        <v>1.365124464035034</v>
+        <v>5.064199447631836</v>
       </c>
       <c r="F17" t="n">
-        <v>1.044257164001465</v>
+        <v>3.411329746246338</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5862990021705627</v>
+        <v>2.873425722122192</v>
       </c>
       <c r="H17" t="n">
-        <v>167.1253662109375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="18">
@@ -2394,26 +2394,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.859159588813782</v>
+        <v>25.61635780334473</v>
       </c>
       <c r="D18" t="n">
-        <v>1.859159588813782</v>
+        <v>25.61635780334473</v>
       </c>
       <c r="E18" t="n">
-        <v>1.363510012626648</v>
+        <v>5.06126070022583</v>
       </c>
       <c r="F18" t="n">
-        <v>1.042831063270569</v>
+        <v>3.409513473510742</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5850964188575745</v>
+        <v>2.871613264083862</v>
       </c>
       <c r="H18" t="n">
-        <v>167.25</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="19">
@@ -2422,26 +2422,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.854923605918884</v>
+        <v>25.58644866943359</v>
       </c>
       <c r="D19" t="n">
-        <v>1.854923605918884</v>
+        <v>25.58644866943359</v>
       </c>
       <c r="E19" t="n">
-        <v>1.361955761909485</v>
+        <v>5.058304786682129</v>
       </c>
       <c r="F19" t="n">
-        <v>1.041432619094849</v>
+        <v>3.407686471939087</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5839338302612305</v>
+        <v>2.869790554046631</v>
       </c>
       <c r="H19" t="n">
-        <v>167.3526458740234</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="20">
@@ -2450,26 +2450,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.850848078727722</v>
+        <v>25.55638694763184</v>
       </c>
       <c r="D20" t="n">
-        <v>1.850848078727722</v>
+        <v>25.55638694763184</v>
       </c>
       <c r="E20" t="n">
-        <v>1.360458731651306</v>
+        <v>5.055332660675049</v>
       </c>
       <c r="F20" t="n">
-        <v>1.040075898170471</v>
+        <v>3.405849456787109</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5828109979629517</v>
+        <v>2.867957353591919</v>
       </c>
       <c r="H20" t="n">
-        <v>167.4591979980469</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="21">
@@ -2478,26 +2478,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.846922278404236</v>
+        <v>25.52616500854492</v>
       </c>
       <c r="D21" t="n">
-        <v>1.846922278404236</v>
+        <v>25.52616500854492</v>
       </c>
       <c r="E21" t="n">
-        <v>1.359015226364136</v>
+        <v>5.052342414855957</v>
       </c>
       <c r="F21" t="n">
-        <v>1.038758993148804</v>
+        <v>3.404001712799072</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5817238688468933</v>
+        <v>2.866113185882568</v>
       </c>
       <c r="H21" t="n">
-        <v>167.5680084228516</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="22">
@@ -2506,26 +2506,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.843135595321655</v>
+        <v>25.49578857421875</v>
       </c>
       <c r="D22" t="n">
-        <v>1.843135595321655</v>
+        <v>25.49578857421875</v>
       </c>
       <c r="E22" t="n">
-        <v>1.357621312141418</v>
+        <v>5.049335479736328</v>
       </c>
       <c r="F22" t="n">
-        <v>1.037468314170837</v>
+        <v>3.402143001556396</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5806711316108704</v>
+        <v>2.864258766174316</v>
       </c>
       <c r="H22" t="n">
-        <v>167.6802368164062</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="23">
@@ -2534,26 +2534,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.83948278427124</v>
+        <v>25.46525955200195</v>
       </c>
       <c r="D23" t="n">
-        <v>1.83948278427124</v>
+        <v>25.46525955200195</v>
       </c>
       <c r="E23" t="n">
-        <v>1.356275320053101</v>
+        <v>5.046311378479004</v>
       </c>
       <c r="F23" t="n">
-        <v>1.036203384399414</v>
+        <v>3.400274276733398</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5796522498130798</v>
+        <v>2.862393856048584</v>
       </c>
       <c r="H23" t="n">
-        <v>167.7976684570312</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="24">
@@ -2562,26 +2562,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.835960626602173</v>
+        <v>25.43456649780273</v>
       </c>
       <c r="D24" t="n">
-        <v>1.835960626602173</v>
+        <v>25.43456649780273</v>
       </c>
       <c r="E24" t="n">
-        <v>1.354976296424866</v>
+        <v>5.043269634246826</v>
       </c>
       <c r="F24" t="n">
-        <v>1.035007834434509</v>
+        <v>3.398394346237183</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5786651372909546</v>
+        <v>2.860517740249634</v>
       </c>
       <c r="H24" t="n">
-        <v>167.9241333007812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="25">
@@ -2590,26 +2590,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.832553505897522</v>
+        <v>25.40371894836426</v>
       </c>
       <c r="D25" t="n">
-        <v>1.832553505897522</v>
+        <v>25.40371894836426</v>
       </c>
       <c r="E25" t="n">
-        <v>1.353718400001526</v>
+        <v>5.040210247039795</v>
       </c>
       <c r="F25" t="n">
-        <v>1.033884406089783</v>
+        <v>3.396503210067749</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5777075290679932</v>
+        <v>2.858631134033203</v>
       </c>
       <c r="H25" t="n">
-        <v>168.072021484375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="26">
@@ -2618,26 +2618,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.829259276390076</v>
+        <v>25.37270736694336</v>
       </c>
       <c r="D26" t="n">
-        <v>1.829259276390076</v>
+        <v>25.37270736694336</v>
       </c>
       <c r="E26" t="n">
-        <v>1.352501153945923</v>
+        <v>5.037132740020752</v>
       </c>
       <c r="F26" t="n">
-        <v>1.032781481742859</v>
+        <v>3.394601345062256</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5767784714698792</v>
+        <v>2.856733083724976</v>
       </c>
       <c r="H26" t="n">
-        <v>168.0620422363281</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="27">
@@ -2646,26 +2646,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.826072216033936</v>
+        <v>25.34152793884277</v>
       </c>
       <c r="D27" t="n">
-        <v>1.826072216033936</v>
+        <v>25.34152793884277</v>
       </c>
       <c r="E27" t="n">
-        <v>1.351322412490845</v>
+        <v>5.034037113189697</v>
       </c>
       <c r="F27" t="n">
-        <v>1.031697750091553</v>
+        <v>3.392687797546387</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5758765339851379</v>
+        <v>2.854824066162109</v>
       </c>
       <c r="H27" t="n">
-        <v>167.9717254638672</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="28">
@@ -2674,26 +2674,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.822987079620361</v>
+        <v>25.31018829345703</v>
       </c>
       <c r="D28" t="n">
-        <v>1.822987079620361</v>
+        <v>25.31018829345703</v>
       </c>
       <c r="E28" t="n">
-        <v>1.350180387496948</v>
+        <v>5.030923366546631</v>
       </c>
       <c r="F28" t="n">
-        <v>1.030634045600891</v>
+        <v>3.3907630443573</v>
       </c>
       <c r="G28" t="n">
-        <v>0.57500159740448</v>
+        <v>2.852903604507446</v>
       </c>
       <c r="H28" t="n">
-        <v>167.8778076171875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="29">
@@ -2702,26 +2702,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.81999671459198</v>
+        <v>25.27868270874023</v>
       </c>
       <c r="D29" t="n">
-        <v>1.81999671459198</v>
+        <v>25.27868270874023</v>
       </c>
       <c r="E29" t="n">
-        <v>1.349072575569153</v>
+        <v>5.027791023254395</v>
       </c>
       <c r="F29" t="n">
-        <v>1.029588341712952</v>
+        <v>3.388826847076416</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5741507411003113</v>
+        <v>2.850971698760986</v>
       </c>
       <c r="H29" t="n">
-        <v>167.7842864990234</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="30">
@@ -2730,26 +2730,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.817098736763</v>
+        <v>25.24700164794922</v>
       </c>
       <c r="D30" t="n">
-        <v>1.817098736763</v>
+        <v>25.24700164794922</v>
       </c>
       <c r="E30" t="n">
-        <v>1.347998023033142</v>
+        <v>5.02463960647583</v>
       </c>
       <c r="F30" t="n">
-        <v>1.028560876846313</v>
+        <v>3.386878967285156</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5733242034912109</v>
+        <v>2.84902811050415</v>
       </c>
       <c r="H30" t="n">
-        <v>167.6915740966797</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="31">
@@ -2758,26 +2758,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.814282178878784</v>
+        <v>25.21516036987305</v>
       </c>
       <c r="D31" t="n">
-        <v>1.814282178878784</v>
+        <v>25.21516036987305</v>
       </c>
       <c r="E31" t="n">
-        <v>1.34695291519165</v>
+        <v>5.021470069885254</v>
       </c>
       <c r="F31" t="n">
-        <v>1.027550220489502</v>
+        <v>3.384919404983521</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5725193619728088</v>
+        <v>2.847073078155518</v>
       </c>
       <c r="H31" t="n">
-        <v>167.5986938476562</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="32">
@@ -2786,26 +2786,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.81155252456665</v>
+        <v>25.18313980102539</v>
       </c>
       <c r="D32" t="n">
-        <v>1.81155252456665</v>
+        <v>25.18313980102539</v>
       </c>
       <c r="E32" t="n">
-        <v>1.3459392786026</v>
+        <v>5.018280506134033</v>
       </c>
       <c r="F32" t="n">
-        <v>1.026557803153992</v>
+        <v>3.382948637008667</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5717374086380005</v>
+        <v>2.845106363296509</v>
       </c>
       <c r="H32" t="n">
-        <v>167.5061340332031</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="33">
@@ -2814,26 +2814,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.808900833129883</v>
+        <v>25.15095901489258</v>
       </c>
       <c r="D33" t="n">
-        <v>1.808900833129883</v>
+        <v>25.15095901489258</v>
       </c>
       <c r="E33" t="n">
-        <v>1.344953894615173</v>
+        <v>5.015073299407959</v>
       </c>
       <c r="F33" t="n">
-        <v>1.025581955909729</v>
+        <v>3.3809654712677</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5709762573242188</v>
+        <v>2.843127965927124</v>
       </c>
       <c r="H33" t="n">
-        <v>167.4139862060547</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="34">
@@ -2842,26 +2842,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.806302070617676</v>
+        <v>25.11859703063965</v>
       </c>
       <c r="D34" t="n">
-        <v>1.806302070617676</v>
+        <v>25.11859703063965</v>
       </c>
       <c r="E34" t="n">
-        <v>1.343987345695496</v>
+        <v>5.011845588684082</v>
       </c>
       <c r="F34" t="n">
-        <v>1.024617671966553</v>
+        <v>3.378970623016357</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5702281594276428</v>
+        <v>2.841136932373047</v>
       </c>
       <c r="H34" t="n">
-        <v>167.3223114013672</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="35">
@@ -2870,26 +2870,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.803650975227356</v>
+        <v>25.08605766296387</v>
       </c>
       <c r="D35" t="n">
-        <v>1.803650975227356</v>
+        <v>25.08605766296387</v>
       </c>
       <c r="E35" t="n">
-        <v>1.343000769615173</v>
+        <v>5.008598327636719</v>
       </c>
       <c r="F35" t="n">
-        <v>1.023632645606995</v>
+        <v>3.376963138580322</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5694596767425537</v>
+        <v>2.839133977890015</v>
       </c>
       <c r="H35" t="n">
-        <v>167.2307739257812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="36">
@@ -2898,26 +2898,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.801071643829346</v>
+        <v>25.05334091186523</v>
       </c>
       <c r="D36" t="n">
-        <v>1.801071643829346</v>
+        <v>25.05334091186523</v>
       </c>
       <c r="E36" t="n">
-        <v>1.342040061950684</v>
+        <v>5.005331039428711</v>
       </c>
       <c r="F36" t="n">
-        <v>1.022663354873657</v>
+        <v>3.374943733215332</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5687104463577271</v>
+        <v>2.837119102478027</v>
       </c>
       <c r="H36" t="n">
-        <v>167.1393432617188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="37">
@@ -2926,26 +2926,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.798555016517639</v>
+        <v>25.02045631408691</v>
       </c>
       <c r="D37" t="n">
-        <v>1.798555016517639</v>
+        <v>25.02045631408691</v>
       </c>
       <c r="E37" t="n">
-        <v>1.341102123260498</v>
+        <v>5.002045154571533</v>
       </c>
       <c r="F37" t="n">
-        <v>1.021707653999329</v>
+        <v>3.372912406921387</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5679783821105957</v>
+        <v>2.835092544555664</v>
       </c>
       <c r="H37" t="n">
-        <v>167.0483093261719</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="38">
@@ -2954,26 +2954,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.79589831829071</v>
+        <v>24.98738288879395</v>
       </c>
       <c r="D38" t="n">
-        <v>1.79589831829071</v>
+        <v>24.98738288879395</v>
       </c>
       <c r="E38" t="n">
-        <v>1.340111255645752</v>
+        <v>4.998738288879395</v>
       </c>
       <c r="F38" t="n">
-        <v>1.020723462104797</v>
+        <v>3.37086820602417</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5672164559364319</v>
+        <v>2.833052396774292</v>
       </c>
       <c r="H38" t="n">
-        <v>166.9550476074219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="39">
@@ -2982,26 +2982,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.792343497276306</v>
+        <v>24.9541187286377</v>
       </c>
       <c r="D39" t="n">
-        <v>1.792343497276306</v>
+        <v>24.9541187286377</v>
       </c>
       <c r="E39" t="n">
-        <v>1.338784337043762</v>
+        <v>4.995409965515137</v>
       </c>
       <c r="F39" t="n">
-        <v>1.019492387771606</v>
+        <v>3.368810653686523</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5662360787391663</v>
+        <v>2.830999612808228</v>
       </c>
       <c r="H39" t="n">
-        <v>166.8339233398438</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="40">
@@ -3010,26 +3010,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.788870811462402</v>
+        <v>24.92068290710449</v>
       </c>
       <c r="D40" t="n">
-        <v>1.788870811462402</v>
+        <v>24.92068290710449</v>
       </c>
       <c r="E40" t="n">
-        <v>1.337486743927002</v>
+        <v>4.992062091827393</v>
       </c>
       <c r="F40" t="n">
-        <v>1.018278241157532</v>
+        <v>3.366740703582764</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5652762055397034</v>
+        <v>2.828934669494629</v>
       </c>
       <c r="H40" t="n">
-        <v>166.7136383056641</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="41">
@@ -3038,26 +3038,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.785475254058838</v>
+        <v>24.88706016540527</v>
       </c>
       <c r="D41" t="n">
-        <v>1.785475254058838</v>
+        <v>24.88706016540527</v>
       </c>
       <c r="E41" t="n">
-        <v>1.336216807365417</v>
+        <v>4.988693237304688</v>
       </c>
       <c r="F41" t="n">
-        <v>1.017081260681152</v>
+        <v>3.364658355712891</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5643361210823059</v>
+        <v>2.82685661315918</v>
       </c>
       <c r="H41" t="n">
-        <v>166.5940856933594</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="42">
@@ -3066,26 +3066,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.782155394554138</v>
+        <v>24.85324096679688</v>
       </c>
       <c r="D42" t="n">
-        <v>1.782155394554138</v>
+        <v>24.85324096679688</v>
       </c>
       <c r="E42" t="n">
-        <v>1.334973931312561</v>
+        <v>4.985302448272705</v>
       </c>
       <c r="F42" t="n">
-        <v>1.01590096950531</v>
+        <v>3.362561941146851</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5634157657623291</v>
+        <v>2.824764966964722</v>
       </c>
       <c r="H42" t="n">
-        <v>166.4752807617188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="43">
@@ -3094,26 +3094,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.778901934623718</v>
+        <v>24.81924247741699</v>
       </c>
       <c r="D43" t="n">
-        <v>1.778901934623718</v>
+        <v>24.81924247741699</v>
       </c>
       <c r="E43" t="n">
-        <v>1.333754777908325</v>
+        <v>4.981891632080078</v>
       </c>
       <c r="F43" t="n">
-        <v>1.014850497245789</v>
+        <v>3.360453367233276</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5625123381614685</v>
+        <v>2.82266092300415</v>
       </c>
       <c r="H43" t="n">
-        <v>166.3619995117188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="44">
@@ -3122,26 +3122,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.775721192359924</v>
+        <v>24.78504753112793</v>
       </c>
       <c r="D44" t="n">
-        <v>1.775721192359924</v>
+        <v>24.78504753112793</v>
       </c>
       <c r="E44" t="n">
-        <v>1.332561850547791</v>
+        <v>4.978458404541016</v>
       </c>
       <c r="F44" t="n">
-        <v>1.013864278793335</v>
+        <v>3.358330965042114</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5616280436515808</v>
+        <v>2.820543527603149</v>
       </c>
       <c r="H44" t="n">
-        <v>166.2882995605469</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="45">
@@ -3150,26 +3150,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.772607326507568</v>
+        <v>24.75066184997559</v>
       </c>
       <c r="D45" t="n">
-        <v>1.772607326507568</v>
+        <v>24.75066184997559</v>
       </c>
       <c r="E45" t="n">
-        <v>1.331393003463745</v>
+        <v>4.975003719329834</v>
       </c>
       <c r="F45" t="n">
-        <v>1.012890100479126</v>
+        <v>3.356195211410522</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5607611536979675</v>
+        <v>2.818412303924561</v>
       </c>
       <c r="H45" t="n">
-        <v>166.2145385742188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="46">
@@ -3178,26 +3178,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.769552111625671</v>
+        <v>24.71608352661133</v>
       </c>
       <c r="D46" t="n">
-        <v>1.769552111625671</v>
+        <v>24.71608352661133</v>
       </c>
       <c r="E46" t="n">
-        <v>1.330245137214661</v>
+        <v>4.971527099609375</v>
       </c>
       <c r="F46" t="n">
-        <v>1.011926174163818</v>
+        <v>3.354046106338501</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5599099397659302</v>
+        <v>2.816267967224121</v>
       </c>
       <c r="H46" t="n">
-        <v>166.1401062011719</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="47">
@@ -3206,26 +3206,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.76656186580658</v>
+        <v>24.68130302429199</v>
       </c>
       <c r="D47" t="n">
-        <v>1.76656186580658</v>
+        <v>24.68130302429199</v>
       </c>
       <c r="E47" t="n">
-        <v>1.329120755195618</v>
+        <v>4.96802806854248</v>
       </c>
       <c r="F47" t="n">
-        <v>1.010975003242493</v>
+        <v>3.351881980895996</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5590754747390747</v>
+        <v>2.814109325408936</v>
       </c>
       <c r="H47" t="n">
-        <v>166.0658874511719</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="48">
@@ -3234,26 +3234,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.763630390167236</v>
+        <v>24.64632987976074</v>
       </c>
       <c r="D48" t="n">
-        <v>1.763630390167236</v>
+        <v>24.64632987976074</v>
       </c>
       <c r="E48" t="n">
-        <v>1.328017473220825</v>
+        <v>4.964507102966309</v>
       </c>
       <c r="F48" t="n">
-        <v>1.010034084320068</v>
+        <v>3.349705457687378</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5582564473152161</v>
+        <v>2.81193733215332</v>
       </c>
       <c r="H48" t="n">
-        <v>165.9909820556641</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="49">
@@ -3262,26 +3262,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.760754227638245</v>
+        <v>24.61115264892578</v>
       </c>
       <c r="D49" t="n">
-        <v>1.760754227638245</v>
+        <v>24.61115264892578</v>
       </c>
       <c r="E49" t="n">
-        <v>1.326934099197388</v>
+        <v>4.960962772369385</v>
       </c>
       <c r="F49" t="n">
-        <v>1.009104490280151</v>
+        <v>3.347514390945435</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5574521422386169</v>
+        <v>2.809751033782959</v>
       </c>
       <c r="H49" t="n">
-        <v>165.9160919189453</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="50">
@@ -3290,26 +3290,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.757930636405945</v>
+        <v>24.57577323913574</v>
       </c>
       <c r="D50" t="n">
-        <v>1.757930636405945</v>
+        <v>24.57577323913574</v>
       </c>
       <c r="E50" t="n">
-        <v>1.325869798660278</v>
+        <v>4.957396030426025</v>
       </c>
       <c r="F50" t="n">
-        <v>1.00818407535553</v>
+        <v>3.345309019088745</v>
       </c>
       <c r="G50" t="n">
-        <v>0.55666184425354</v>
+        <v>2.807550668716431</v>
       </c>
       <c r="H50" t="n">
-        <v>165.8408203125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="51">
@@ -3318,26 +3318,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.755160570144653</v>
+        <v>24.54018974304199</v>
       </c>
       <c r="D51" t="n">
-        <v>1.755160570144653</v>
+        <v>24.54018974304199</v>
       </c>
       <c r="E51" t="n">
-        <v>1.324824690818787</v>
+        <v>4.953805446624756</v>
       </c>
       <c r="F51" t="n">
-        <v>1.007275104522705</v>
+        <v>3.34308934211731</v>
       </c>
       <c r="G51" t="n">
-        <v>0.555885910987854</v>
+        <v>2.805335998535156</v>
       </c>
       <c r="H51" t="n">
-        <v>165.7653198242188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
   </sheetData>
@@ -3377,22 +3377,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3407,26 +3407,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.399589896202087</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95885181427002</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399589896202087</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F2" t="n">
-        <v>1.07209575176239</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6109818816184998</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H2" t="n">
-        <v>164.5243835449219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="3">
@@ -3435,26 +3435,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.398471832275391</v>
+        <v>5.106112957000732</v>
       </c>
       <c r="D3" t="n">
-        <v>1.955723524093628</v>
+        <v>26.07239151000977</v>
       </c>
       <c r="E3" t="n">
-        <v>1.398471832275391</v>
+        <v>5.106112957000732</v>
       </c>
       <c r="F3" t="n">
-        <v>1.07129693031311</v>
+        <v>3.437231779098511</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6102070808410645</v>
+        <v>2.899271726608276</v>
       </c>
       <c r="H3" t="n">
-        <v>164.5972747802734</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="4">
@@ -3463,26 +3463,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.397373080253601</v>
+        <v>5.10584831237793</v>
       </c>
       <c r="D4" t="n">
-        <v>1.952651381492615</v>
+        <v>26.0696849822998</v>
       </c>
       <c r="E4" t="n">
-        <v>1.397373080253601</v>
+        <v>5.10584831237793</v>
       </c>
       <c r="F4" t="n">
-        <v>1.070504903793335</v>
+        <v>3.437067985534668</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6094442009925842</v>
+        <v>2.899108409881592</v>
       </c>
       <c r="H4" t="n">
-        <v>164.6696472167969</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="5">
@@ -3491,26 +3491,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.396292328834534</v>
+        <v>5.105583667755127</v>
       </c>
       <c r="D5" t="n">
-        <v>1.949632406234741</v>
+        <v>26.06698226928711</v>
       </c>
       <c r="E5" t="n">
-        <v>1.396292328834534</v>
+        <v>5.105583667755127</v>
       </c>
       <c r="F5" t="n">
-        <v>1.069718241691589</v>
+        <v>3.436904191970825</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6086919903755188</v>
+        <v>2.898945093154907</v>
       </c>
       <c r="H5" t="n">
-        <v>164.7414093017578</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="6">
@@ -3519,26 +3519,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.395228385925293</v>
+        <v>5.105318546295166</v>
       </c>
       <c r="D6" t="n">
-        <v>1.946662187576294</v>
+        <v>26.06427764892578</v>
       </c>
       <c r="E6" t="n">
-        <v>1.395228385925293</v>
+        <v>5.105318546295166</v>
       </c>
       <c r="F6" t="n">
-        <v>1.068938255310059</v>
+        <v>3.436740398406982</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6079505681991577</v>
+        <v>2.898781538009644</v>
       </c>
       <c r="H6" t="n">
-        <v>164.8126983642578</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="7">
@@ -3547,26 +3547,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.39418089389801</v>
+        <v>5.105052947998047</v>
       </c>
       <c r="D7" t="n">
-        <v>1.943740248680115</v>
+        <v>26.06156539916992</v>
       </c>
       <c r="E7" t="n">
-        <v>1.39418089389801</v>
+        <v>5.105052947998047</v>
       </c>
       <c r="F7" t="n">
-        <v>1.068164348602295</v>
+        <v>3.43657660484314</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6072193384170532</v>
+        <v>2.89861798286438</v>
       </c>
       <c r="H7" t="n">
-        <v>164.8829956054688</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="8">
@@ -3575,26 +3575,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.393151879310608</v>
+        <v>5.104787826538086</v>
       </c>
       <c r="D8" t="n">
-        <v>1.940872192382812</v>
+        <v>26.05885696411133</v>
       </c>
       <c r="E8" t="n">
-        <v>1.393151879310608</v>
+        <v>5.104787826538086</v>
       </c>
       <c r="F8" t="n">
-        <v>1.067397356033325</v>
+        <v>3.436412572860718</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6064996123313904</v>
+        <v>2.898454427719116</v>
       </c>
       <c r="H8" t="n">
-        <v>164.9529113769531</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="9">
@@ -3603,26 +3603,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.392138838768005</v>
+        <v>5.104522705078125</v>
       </c>
       <c r="D9" t="n">
-        <v>1.938050389289856</v>
+        <v>26.05615043640137</v>
       </c>
       <c r="E9" t="n">
-        <v>1.392138838768005</v>
+        <v>5.104522705078125</v>
       </c>
       <c r="F9" t="n">
-        <v>1.066635727882385</v>
+        <v>3.436248779296875</v>
       </c>
       <c r="G9" t="n">
-        <v>0.605789840221405</v>
+        <v>2.898291110992432</v>
       </c>
       <c r="H9" t="n">
-        <v>165.0217437744141</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="10">
@@ -3631,26 +3631,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.39114248752594</v>
+        <v>5.104257106781006</v>
       </c>
       <c r="D10" t="n">
-        <v>1.935277342796326</v>
+        <v>26.05343818664551</v>
       </c>
       <c r="E10" t="n">
-        <v>1.39114248752594</v>
+        <v>5.104257106781006</v>
       </c>
       <c r="F10" t="n">
-        <v>1.06588077545166</v>
+        <v>3.436084508895874</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6050901412963867</v>
+        <v>2.89812707901001</v>
       </c>
       <c r="H10" t="n">
-        <v>165.0903625488281</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="11">
@@ -3659,26 +3659,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.390162348747253</v>
+        <v>5.103991031646729</v>
       </c>
       <c r="D11" t="n">
-        <v>1.932551383972168</v>
+        <v>26.05072402954102</v>
       </c>
       <c r="E11" t="n">
-        <v>1.390162348747253</v>
+        <v>5.103991031646729</v>
       </c>
       <c r="F11" t="n">
-        <v>1.065132021903992</v>
+        <v>3.435920000076294</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6044008135795593</v>
+        <v>2.897963047027588</v>
       </c>
       <c r="H11" t="n">
-        <v>165.1582641601562</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="12">
@@ -3687,26 +3687,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.38919723033905</v>
+        <v>5.103724956512451</v>
       </c>
       <c r="D12" t="n">
-        <v>1.929868936538696</v>
+        <v>26.04800605773926</v>
       </c>
       <c r="E12" t="n">
-        <v>1.38919723033905</v>
+        <v>5.103724956512451</v>
       </c>
       <c r="F12" t="n">
-        <v>1.064388632774353</v>
+        <v>3.435755968093872</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6037206053733826</v>
+        <v>2.897799015045166</v>
       </c>
       <c r="H12" t="n">
-        <v>165.2255706787109</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="13">
@@ -3715,26 +3715,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.388247728347778</v>
+        <v>5.103458881378174</v>
       </c>
       <c r="D13" t="n">
-        <v>1.927231788635254</v>
+        <v>26.0452938079834</v>
       </c>
       <c r="E13" t="n">
-        <v>1.388247728347778</v>
+        <v>5.103458881378174</v>
       </c>
       <c r="F13" t="n">
-        <v>1.063651561737061</v>
+        <v>3.435591697692871</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6030505299568176</v>
+        <v>2.897634983062744</v>
       </c>
       <c r="H13" t="n">
-        <v>165.2922973632812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="14">
@@ -3743,26 +3743,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.387313008308411</v>
+        <v>5.103192806243896</v>
       </c>
       <c r="D14" t="n">
-        <v>1.924637317657471</v>
+        <v>26.04257774353027</v>
       </c>
       <c r="E14" t="n">
-        <v>1.387313008308411</v>
+        <v>5.103192806243896</v>
       </c>
       <c r="F14" t="n">
-        <v>1.062920212745667</v>
+        <v>3.435426712036133</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6023890972137451</v>
+        <v>2.897470951080322</v>
       </c>
       <c r="H14" t="n">
-        <v>165.3580474853516</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="15">
@@ -3771,26 +3771,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.386392712593079</v>
+        <v>5.102926254272461</v>
       </c>
       <c r="D15" t="n">
-        <v>1.92208468914032</v>
+        <v>26.03985404968262</v>
       </c>
       <c r="E15" t="n">
-        <v>1.386392712593079</v>
+        <v>5.102926254272461</v>
       </c>
       <c r="F15" t="n">
-        <v>1.062193393707275</v>
+        <v>3.435262441635132</v>
       </c>
       <c r="G15" t="n">
-        <v>0.601736843585968</v>
+        <v>2.897306680679321</v>
       </c>
       <c r="H15" t="n">
-        <v>165.4235229492188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="16">
@@ -3799,26 +3799,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.385487675666809</v>
+        <v>5.102659702301025</v>
       </c>
       <c r="D16" t="n">
-        <v>1.919576168060303</v>
+        <v>26.03713607788086</v>
       </c>
       <c r="E16" t="n">
-        <v>1.385487675666809</v>
+        <v>5.102659702301025</v>
       </c>
       <c r="F16" t="n">
-        <v>1.061473965644836</v>
+        <v>3.435097455978394</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6010944247245789</v>
+        <v>2.897142171859741</v>
       </c>
       <c r="H16" t="n">
-        <v>165.4885406494141</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="17">
@@ -3827,26 +3827,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.384596109390259</v>
+        <v>5.102392673492432</v>
       </c>
       <c r="D17" t="n">
-        <v>1.917106509208679</v>
+        <v>26.0344123840332</v>
       </c>
       <c r="E17" t="n">
-        <v>1.384596109390259</v>
+        <v>5.102392673492432</v>
       </c>
       <c r="F17" t="n">
-        <v>1.060760021209717</v>
+        <v>3.434932708740234</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6004604697227478</v>
+        <v>2.89697790145874</v>
       </c>
       <c r="H17" t="n">
-        <v>165.552978515625</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="18">
@@ -3855,26 +3855,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.38371741771698</v>
+        <v>5.102126121520996</v>
       </c>
       <c r="D18" t="n">
-        <v>1.914673805236816</v>
+        <v>26.03168869018555</v>
       </c>
       <c r="E18" t="n">
-        <v>1.38371741771698</v>
+        <v>5.102126121520996</v>
       </c>
       <c r="F18" t="n">
-        <v>1.060049772262573</v>
+        <v>3.434767484664917</v>
       </c>
       <c r="G18" t="n">
-        <v>0.599834144115448</v>
+        <v>2.896812915802002</v>
       </c>
       <c r="H18" t="n">
-        <v>165.6168823242188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="19">
@@ -3883,26 +3883,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.382854342460632</v>
+        <v>5.101859092712402</v>
       </c>
       <c r="D19" t="n">
-        <v>1.912286043167114</v>
+        <v>26.02896499633789</v>
       </c>
       <c r="E19" t="n">
-        <v>1.382854342460632</v>
+        <v>5.101859092712402</v>
       </c>
       <c r="F19" t="n">
-        <v>1.059347867965698</v>
+        <v>3.434602975845337</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5992181897163391</v>
+        <v>2.896648645401001</v>
       </c>
       <c r="H19" t="n">
-        <v>165.6802673339844</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="20">
@@ -3911,26 +3911,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.382003903388977</v>
+        <v>5.10159158706665</v>
       </c>
       <c r="D20" t="n">
-        <v>1.909934759140015</v>
+        <v>26.02623558044434</v>
       </c>
       <c r="E20" t="n">
-        <v>1.382003903388977</v>
+        <v>5.10159158706665</v>
       </c>
       <c r="F20" t="n">
-        <v>1.05864942073822</v>
+        <v>3.43443775177002</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5986099243164062</v>
+        <v>2.896483898162842</v>
       </c>
       <c r="H20" t="n">
-        <v>165.7429504394531</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="21">
@@ -3939,26 +3939,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.381165742874146</v>
+        <v>5.101324558258057</v>
       </c>
       <c r="D21" t="n">
-        <v>1.907618880271912</v>
+        <v>26.02351379394531</v>
       </c>
       <c r="E21" t="n">
-        <v>1.381165742874146</v>
+        <v>5.101324558258057</v>
       </c>
       <c r="F21" t="n">
-        <v>1.05795693397522</v>
+        <v>3.434272766113281</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5980096459388733</v>
+        <v>2.896319150924683</v>
       </c>
       <c r="H21" t="n">
-        <v>165.8052673339844</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="22">
@@ -3967,26 +3967,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.380340337753296</v>
+        <v>5.101056575775146</v>
       </c>
       <c r="D22" t="n">
-        <v>1.905339479446411</v>
+        <v>26.02078056335449</v>
       </c>
       <c r="E22" t="n">
-        <v>1.380340337753296</v>
+        <v>5.101056575775146</v>
       </c>
       <c r="F22" t="n">
-        <v>1.057269096374512</v>
+        <v>3.434107303619385</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5974172353744507</v>
+        <v>2.896153450012207</v>
       </c>
       <c r="H22" t="n">
-        <v>165.8671112060547</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="23">
@@ -3995,26 +3995,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.379527807235718</v>
+        <v>5.100789546966553</v>
       </c>
       <c r="D23" t="n">
-        <v>1.903096914291382</v>
+        <v>26.01805305480957</v>
       </c>
       <c r="E23" t="n">
-        <v>1.379527807235718</v>
+        <v>5.100789546966553</v>
       </c>
       <c r="F23" t="n">
-        <v>1.056587934494019</v>
+        <v>3.433941841125488</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5968332290649414</v>
+        <v>2.895988941192627</v>
       </c>
       <c r="H23" t="n">
-        <v>165.9285736083984</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="24">
@@ -4023,26 +4023,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.378727436065674</v>
+        <v>5.100521564483643</v>
       </c>
       <c r="D24" t="n">
-        <v>1.900889277458191</v>
+        <v>26.01531791687012</v>
       </c>
       <c r="E24" t="n">
-        <v>1.378727436065674</v>
+        <v>5.100521564483643</v>
       </c>
       <c r="F24" t="n">
-        <v>1.055911660194397</v>
+        <v>3.433776378631592</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5962570309638977</v>
+        <v>2.89582347869873</v>
       </c>
       <c r="H24" t="n">
-        <v>165.9892883300781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="25">
@@ -4051,26 +4051,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.377938628196716</v>
+        <v>5.100253582000732</v>
       </c>
       <c r="D25" t="n">
-        <v>1.898715019226074</v>
+        <v>26.0125846862793</v>
       </c>
       <c r="E25" t="n">
-        <v>1.377938628196716</v>
+        <v>5.100253582000732</v>
       </c>
       <c r="F25" t="n">
-        <v>1.055239915847778</v>
+        <v>3.433610677719116</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5956881642341614</v>
+        <v>2.895658493041992</v>
       </c>
       <c r="H25" t="n">
-        <v>166.0499267578125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="26">
@@ -4079,26 +4079,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.377163887023926</v>
+        <v>5.099985122680664</v>
       </c>
       <c r="D26" t="n">
-        <v>1.896580338478088</v>
+        <v>26.00984954833984</v>
       </c>
       <c r="E26" t="n">
-        <v>1.377163887023926</v>
+        <v>5.099985122680664</v>
       </c>
       <c r="F26" t="n">
-        <v>1.054575324058533</v>
+        <v>3.433444738388062</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5951283574104309</v>
+        <v>2.895493030548096</v>
       </c>
       <c r="H26" t="n">
-        <v>166.1100921630859</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="27">
@@ -4107,26 +4107,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.376397967338562</v>
+        <v>5.099717140197754</v>
       </c>
       <c r="D27" t="n">
-        <v>1.894471287727356</v>
+        <v>26.00711631774902</v>
       </c>
       <c r="E27" t="n">
-        <v>1.376397967338562</v>
+        <v>5.099717140197754</v>
       </c>
       <c r="F27" t="n">
-        <v>1.053913831710815</v>
+        <v>3.433279275894165</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5945741534233093</v>
+        <v>2.895327568054199</v>
       </c>
       <c r="H27" t="n">
-        <v>166.1694030761719</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="28">
@@ -4135,26 +4135,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.375643134117126</v>
+        <v>5.099448204040527</v>
       </c>
       <c r="D28" t="n">
-        <v>1.892394185066223</v>
+        <v>26.00437355041504</v>
       </c>
       <c r="E28" t="n">
-        <v>1.375643134117126</v>
+        <v>5.099448204040527</v>
       </c>
       <c r="F28" t="n">
-        <v>1.053257346153259</v>
+        <v>3.433113098144531</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5940271615982056</v>
+        <v>2.895161867141724</v>
       </c>
       <c r="H28" t="n">
-        <v>166.2284851074219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="29">
@@ -4163,26 +4163,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.374899983406067</v>
+        <v>5.099179744720459</v>
       </c>
       <c r="D29" t="n">
-        <v>1.890349864959717</v>
+        <v>26.00163459777832</v>
       </c>
       <c r="E29" t="n">
-        <v>1.374899983406067</v>
+        <v>5.099179744720459</v>
       </c>
       <c r="F29" t="n">
-        <v>1.052605509757996</v>
+        <v>3.432947158813477</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5934873223304749</v>
+        <v>2.894996643066406</v>
       </c>
       <c r="H29" t="n">
-        <v>166.2871704101562</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="30">
@@ -4191,26 +4191,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.374168634414673</v>
+        <v>5.098910808563232</v>
       </c>
       <c r="D30" t="n">
-        <v>1.888339400291443</v>
+        <v>25.99889183044434</v>
       </c>
       <c r="E30" t="n">
-        <v>1.374168634414673</v>
+        <v>5.098910808563232</v>
       </c>
       <c r="F30" t="n">
-        <v>1.051960229873657</v>
+        <v>3.432781219482422</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5929557085037231</v>
+        <v>2.894830226898193</v>
       </c>
       <c r="H30" t="n">
-        <v>166.3455352783203</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="31">
@@ -4219,26 +4219,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.373447179794312</v>
+        <v>5.098642349243164</v>
       </c>
       <c r="D31" t="n">
-        <v>1.886357307434082</v>
+        <v>25.99615478515625</v>
       </c>
       <c r="E31" t="n">
-        <v>1.373447179794312</v>
+        <v>5.098642349243164</v>
       </c>
       <c r="F31" t="n">
-        <v>1.051318526268005</v>
+        <v>3.432615041732788</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5924295783042908</v>
+        <v>2.894665002822876</v>
       </c>
       <c r="H31" t="n">
-        <v>166.4033813476562</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="32">
@@ -4247,26 +4247,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.372735977172852</v>
+        <v>5.098372936248779</v>
       </c>
       <c r="D32" t="n">
-        <v>1.884404063224792</v>
+        <v>25.99340629577637</v>
       </c>
       <c r="E32" t="n">
-        <v>1.372735977172852</v>
+        <v>5.098372936248779</v>
       </c>
       <c r="F32" t="n">
-        <v>1.050681829452515</v>
+        <v>3.432448387145996</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5919107794761658</v>
+        <v>2.894498825073242</v>
       </c>
       <c r="H32" t="n">
-        <v>166.4610290527344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="33">
@@ -4275,26 +4275,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.372035145759583</v>
+        <v>5.098103523254395</v>
       </c>
       <c r="D33" t="n">
-        <v>1.882480502128601</v>
+        <v>25.99065971374512</v>
       </c>
       <c r="E33" t="n">
-        <v>1.372035145759583</v>
+        <v>5.098103523254395</v>
       </c>
       <c r="F33" t="n">
-        <v>1.05010449886322</v>
+        <v>3.432281970977783</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5913984179496765</v>
+        <v>2.894333124160767</v>
       </c>
       <c r="H33" t="n">
-        <v>166.5180053710938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="34">
@@ -4303,26 +4303,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.371343731880188</v>
+        <v>5.09783411026001</v>
       </c>
       <c r="D34" t="n">
-        <v>1.880583763122559</v>
+        <v>25.98791313171387</v>
       </c>
       <c r="E34" t="n">
-        <v>1.371343731880188</v>
+        <v>5.09783411026001</v>
       </c>
       <c r="F34" t="n">
-        <v>1.049537897109985</v>
+        <v>3.432115793228149</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5908920168876648</v>
+        <v>2.894166946411133</v>
       </c>
       <c r="H34" t="n">
-        <v>166.57470703125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="35">
@@ -4331,26 +4331,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.370662093162537</v>
+        <v>5.097565174102783</v>
       </c>
       <c r="D35" t="n">
-        <v>1.878714442253113</v>
+        <v>25.98517036437988</v>
       </c>
       <c r="E35" t="n">
-        <v>1.370662093162537</v>
+        <v>5.097565174102783</v>
       </c>
       <c r="F35" t="n">
-        <v>1.048975706100464</v>
+        <v>3.431949138641357</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5903925895690918</v>
+        <v>2.894001007080078</v>
       </c>
       <c r="H35" t="n">
-        <v>166.6315002441406</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="36">
@@ -4359,26 +4359,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.36998975276947</v>
+        <v>5.097294807434082</v>
       </c>
       <c r="D36" t="n">
-        <v>1.876872062683105</v>
+        <v>25.9824161529541</v>
       </c>
       <c r="E36" t="n">
-        <v>1.36998975276947</v>
+        <v>5.097294807434082</v>
       </c>
       <c r="F36" t="n">
-        <v>1.048416018486023</v>
+        <v>3.431782722473145</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5898985266685486</v>
+        <v>2.893834114074707</v>
       </c>
       <c r="H36" t="n">
-        <v>166.6875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="37">
@@ -4387,26 +4387,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.369329214096069</v>
+        <v>5.097025394439697</v>
       </c>
       <c r="D37" t="n">
-        <v>1.875062346458435</v>
+        <v>25.97966766357422</v>
       </c>
       <c r="E37" t="n">
-        <v>1.369329214096069</v>
+        <v>5.097025394439697</v>
       </c>
       <c r="F37" t="n">
-        <v>1.047863721847534</v>
+        <v>3.431616067886353</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5894129872322083</v>
+        <v>2.893667936325073</v>
       </c>
       <c r="H37" t="n">
-        <v>166.7434539794922</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="38">
@@ -4415,26 +4415,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.368675231933594</v>
+        <v>5.096755504608154</v>
       </c>
       <c r="D38" t="n">
-        <v>1.873271942138672</v>
+        <v>25.9769172668457</v>
       </c>
       <c r="E38" t="n">
-        <v>1.368675231933594</v>
+        <v>5.096755504608154</v>
       </c>
       <c r="F38" t="n">
-        <v>1.047312498092651</v>
+        <v>3.431449174880981</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5889312028884888</v>
+        <v>2.89350152015686</v>
       </c>
       <c r="H38" t="n">
-        <v>166.7989196777344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="39">
@@ -4443,26 +4443,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.368031144142151</v>
+        <v>5.096485137939453</v>
       </c>
       <c r="D39" t="n">
-        <v>1.871509075164795</v>
+        <v>25.97415924072266</v>
       </c>
       <c r="E39" t="n">
-        <v>1.368031144142151</v>
+        <v>5.096485137939453</v>
       </c>
       <c r="F39" t="n">
-        <v>1.046767354011536</v>
+        <v>3.431282043457031</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5884559750556946</v>
+        <v>2.893334865570068</v>
       </c>
       <c r="H39" t="n">
-        <v>166.8542785644531</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="40">
@@ -4471,26 +4471,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.367396593093872</v>
+        <v>5.09621524810791</v>
       </c>
       <c r="D40" t="n">
-        <v>1.869773507118225</v>
+        <v>25.97141075134277</v>
       </c>
       <c r="E40" t="n">
-        <v>1.367396593093872</v>
+        <v>5.09621524810791</v>
       </c>
       <c r="F40" t="n">
-        <v>1.04622757434845</v>
+        <v>3.43111515045166</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5879874229431152</v>
+        <v>2.893168449401855</v>
       </c>
       <c r="H40" t="n">
-        <v>166.9092712402344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="41">
@@ -4499,26 +4499,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.366771340370178</v>
+        <v>5.095944404602051</v>
       </c>
       <c r="D41" t="n">
-        <v>1.868063926696777</v>
+        <v>25.96864891052246</v>
       </c>
       <c r="E41" t="n">
-        <v>1.366771340370178</v>
+        <v>5.095944404602051</v>
       </c>
       <c r="F41" t="n">
-        <v>1.04569137096405</v>
+        <v>3.430947780609131</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5875245332717896</v>
+        <v>2.893001556396484</v>
       </c>
       <c r="H41" t="n">
-        <v>166.9644470214844</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="42">
@@ -4527,26 +4527,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.366152048110962</v>
+        <v>5.095673561096191</v>
       </c>
       <c r="D42" t="n">
-        <v>1.866371393203735</v>
+        <v>25.96589088439941</v>
       </c>
       <c r="E42" t="n">
-        <v>1.366152048110962</v>
+        <v>5.095673561096191</v>
       </c>
       <c r="F42" t="n">
-        <v>1.045156955718994</v>
+        <v>3.430780649185181</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5870656967163086</v>
+        <v>2.892834424972534</v>
       </c>
       <c r="H42" t="n">
-        <v>167.0187072753906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="43">
@@ -4555,26 +4555,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.365544080734253</v>
+        <v>5.095402717590332</v>
       </c>
       <c r="D43" t="n">
-        <v>1.864710688591003</v>
+        <v>25.9631290435791</v>
       </c>
       <c r="E43" t="n">
-        <v>1.365544080734253</v>
+        <v>5.095402717590332</v>
       </c>
       <c r="F43" t="n">
-        <v>1.044629335403442</v>
+        <v>3.430613040924072</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5866144895553589</v>
+        <v>2.892667293548584</v>
       </c>
       <c r="H43" t="n">
-        <v>167.0732421875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="44">
@@ -4583,26 +4583,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.364943742752075</v>
+        <v>5.095131874084473</v>
       </c>
       <c r="D44" t="n">
-        <v>1.863071441650391</v>
+        <v>25.96037101745605</v>
       </c>
       <c r="E44" t="n">
-        <v>1.364943742752075</v>
+        <v>5.095131874084473</v>
       </c>
       <c r="F44" t="n">
-        <v>1.044104695320129</v>
+        <v>3.430445909500122</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5861685276031494</v>
+        <v>2.892500400543213</v>
       </c>
       <c r="H44" t="n">
-        <v>167.1273803710938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="45">
@@ -4611,26 +4611,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.364349126815796</v>
+        <v>5.094860553741455</v>
       </c>
       <c r="D45" t="n">
-        <v>1.861448645591736</v>
+        <v>25.95760345458984</v>
       </c>
       <c r="E45" t="n">
-        <v>1.364349126815796</v>
+        <v>5.094860553741455</v>
       </c>
       <c r="F45" t="n">
-        <v>1.043581247329712</v>
+        <v>3.430278062820435</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5857259631156921</v>
+        <v>2.892333030700684</v>
       </c>
       <c r="H45" t="n">
-        <v>167.1788482666016</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="46">
@@ -4639,26 +4639,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.363763809204102</v>
+        <v>5.094589233398438</v>
       </c>
       <c r="D46" t="n">
-        <v>1.859851598739624</v>
+        <v>25.95484161376953</v>
       </c>
       <c r="E46" t="n">
-        <v>1.363763809204102</v>
+        <v>5.094589233398438</v>
       </c>
       <c r="F46" t="n">
-        <v>1.043063640594482</v>
+        <v>3.430110692977905</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5852900147438049</v>
+        <v>2.892165899276733</v>
       </c>
       <c r="H46" t="n">
-        <v>167.2135314941406</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="47">
@@ -4667,26 +4667,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.363186836242676</v>
+        <v>5.09431791305542</v>
       </c>
       <c r="D47" t="n">
-        <v>1.858278512954712</v>
+        <v>25.95207595825195</v>
       </c>
       <c r="E47" t="n">
-        <v>1.363186836242676</v>
+        <v>5.09431791305542</v>
       </c>
       <c r="F47" t="n">
-        <v>1.042549610137939</v>
+        <v>3.429942607879639</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5848594307899475</v>
+        <v>2.891998052597046</v>
       </c>
       <c r="H47" t="n">
-        <v>167.2499389648438</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="48">
@@ -4695,26 +4695,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.362616539001465</v>
+        <v>5.094046592712402</v>
       </c>
       <c r="D48" t="n">
-        <v>1.856723785400391</v>
+        <v>25.94931030273438</v>
       </c>
       <c r="E48" t="n">
-        <v>1.362616539001465</v>
+        <v>5.094046592712402</v>
       </c>
       <c r="F48" t="n">
-        <v>1.042038559913635</v>
+        <v>3.429775238037109</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5844336152076721</v>
+        <v>2.891831398010254</v>
       </c>
       <c r="H48" t="n">
-        <v>167.2870025634766</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="49">
@@ -4723,26 +4723,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.362053990364075</v>
+        <v>5.093774318695068</v>
       </c>
       <c r="D49" t="n">
-        <v>1.855190992355347</v>
+        <v>25.9465389251709</v>
       </c>
       <c r="E49" t="n">
-        <v>1.362053990364075</v>
+        <v>5.093774318695068</v>
       </c>
       <c r="F49" t="n">
-        <v>1.041531205177307</v>
+        <v>3.429606914520264</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5840126872062683</v>
+        <v>2.891663312911987</v>
       </c>
       <c r="H49" t="n">
-        <v>167.3248748779297</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="50">
@@ -4751,26 +4751,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.361498355865479</v>
+        <v>5.093502521514893</v>
       </c>
       <c r="D50" t="n">
-        <v>1.8536776304245</v>
+        <v>25.94376945495605</v>
       </c>
       <c r="E50" t="n">
-        <v>1.361498355865479</v>
+        <v>5.093502521514893</v>
       </c>
       <c r="F50" t="n">
-        <v>1.041027069091797</v>
+        <v>3.429439067840576</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5835967063903809</v>
+        <v>2.891495943069458</v>
       </c>
       <c r="H50" t="n">
-        <v>167.3629760742188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="51">
@@ -4779,26 +4779,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.360951781272888</v>
+        <v>5.093231201171875</v>
       </c>
       <c r="D51" t="n">
-        <v>1.852189779281616</v>
+        <v>25.94100379943848</v>
       </c>
       <c r="E51" t="n">
-        <v>1.360951781272888</v>
+        <v>5.093231201171875</v>
       </c>
       <c r="F51" t="n">
-        <v>1.040531277656555</v>
+        <v>3.42927098274231</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5831866860389709</v>
+        <v>2.891328096389771</v>
       </c>
       <c r="H51" t="n">
-        <v>167.4015960693359</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
   </sheetData>
@@ -4838,22 +4838,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4868,26 +4868,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.07209575176239</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95885181427002</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399589896202087</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F2" t="n">
-        <v>1.07209575176239</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6109818816184998</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H2" t="n">
-        <v>164.5243835449219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="3">
@@ -4896,26 +4896,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.071334958076477</v>
+        <v>3.437294006347656</v>
       </c>
       <c r="D3" t="n">
-        <v>1.956624865531921</v>
+        <v>26.07342147827148</v>
       </c>
       <c r="E3" t="n">
-        <v>1.398794054985046</v>
+        <v>5.106214046478271</v>
       </c>
       <c r="F3" t="n">
-        <v>1.071334958076477</v>
+        <v>3.437294006347656</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6103642582893372</v>
+        <v>2.899333715438843</v>
       </c>
       <c r="H3" t="n">
-        <v>164.5694274902344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="4">
@@ -4924,26 +4924,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1.070574045181274</v>
+        <v>3.437192916870117</v>
       </c>
       <c r="D4" t="n">
-        <v>1.954423069953918</v>
+        <v>26.07175254821777</v>
       </c>
       <c r="E4" t="n">
-        <v>1.398006796836853</v>
+        <v>5.106050491333008</v>
       </c>
       <c r="F4" t="n">
-        <v>1.070574045181274</v>
+        <v>3.437192916870117</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6097514033317566</v>
+        <v>2.899233102798462</v>
       </c>
       <c r="H4" t="n">
-        <v>164.6146850585938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="5">
@@ -4952,26 +4952,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.069813847541809</v>
+        <v>3.437092065811157</v>
       </c>
       <c r="D5" t="n">
-        <v>1.952248692512512</v>
+        <v>26.07008361816406</v>
       </c>
       <c r="E5" t="n">
-        <v>1.397228956222534</v>
+        <v>5.105886936187744</v>
       </c>
       <c r="F5" t="n">
-        <v>1.069813847541809</v>
+        <v>3.437092065811157</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6091434359550476</v>
+        <v>2.899132490158081</v>
       </c>
       <c r="H5" t="n">
-        <v>164.6601867675781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="6">
@@ -4980,26 +4980,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1.069051742553711</v>
+        <v>3.436990737915039</v>
       </c>
       <c r="D6" t="n">
-        <v>1.95009183883667</v>
+        <v>26.06841087341309</v>
       </c>
       <c r="E6" t="n">
-        <v>1.396456837654114</v>
+        <v>5.10572338104248</v>
       </c>
       <c r="F6" t="n">
-        <v>1.069051742553711</v>
+        <v>3.436990737915039</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6085381507873535</v>
+        <v>2.899031162261963</v>
       </c>
       <c r="H6" t="n">
-        <v>164.7057952880859</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="7">
@@ -5008,26 +5008,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.068290233612061</v>
+        <v>3.4368896484375</v>
       </c>
       <c r="D7" t="n">
-        <v>1.94796347618103</v>
+        <v>26.06673812866211</v>
       </c>
       <c r="E7" t="n">
-        <v>1.395694613456726</v>
+        <v>5.105559349060059</v>
       </c>
       <c r="F7" t="n">
-        <v>1.068290233612061</v>
+        <v>3.4368896484375</v>
       </c>
       <c r="G7" t="n">
-        <v>0.607938289642334</v>
+        <v>2.898930311203003</v>
       </c>
       <c r="H7" t="n">
-        <v>164.7480010986328</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="8">
@@ -5036,26 +5036,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.067528128623962</v>
+        <v>3.436788320541382</v>
       </c>
       <c r="D8" t="n">
-        <v>1.945856332778931</v>
+        <v>26.06506156921387</v>
       </c>
       <c r="E8" t="n">
-        <v>1.394939541816711</v>
+        <v>5.105395317077637</v>
       </c>
       <c r="F8" t="n">
-        <v>1.067528128623962</v>
+        <v>3.436788320541382</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6073418855667114</v>
+        <v>2.898829460144043</v>
       </c>
       <c r="H8" t="n">
-        <v>164.785888671875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="9">
@@ -5064,26 +5064,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.066764116287231</v>
+        <v>3.436686992645264</v>
       </c>
       <c r="D9" t="n">
-        <v>1.943771362304688</v>
+        <v>26.06339073181152</v>
       </c>
       <c r="E9" t="n">
-        <v>1.394191980361938</v>
+        <v>5.105231761932373</v>
       </c>
       <c r="F9" t="n">
-        <v>1.066764116287231</v>
+        <v>3.436686992645264</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6067489981651306</v>
+        <v>2.898728370666504</v>
       </c>
       <c r="H9" t="n">
-        <v>164.8240356445312</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="10">
@@ -5092,26 +5092,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1.066000461578369</v>
+        <v>3.436585903167725</v>
       </c>
       <c r="D10" t="n">
-        <v>1.941709876060486</v>
+        <v>26.06171798706055</v>
       </c>
       <c r="E10" t="n">
-        <v>1.393452525138855</v>
+        <v>5.105067729949951</v>
       </c>
       <c r="F10" t="n">
-        <v>1.066000461578369</v>
+        <v>3.436585903167725</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6061604619026184</v>
+        <v>2.898627519607544</v>
       </c>
       <c r="H10" t="n">
-        <v>164.8623962402344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="11">
@@ -5120,26 +5120,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.065238237380981</v>
+        <v>3.436484336853027</v>
       </c>
       <c r="D11" t="n">
-        <v>1.939678192138672</v>
+        <v>26.06004333496094</v>
       </c>
       <c r="E11" t="n">
-        <v>1.392723321914673</v>
+        <v>5.104903697967529</v>
       </c>
       <c r="F11" t="n">
-        <v>1.065238237380981</v>
+        <v>3.436484336853027</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6055777072906494</v>
+        <v>2.898526191711426</v>
       </c>
       <c r="H11" t="n">
-        <v>164.9010925292969</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="12">
@@ -5148,26 +5148,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.064473748207092</v>
+        <v>3.436383247375488</v>
       </c>
       <c r="D12" t="n">
-        <v>1.937663197517395</v>
+        <v>26.05837440490723</v>
       </c>
       <c r="E12" t="n">
-        <v>1.3919997215271</v>
+        <v>5.104740619659424</v>
       </c>
       <c r="F12" t="n">
-        <v>1.064473748207092</v>
+        <v>3.436383247375488</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6049975752830505</v>
+        <v>2.898425102233887</v>
       </c>
       <c r="H12" t="n">
-        <v>164.9395904541016</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="13">
@@ -5176,26 +5176,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.063707709312439</v>
+        <v>3.436281681060791</v>
       </c>
       <c r="D13" t="n">
-        <v>1.935673356056213</v>
+        <v>26.05669593811035</v>
       </c>
       <c r="E13" t="n">
-        <v>1.391284823417664</v>
+        <v>5.104576110839844</v>
       </c>
       <c r="F13" t="n">
-        <v>1.063707709312439</v>
+        <v>3.436281681060791</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6044217348098755</v>
+        <v>2.898323774337769</v>
       </c>
       <c r="H13" t="n">
-        <v>164.9784698486328</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="14">
@@ -5204,26 +5204,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.062942743301392</v>
+        <v>3.436180353164673</v>
       </c>
       <c r="D14" t="n">
-        <v>1.933708786964417</v>
+        <v>26.05501937866211</v>
       </c>
       <c r="E14" t="n">
-        <v>1.390578627586365</v>
+        <v>5.104411602020264</v>
       </c>
       <c r="F14" t="n">
-        <v>1.062942743301392</v>
+        <v>3.436180353164673</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6038505434989929</v>
+        <v>2.898222923278809</v>
       </c>
       <c r="H14" t="n">
-        <v>165.0172729492188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="15">
@@ -5232,26 +5232,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.062177419662476</v>
+        <v>3.436078786849976</v>
       </c>
       <c r="D15" t="n">
-        <v>1.931767225265503</v>
+        <v>26.05334281921387</v>
       </c>
       <c r="E15" t="n">
-        <v>1.389880299568176</v>
+        <v>5.104247570037842</v>
       </c>
       <c r="F15" t="n">
-        <v>1.062177419662476</v>
+        <v>3.436078786849976</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6032836437225342</v>
+        <v>2.89812159538269</v>
       </c>
       <c r="H15" t="n">
-        <v>165.0565185546875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="16">
@@ -5260,26 +5260,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1.061410665512085</v>
+        <v>3.435977458953857</v>
       </c>
       <c r="D16" t="n">
-        <v>1.929849028587341</v>
+        <v>26.05166816711426</v>
       </c>
       <c r="E16" t="n">
-        <v>1.389190077781677</v>
+        <v>5.10408353805542</v>
       </c>
       <c r="F16" t="n">
-        <v>1.061410665512085</v>
+        <v>3.435977458953857</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6027205586433411</v>
+        <v>2.898020505905151</v>
       </c>
       <c r="H16" t="n">
-        <v>165.0958557128906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="17">
@@ -5288,26 +5288,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1.060644030570984</v>
+        <v>3.435876131057739</v>
       </c>
       <c r="D17" t="n">
-        <v>1.92795717716217</v>
+        <v>26.04999160766602</v>
       </c>
       <c r="E17" t="n">
-        <v>1.388509035110474</v>
+        <v>5.10391902923584</v>
       </c>
       <c r="F17" t="n">
-        <v>1.060644030570984</v>
+        <v>3.435876131057739</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6021627187728882</v>
+        <v>2.897918939590454</v>
       </c>
       <c r="H17" t="n">
-        <v>165.1353149414062</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="18">
@@ -5316,26 +5316,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.059877634048462</v>
+        <v>3.435774087905884</v>
       </c>
       <c r="D18" t="n">
-        <v>1.92609179019928</v>
+        <v>26.04831314086914</v>
       </c>
       <c r="E18" t="n">
-        <v>1.387837052345276</v>
+        <v>5.103754997253418</v>
       </c>
       <c r="F18" t="n">
-        <v>1.059877634048462</v>
+        <v>3.435774087905884</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6016095876693726</v>
+        <v>2.897817373275757</v>
       </c>
       <c r="H18" t="n">
-        <v>165.1748352050781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="19">
@@ -5344,26 +5344,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1.059109926223755</v>
+        <v>3.435672521591187</v>
       </c>
       <c r="D19" t="n">
-        <v>1.924246549606323</v>
+        <v>26.04663276672363</v>
       </c>
       <c r="E19" t="n">
-        <v>1.387172102928162</v>
+        <v>5.10359001159668</v>
       </c>
       <c r="F19" t="n">
-        <v>1.059109926223755</v>
+        <v>3.435672521591187</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6010599732398987</v>
+        <v>2.897716045379639</v>
       </c>
       <c r="H19" t="n">
-        <v>165.2147216796875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="20">
@@ -5372,26 +5372,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.058341026306152</v>
+        <v>3.435570955276489</v>
       </c>
       <c r="D20" t="n">
-        <v>1.922425270080566</v>
+        <v>26.04495620727539</v>
       </c>
       <c r="E20" t="n">
-        <v>1.386515498161316</v>
+        <v>5.103425979614258</v>
       </c>
       <c r="F20" t="n">
-        <v>1.058341026306152</v>
+        <v>3.435570955276489</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6005146503448486</v>
+        <v>2.897614717483521</v>
       </c>
       <c r="H20" t="n">
-        <v>165.2547607421875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="21">
@@ -5400,26 +5400,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1.057572841644287</v>
+        <v>3.435469388961792</v>
       </c>
       <c r="D21" t="n">
-        <v>1.920629143714905</v>
+        <v>26.04327774047852</v>
       </c>
       <c r="E21" t="n">
-        <v>1.385867595672607</v>
+        <v>5.103261470794678</v>
       </c>
       <c r="F21" t="n">
-        <v>1.057572841644287</v>
+        <v>3.435469388961792</v>
       </c>
       <c r="G21" t="n">
-        <v>0.5999742150306702</v>
+        <v>2.897513389587402</v>
       </c>
       <c r="H21" t="n">
-        <v>165.2950744628906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="22">
@@ -5428,26 +5428,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.056822299957275</v>
+        <v>3.435367584228516</v>
       </c>
       <c r="D22" t="n">
-        <v>1.918744087219238</v>
+        <v>26.04159927368164</v>
       </c>
       <c r="E22" t="n">
-        <v>1.385187387466431</v>
+        <v>5.103096961975098</v>
       </c>
       <c r="F22" t="n">
-        <v>1.056822299957275</v>
+        <v>3.435367584228516</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5994246602058411</v>
+        <v>2.897411823272705</v>
       </c>
       <c r="H22" t="n">
-        <v>165.3410949707031</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="23">
@@ -5456,26 +5456,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1.056143403053284</v>
+        <v>3.435265779495239</v>
       </c>
       <c r="D23" t="n">
-        <v>1.916713953018188</v>
+        <v>26.03991317749023</v>
       </c>
       <c r="E23" t="n">
-        <v>1.384454369544983</v>
+        <v>5.102931976318359</v>
       </c>
       <c r="F23" t="n">
-        <v>1.056143403053284</v>
+        <v>3.435265779495239</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5988711714744568</v>
+        <v>2.897310018539429</v>
       </c>
       <c r="H23" t="n">
-        <v>165.3996276855469</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="24">
@@ -5484,26 +5484,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.055464625358582</v>
+        <v>3.435164213180542</v>
       </c>
       <c r="D24" t="n">
-        <v>1.914697766304016</v>
+        <v>26.03823852539062</v>
       </c>
       <c r="E24" t="n">
-        <v>1.383726000785828</v>
+        <v>5.102767944335938</v>
       </c>
       <c r="F24" t="n">
-        <v>1.055464625358582</v>
+        <v>3.435164213180542</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5983200073242188</v>
+        <v>2.897208690643311</v>
       </c>
       <c r="H24" t="n">
-        <v>165.4583740234375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="25">
@@ -5512,26 +5512,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1.054785966873169</v>
+        <v>3.435062408447266</v>
       </c>
       <c r="D25" t="n">
-        <v>1.912698149681091</v>
+        <v>26.03655433654785</v>
       </c>
       <c r="E25" t="n">
-        <v>1.383003354072571</v>
+        <v>5.102602481842041</v>
       </c>
       <c r="F25" t="n">
-        <v>1.054785966873169</v>
+        <v>3.435062408447266</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5977717638015747</v>
+        <v>2.897107362747192</v>
       </c>
       <c r="H25" t="n">
-        <v>165.5174560546875</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="26">
@@ -5540,26 +5540,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1.054108023643494</v>
+        <v>3.43496036529541</v>
       </c>
       <c r="D26" t="n">
-        <v>1.910712718963623</v>
+        <v>26.03486824035645</v>
       </c>
       <c r="E26" t="n">
-        <v>1.382285356521606</v>
+        <v>5.102437496185303</v>
       </c>
       <c r="F26" t="n">
-        <v>1.054108023643494</v>
+        <v>3.43496036529541</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5972261428833008</v>
+        <v>2.897005081176758</v>
       </c>
       <c r="H26" t="n">
-        <v>165.5768280029297</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="27">
@@ -5568,26 +5568,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.053430914878845</v>
+        <v>3.434858560562134</v>
       </c>
       <c r="D27" t="n">
-        <v>1.908743143081665</v>
+        <v>26.03318977355957</v>
       </c>
       <c r="E27" t="n">
-        <v>1.381572723388672</v>
+        <v>5.102272987365723</v>
       </c>
       <c r="F27" t="n">
-        <v>1.053430914878845</v>
+        <v>3.434858560562134</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5966833233833313</v>
+        <v>2.896903514862061</v>
       </c>
       <c r="H27" t="n">
-        <v>165.6361694335938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="28">
@@ -5596,26 +5596,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.05275285243988</v>
+        <v>3.434756517410278</v>
       </c>
       <c r="D28" t="n">
-        <v>1.906787157058716</v>
+        <v>26.0315055847168</v>
       </c>
       <c r="E28" t="n">
-        <v>1.38086462020874</v>
+        <v>5.102108001708984</v>
       </c>
       <c r="F28" t="n">
-        <v>1.05275285243988</v>
+        <v>3.434756517410278</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5961426496505737</v>
+        <v>2.896801948547363</v>
       </c>
       <c r="H28" t="n">
-        <v>165.6960754394531</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="29">
@@ -5624,26 +5624,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.05207371711731</v>
+        <v>3.434654474258423</v>
       </c>
       <c r="D29" t="n">
-        <v>1.904842376708984</v>
+        <v>26.02982139587402</v>
       </c>
       <c r="E29" t="n">
-        <v>1.380160212516785</v>
+        <v>5.101943016052246</v>
       </c>
       <c r="F29" t="n">
-        <v>1.05207371711731</v>
+        <v>3.434654474258423</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5956037640571594</v>
+        <v>2.896700382232666</v>
       </c>
       <c r="H29" t="n">
-        <v>165.7562866210938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="30">
@@ -5652,26 +5652,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.051395773887634</v>
+        <v>3.434552669525146</v>
       </c>
       <c r="D30" t="n">
-        <v>1.902912616729736</v>
+        <v>26.02813720703125</v>
       </c>
       <c r="E30" t="n">
-        <v>1.37946093082428</v>
+        <v>5.101778030395508</v>
       </c>
       <c r="F30" t="n">
-        <v>1.051395773887634</v>
+        <v>3.434552669525146</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5950678586959839</v>
+        <v>2.896598339080811</v>
       </c>
       <c r="H30" t="n">
-        <v>165.8166656494141</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="31">
@@ -5680,26 +5680,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.050718307495117</v>
+        <v>3.434450387954712</v>
       </c>
       <c r="D31" t="n">
-        <v>1.901001334190369</v>
+        <v>26.02645111083984</v>
       </c>
       <c r="E31" t="n">
-        <v>1.378768086433411</v>
+        <v>5.101612567901611</v>
       </c>
       <c r="F31" t="n">
-        <v>1.050718307495117</v>
+        <v>3.434450387954712</v>
       </c>
       <c r="G31" t="n">
-        <v>0.594535231590271</v>
+        <v>2.896496534347534</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8772583007812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="32">
@@ -5708,26 +5708,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.050039887428284</v>
+        <v>3.434348583221436</v>
       </c>
       <c r="D32" t="n">
-        <v>1.899098038673401</v>
+        <v>26.02476692199707</v>
       </c>
       <c r="E32" t="n">
-        <v>1.378077626228333</v>
+        <v>5.101447582244873</v>
       </c>
       <c r="F32" t="n">
-        <v>1.050039887428284</v>
+        <v>3.434348583221436</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5940039157867432</v>
+        <v>2.896394729614258</v>
       </c>
       <c r="H32" t="n">
-        <v>165.9381866455078</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="33">
@@ -5736,26 +5736,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1.04936158657074</v>
+        <v>3.434246301651001</v>
       </c>
       <c r="D33" t="n">
-        <v>1.897212147712708</v>
+        <v>26.02308082580566</v>
       </c>
       <c r="E33" t="n">
-        <v>1.377393245697021</v>
+        <v>5.101282119750977</v>
       </c>
       <c r="F33" t="n">
-        <v>1.04936158657074</v>
+        <v>3.434246301651001</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5934754014015198</v>
+        <v>2.896292924880981</v>
       </c>
       <c r="H33" t="n">
-        <v>165.9995727539062</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="34">
@@ -5764,26 +5764,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.048683643341064</v>
+        <v>3.434144258499146</v>
       </c>
       <c r="D34" t="n">
-        <v>1.895341277122498</v>
+        <v>26.02139091491699</v>
       </c>
       <c r="E34" t="n">
-        <v>1.376713991165161</v>
+        <v>5.10111665725708</v>
       </c>
       <c r="F34" t="n">
-        <v>1.048683643341064</v>
+        <v>3.434144258499146</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5929499268531799</v>
+        <v>2.896190643310547</v>
       </c>
       <c r="H34" t="n">
-        <v>166.0612640380859</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="35">
@@ -5792,26 +5792,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1.048007130622864</v>
+        <v>3.434041738510132</v>
       </c>
       <c r="D35" t="n">
-        <v>1.893486976623535</v>
+        <v>26.01970291137695</v>
       </c>
       <c r="E35" t="n">
-        <v>1.37604033946991</v>
+        <v>5.100951194763184</v>
       </c>
       <c r="F35" t="n">
-        <v>1.048007130622864</v>
+        <v>3.434041738510132</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5924274325370789</v>
+        <v>2.896088600158691</v>
       </c>
       <c r="H35" t="n">
-        <v>166.1231689453125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="36">
@@ -5820,26 +5820,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.047327995300293</v>
+        <v>3.433939695358276</v>
       </c>
       <c r="D36" t="n">
-        <v>1.89164137840271</v>
+        <v>26.01801681518555</v>
       </c>
       <c r="E36" t="n">
-        <v>1.375369548797607</v>
+        <v>5.100785732269287</v>
       </c>
       <c r="F36" t="n">
-        <v>1.047327995300293</v>
+        <v>3.433939695358276</v>
       </c>
       <c r="G36" t="n">
-        <v>0.5919058322906494</v>
+        <v>2.895987033843994</v>
       </c>
       <c r="H36" t="n">
-        <v>166.1856689453125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="37">
@@ -5848,26 +5848,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>1.046651601791382</v>
+        <v>3.433837413787842</v>
       </c>
       <c r="D37" t="n">
-        <v>1.889816641807556</v>
+        <v>26.01633071899414</v>
       </c>
       <c r="E37" t="n">
-        <v>1.374706029891968</v>
+        <v>5.100620746612549</v>
       </c>
       <c r="F37" t="n">
-        <v>1.046651601791382</v>
+        <v>3.433837413787842</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5913886427879333</v>
+        <v>2.89588475227356</v>
       </c>
       <c r="H37" t="n">
-        <v>166.2484436035156</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="38">
@@ -5876,26 +5876,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.045973658561707</v>
+        <v>3.433735132217407</v>
       </c>
       <c r="D38" t="n">
-        <v>1.88800036907196</v>
+        <v>26.0146427154541</v>
       </c>
       <c r="E38" t="n">
-        <v>1.374045252799988</v>
+        <v>5.100455284118652</v>
       </c>
       <c r="F38" t="n">
-        <v>1.045973658561707</v>
+        <v>3.433735132217407</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5908730030059814</v>
+        <v>2.895782947540283</v>
       </c>
       <c r="H38" t="n">
-        <v>166.3115539550781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="39">
@@ -5904,26 +5904,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.045296192169189</v>
+        <v>3.433633089065552</v>
       </c>
       <c r="D39" t="n">
-        <v>1.886198997497559</v>
+        <v>26.01295280456543</v>
       </c>
       <c r="E39" t="n">
-        <v>1.373389601707458</v>
+        <v>5.100289344787598</v>
       </c>
       <c r="F39" t="n">
-        <v>1.045296192169189</v>
+        <v>3.433633089065552</v>
       </c>
       <c r="G39" t="n">
-        <v>0.590359628200531</v>
+        <v>2.895680665969849</v>
       </c>
       <c r="H39" t="n">
-        <v>166.3751678466797</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="40">
@@ -5932,26 +5932,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1.044619679450989</v>
+        <v>3.433530807495117</v>
       </c>
       <c r="D40" t="n">
-        <v>1.8844153881073</v>
+        <v>26.01126289367676</v>
       </c>
       <c r="E40" t="n">
-        <v>1.372740149497986</v>
+        <v>5.100123882293701</v>
       </c>
       <c r="F40" t="n">
-        <v>1.044619679450989</v>
+        <v>3.433530807495117</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5898498296737671</v>
+        <v>2.895578861236572</v>
       </c>
       <c r="H40" t="n">
-        <v>166.4390869140625</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="41">
@@ -5960,26 +5960,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1.043942332267761</v>
+        <v>3.433427810668945</v>
       </c>
       <c r="D41" t="n">
-        <v>1.882645487785339</v>
+        <v>26.00956916809082</v>
       </c>
       <c r="E41" t="n">
-        <v>1.372095346450806</v>
+        <v>5.099957942962646</v>
       </c>
       <c r="F41" t="n">
-        <v>1.043942332267761</v>
+        <v>3.433427810668945</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5893422365188599</v>
+        <v>2.895476102828979</v>
       </c>
       <c r="H41" t="n">
-        <v>166.5033569335938</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="42">
@@ -5988,26 +5988,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>1.043265104293823</v>
+        <v>3.433326005935669</v>
       </c>
       <c r="D42" t="n">
-        <v>1.880889177322388</v>
+        <v>26.00788116455078</v>
       </c>
       <c r="E42" t="n">
-        <v>1.371455073356628</v>
+        <v>5.09979248046875</v>
       </c>
       <c r="F42" t="n">
-        <v>1.043265104293823</v>
+        <v>3.433326005935669</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5888370275497437</v>
+        <v>2.895374059677124</v>
       </c>
       <c r="H42" t="n">
-        <v>166.5681457519531</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="43">
@@ -6016,26 +6016,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>1.042588710784912</v>
+        <v>3.433223485946655</v>
       </c>
       <c r="D43" t="n">
-        <v>1.879147052764893</v>
+        <v>26.00619125366211</v>
       </c>
       <c r="E43" t="n">
-        <v>1.370819807052612</v>
+        <v>5.099626541137695</v>
       </c>
       <c r="F43" t="n">
-        <v>1.042588710784912</v>
+        <v>3.433223485946655</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5883347392082214</v>
+        <v>2.895272016525269</v>
       </c>
       <c r="H43" t="n">
-        <v>166.6333618164062</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="44">
@@ -6044,26 +6044,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.041911125183105</v>
+        <v>3.433120489120483</v>
       </c>
       <c r="D44" t="n">
-        <v>1.877416133880615</v>
+        <v>26.00449752807617</v>
       </c>
       <c r="E44" t="n">
-        <v>1.370188355445862</v>
+        <v>5.099460601806641</v>
       </c>
       <c r="F44" t="n">
-        <v>1.041911125183105</v>
+        <v>3.433120489120483</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5878342390060425</v>
+        <v>2.895169496536255</v>
       </c>
       <c r="H44" t="n">
-        <v>166.6992492675781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="45">
@@ -6072,26 +6072,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1.041233658790588</v>
+        <v>3.433018207550049</v>
       </c>
       <c r="D45" t="n">
-        <v>1.875699758529663</v>
+        <v>26.00280380249023</v>
       </c>
       <c r="E45" t="n">
-        <v>1.369561910629272</v>
+        <v>5.099294662475586</v>
       </c>
       <c r="F45" t="n">
-        <v>1.041233658790588</v>
+        <v>3.433018207550049</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5873362421989441</v>
+        <v>2.89506721496582</v>
       </c>
       <c r="H45" t="n">
-        <v>166.7654113769531</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="46">
@@ -6100,26 +6100,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.040557503700256</v>
+        <v>3.432915449142456</v>
       </c>
       <c r="D46" t="n">
-        <v>1.873999834060669</v>
+        <v>26.00111389160156</v>
       </c>
       <c r="E46" t="n">
-        <v>1.368941187858582</v>
+        <v>5.099128723144531</v>
       </c>
       <c r="F46" t="n">
-        <v>1.040557503700256</v>
+        <v>3.432915449142456</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5868417620658875</v>
+        <v>2.894965171813965</v>
       </c>
       <c r="H46" t="n">
-        <v>166.83251953125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="47">
@@ -6128,26 +6128,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.039881110191345</v>
+        <v>3.432812929153442</v>
       </c>
       <c r="D47" t="n">
-        <v>1.872314691543579</v>
+        <v>25.99942016601562</v>
       </c>
       <c r="E47" t="n">
-        <v>1.368325471878052</v>
+        <v>5.098962783813477</v>
       </c>
       <c r="F47" t="n">
-        <v>1.039881110191345</v>
+        <v>3.432812929153442</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5863497257232666</v>
+        <v>2.894862651824951</v>
       </c>
       <c r="H47" t="n">
-        <v>166.8997955322266</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="48">
@@ -6156,26 +6156,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>1.039232969284058</v>
+        <v>3.43271017074585</v>
       </c>
       <c r="D48" t="n">
-        <v>1.870640277862549</v>
+        <v>25.99772262573242</v>
       </c>
       <c r="E48" t="n">
-        <v>1.367713570594788</v>
+        <v>5.098796367645264</v>
       </c>
       <c r="F48" t="n">
-        <v>1.039232969284058</v>
+        <v>3.43271017074585</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5858592987060547</v>
+        <v>2.894759654998779</v>
       </c>
       <c r="H48" t="n">
-        <v>166.9675445556641</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="49">
@@ -6184,26 +6184,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.038636803627014</v>
+        <v>3.432607889175415</v>
       </c>
       <c r="D49" t="n">
-        <v>1.869155406951904</v>
+        <v>25.99602890014648</v>
       </c>
       <c r="E49" t="n">
-        <v>1.367170572280884</v>
+        <v>5.098629951477051</v>
       </c>
       <c r="F49" t="n">
-        <v>1.038636803627014</v>
+        <v>3.432607889175415</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5854138135910034</v>
+        <v>2.894657135009766</v>
       </c>
       <c r="H49" t="n">
-        <v>167.0184020996094</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="50">
@@ -6212,26 +6212,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>1.038040399551392</v>
+        <v>3.432504653930664</v>
       </c>
       <c r="D50" t="n">
-        <v>1.86767840385437</v>
+        <v>25.99433517456055</v>
       </c>
       <c r="E50" t="n">
-        <v>1.36663031578064</v>
+        <v>5.098464012145996</v>
       </c>
       <c r="F50" t="n">
-        <v>1.038040399551392</v>
+        <v>3.432504653930664</v>
       </c>
       <c r="G50" t="n">
-        <v>0.5849693417549133</v>
+        <v>2.894554853439331</v>
       </c>
       <c r="H50" t="n">
-        <v>167.0694122314453</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="51">
@@ -6240,26 +6240,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>1.0374436378479</v>
+        <v>3.43240213394165</v>
       </c>
       <c r="D51" t="n">
-        <v>1.866212368011475</v>
+        <v>25.99263954162598</v>
       </c>
       <c r="E51" t="n">
-        <v>1.366093873977661</v>
+        <v>5.098297595977783</v>
       </c>
       <c r="F51" t="n">
-        <v>1.0374436378479</v>
+        <v>3.43240213394165</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5845267176628113</v>
+        <v>2.894452333450317</v>
       </c>
       <c r="H51" t="n">
-        <v>167.12109375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
   </sheetData>
@@ -6299,22 +6299,22 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>mse</t>
+          <t>MSE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>rmse</t>
+          <t>RMSE</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>mae</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6329,26 +6329,26 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.6109818816184998</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="D2" t="n">
-        <v>1.95885181427002</v>
+        <v>26.0750904083252</v>
       </c>
       <c r="E2" t="n">
-        <v>1.399589896202087</v>
+        <v>5.106377601623535</v>
       </c>
       <c r="F2" t="n">
-        <v>1.07209575176239</v>
+        <v>3.437394857406616</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6109818816184998</v>
+        <v>2.899434566497803</v>
       </c>
       <c r="H2" t="n">
-        <v>164.5243835449219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="3">
@@ -6357,26 +6357,26 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6104152202606201</v>
+        <v>2.899334192276001</v>
       </c>
       <c r="D3" t="n">
-        <v>1.956683754920959</v>
+        <v>26.07342720031738</v>
       </c>
       <c r="E3" t="n">
-        <v>1.398815155029297</v>
+        <v>5.10621452331543</v>
       </c>
       <c r="F3" t="n">
-        <v>1.071476578712463</v>
+        <v>3.437294244766235</v>
       </c>
       <c r="G3" t="n">
-        <v>0.6104152202606201</v>
+        <v>2.899334192276001</v>
       </c>
       <c r="H3" t="n">
-        <v>164.5735473632812</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="4">
@@ -6385,26 +6385,26 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6098540425300598</v>
+        <v>2.89923357963562</v>
       </c>
       <c r="D4" t="n">
-        <v>1.954538464546204</v>
+        <v>26.07175827026367</v>
       </c>
       <c r="E4" t="n">
-        <v>1.398048043251038</v>
+        <v>5.106050968170166</v>
       </c>
       <c r="F4" t="n">
-        <v>1.070861101150513</v>
+        <v>3.437193393707275</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6098540425300598</v>
+        <v>2.89923357963562</v>
       </c>
       <c r="H4" t="n">
-        <v>164.6222839355469</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="5">
@@ -6413,26 +6413,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.6092979907989502</v>
+        <v>2.89913272857666</v>
       </c>
       <c r="D5" t="n">
-        <v>1.952420234680176</v>
+        <v>26.07008743286133</v>
       </c>
       <c r="E5" t="n">
-        <v>1.397290349006653</v>
+        <v>5.105887413024902</v>
       </c>
       <c r="F5" t="n">
-        <v>1.070247769355774</v>
+        <v>3.437092542648315</v>
       </c>
       <c r="G5" t="n">
-        <v>0.6092979907989502</v>
+        <v>2.89913272857666</v>
       </c>
       <c r="H5" t="n">
-        <v>164.6710205078125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="6">
@@ -6441,26 +6441,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.6087461709976196</v>
+        <v>2.899032115936279</v>
       </c>
       <c r="D6" t="n">
-        <v>1.950320482254028</v>
+        <v>26.06842231750488</v>
       </c>
       <c r="E6" t="n">
-        <v>1.396538734436035</v>
+        <v>5.105724334716797</v>
       </c>
       <c r="F6" t="n">
-        <v>1.069636464118958</v>
+        <v>3.436991453170776</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6087461709976196</v>
+        <v>2.899032115936279</v>
       </c>
       <c r="H6" t="n">
-        <v>164.7194213867188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="7">
@@ -6469,26 +6469,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.6082002520561218</v>
+        <v>2.898931264877319</v>
       </c>
       <c r="D7" t="n">
-        <v>1.948247194290161</v>
+        <v>26.06675338745117</v>
       </c>
       <c r="E7" t="n">
-        <v>1.395796298980713</v>
+        <v>5.105561256408691</v>
       </c>
       <c r="F7" t="n">
-        <v>1.069029569625854</v>
+        <v>3.436890125274658</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6082002520561218</v>
+        <v>2.898931264877319</v>
       </c>
       <c r="H7" t="n">
-        <v>164.7677612304688</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="8">
@@ -6497,26 +6497,26 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.6076586246490479</v>
+        <v>2.898830652236938</v>
       </c>
       <c r="D8" t="n">
-        <v>1.946196556091309</v>
+        <v>26.06508827209473</v>
       </c>
       <c r="E8" t="n">
-        <v>1.395061492919922</v>
+        <v>5.105398178100586</v>
       </c>
       <c r="F8" t="n">
-        <v>1.068424582481384</v>
+        <v>3.436789512634277</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6076586246490479</v>
+        <v>2.898830652236938</v>
       </c>
       <c r="H8" t="n">
-        <v>164.8155212402344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="9">
@@ -6525,26 +6525,26 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.6071228981018066</v>
+        <v>2.898729801177979</v>
       </c>
       <c r="D9" t="n">
-        <v>1.944171547889709</v>
+        <v>26.06341743469238</v>
       </c>
       <c r="E9" t="n">
-        <v>1.394335508346558</v>
+        <v>5.105234146118164</v>
       </c>
       <c r="F9" t="n">
-        <v>1.067823767662048</v>
+        <v>3.436688423156738</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6071228981018066</v>
+        <v>2.898729801177979</v>
       </c>
       <c r="H9" t="n">
-        <v>164.8632507324219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="10">
@@ -6553,26 +6553,26 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.6065917015075684</v>
+        <v>2.898629188537598</v>
       </c>
       <c r="D10" t="n">
-        <v>1.942167520523071</v>
+        <v>26.0617504119873</v>
       </c>
       <c r="E10" t="n">
-        <v>1.393616676330566</v>
+        <v>5.105071067810059</v>
       </c>
       <c r="F10" t="n">
-        <v>1.067225337028503</v>
+        <v>3.436587572097778</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6065917015075684</v>
+        <v>2.898629188537598</v>
       </c>
       <c r="H10" t="n">
-        <v>164.9108428955078</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="11">
@@ -6581,26 +6581,26 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6060641407966614</v>
+        <v>2.898528099060059</v>
       </c>
       <c r="D11" t="n">
-        <v>1.940181851387024</v>
+        <v>26.0600757598877</v>
       </c>
       <c r="E11" t="n">
-        <v>1.392904162406921</v>
+        <v>5.104907035827637</v>
       </c>
       <c r="F11" t="n">
-        <v>1.066628932952881</v>
+        <v>3.43648624420166</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6060641407966614</v>
+        <v>2.898528099060059</v>
       </c>
       <c r="H11" t="n">
-        <v>164.958251953125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="12">
@@ -6609,26 +6609,26 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.605541467666626</v>
+        <v>2.898427248001099</v>
       </c>
       <c r="D12" t="n">
-        <v>1.938218951225281</v>
+        <v>26.05840492248535</v>
       </c>
       <c r="E12" t="n">
-        <v>1.392199277877808</v>
+        <v>5.104743480682373</v>
       </c>
       <c r="F12" t="n">
-        <v>1.06603467464447</v>
+        <v>3.436385154724121</v>
       </c>
       <c r="G12" t="n">
-        <v>0.605541467666626</v>
+        <v>2.898427248001099</v>
       </c>
       <c r="H12" t="n">
-        <v>165.0054931640625</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="13">
@@ -6637,26 +6637,26 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6050233840942383</v>
+        <v>2.898326396942139</v>
       </c>
       <c r="D13" t="n">
-        <v>1.936276912689209</v>
+        <v>26.05673599243164</v>
       </c>
       <c r="E13" t="n">
-        <v>1.391501665115356</v>
+        <v>5.104579925537109</v>
       </c>
       <c r="F13" t="n">
-        <v>1.065443634986877</v>
+        <v>3.436284065246582</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6050233840942383</v>
+        <v>2.898326396942139</v>
       </c>
       <c r="H13" t="n">
-        <v>165.0522613525391</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="14">
@@ -6665,26 +6665,26 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.6045100688934326</v>
+        <v>2.898225069046021</v>
       </c>
       <c r="D14" t="n">
-        <v>1.934357643127441</v>
+        <v>26.0550651550293</v>
       </c>
       <c r="E14" t="n">
-        <v>1.390811920166016</v>
+        <v>5.104416370391846</v>
       </c>
       <c r="F14" t="n">
-        <v>1.064855694770813</v>
+        <v>3.436183214187622</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6045100688934326</v>
+        <v>2.898225069046021</v>
       </c>
       <c r="H14" t="n">
-        <v>165.0991516113281</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="15">
@@ -6693,26 +6693,26 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.6040013432502747</v>
+        <v>2.898123979568481</v>
       </c>
       <c r="D15" t="n">
-        <v>1.932458519935608</v>
+        <v>26.05338859558105</v>
       </c>
       <c r="E15" t="n">
-        <v>1.390128970146179</v>
+        <v>5.104251861572266</v>
       </c>
       <c r="F15" t="n">
-        <v>1.064270496368408</v>
+        <v>3.436081647872925</v>
       </c>
       <c r="G15" t="n">
-        <v>0.6040013432502747</v>
+        <v>2.898123979568481</v>
       </c>
       <c r="H15" t="n">
-        <v>165.1454162597656</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="16">
@@ -6721,26 +6721,26 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.6034969091415405</v>
+        <v>2.898023128509521</v>
       </c>
       <c r="D16" t="n">
-        <v>1.930579543113708</v>
+        <v>26.05171966552734</v>
       </c>
       <c r="E16" t="n">
-        <v>1.389452934265137</v>
+        <v>5.104088306427002</v>
       </c>
       <c r="F16" t="n">
-        <v>1.063687801361084</v>
+        <v>3.435980319976807</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6034969091415405</v>
+        <v>2.898023128509521</v>
       </c>
       <c r="H16" t="n">
-        <v>165.1918029785156</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="17">
@@ -6749,26 +6749,26 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.6029967665672302</v>
+        <v>2.897922277450562</v>
       </c>
       <c r="D17" t="n">
-        <v>1.928720593452454</v>
+        <v>26.05004501342773</v>
       </c>
       <c r="E17" t="n">
-        <v>1.388783812522888</v>
+        <v>5.10392427444458</v>
       </c>
       <c r="F17" t="n">
-        <v>1.06310760974884</v>
+        <v>3.435879230499268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6029967665672302</v>
+        <v>2.897922277450562</v>
       </c>
       <c r="H17" t="n">
-        <v>165.2376708984375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="18">
@@ -6777,26 +6777,26 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.6025010347366333</v>
+        <v>2.897820949554443</v>
       </c>
       <c r="D18" t="n">
-        <v>1.926883220672607</v>
+        <v>26.04837036132812</v>
       </c>
       <c r="E18" t="n">
-        <v>1.388122200965881</v>
+        <v>5.103760242462158</v>
       </c>
       <c r="F18" t="n">
-        <v>1.062530517578125</v>
+        <v>3.435777902603149</v>
       </c>
       <c r="G18" t="n">
-        <v>0.6025010347366333</v>
+        <v>2.897820949554443</v>
       </c>
       <c r="H18" t="n">
-        <v>165.2815093994141</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="19">
@@ -6805,26 +6805,26 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.602009654045105</v>
+        <v>2.897719621658325</v>
       </c>
       <c r="D19" t="n">
-        <v>1.925064325332642</v>
+        <v>26.04669570922852</v>
       </c>
       <c r="E19" t="n">
-        <v>1.387466907501221</v>
+        <v>5.103596210479736</v>
       </c>
       <c r="F19" t="n">
-        <v>1.061955571174622</v>
+        <v>3.435676574707031</v>
       </c>
       <c r="G19" t="n">
-        <v>0.602009654045105</v>
+        <v>2.897719621658325</v>
       </c>
       <c r="H19" t="n">
-        <v>165.3251800537109</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="20">
@@ -6833,26 +6833,26 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.6015201210975647</v>
+        <v>2.897618055343628</v>
       </c>
       <c r="D20" t="n">
-        <v>1.923256635665894</v>
+        <v>26.04501914978027</v>
       </c>
       <c r="E20" t="n">
-        <v>1.386815309524536</v>
+        <v>5.103432178497314</v>
       </c>
       <c r="F20" t="n">
-        <v>1.061380863189697</v>
+        <v>3.435575008392334</v>
       </c>
       <c r="G20" t="n">
-        <v>0.6015201210975647</v>
+        <v>2.897618055343628</v>
       </c>
       <c r="H20" t="n">
-        <v>165.3684539794922</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="21">
@@ -6861,26 +6861,26 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.6010381579399109</v>
+        <v>2.897517442703247</v>
       </c>
       <c r="D21" t="n">
-        <v>1.921480298042297</v>
+        <v>26.0433464050293</v>
       </c>
       <c r="E21" t="n">
-        <v>1.38617467880249</v>
+        <v>5.103268146514893</v>
       </c>
       <c r="F21" t="n">
-        <v>1.060812950134277</v>
+        <v>3.435473918914795</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6010381579399109</v>
+        <v>2.897517442703247</v>
       </c>
       <c r="H21" t="n">
-        <v>165.4119567871094</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="22">
@@ -6889,26 +6889,26 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.6005587577819824</v>
+        <v>2.897416353225708</v>
       </c>
       <c r="D22" t="n">
-        <v>1.919718742370605</v>
+        <v>26.04167175292969</v>
       </c>
       <c r="E22" t="n">
-        <v>1.385539174079895</v>
+        <v>5.103104114532471</v>
       </c>
       <c r="F22" t="n">
-        <v>1.060245633125305</v>
+        <v>3.435372352600098</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6005587577819824</v>
+        <v>2.897416353225708</v>
       </c>
       <c r="H22" t="n">
-        <v>165.4552001953125</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="23">
@@ -6917,26 +6917,26 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.6000837683677673</v>
+        <v>2.897315263748169</v>
       </c>
       <c r="D23" t="n">
-        <v>1.917974948883057</v>
+        <v>26.03999328613281</v>
       </c>
       <c r="E23" t="n">
-        <v>1.384909749031067</v>
+        <v>5.102939605712891</v>
       </c>
       <c r="F23" t="n">
-        <v>1.059680819511414</v>
+        <v>3.435270547866821</v>
       </c>
       <c r="G23" t="n">
-        <v>0.6000837683677673</v>
+        <v>2.897315263748169</v>
       </c>
       <c r="H23" t="n">
-        <v>165.4982452392578</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="24">
@@ -6945,26 +6945,26 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.5996122360229492</v>
+        <v>2.897213697433472</v>
       </c>
       <c r="D24" t="n">
-        <v>1.916248798370361</v>
+        <v>26.03831481933594</v>
       </c>
       <c r="E24" t="n">
-        <v>1.384286403656006</v>
+        <v>5.102775096893311</v>
       </c>
       <c r="F24" t="n">
-        <v>1.059118390083313</v>
+        <v>3.435168981552124</v>
       </c>
       <c r="G24" t="n">
-        <v>0.5996122360229492</v>
+        <v>2.897213697433472</v>
       </c>
       <c r="H24" t="n">
-        <v>165.5411682128906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="25">
@@ -6973,26 +6973,26 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.5991455316543579</v>
+        <v>2.897111892700195</v>
       </c>
       <c r="D25" t="n">
-        <v>1.914543986320496</v>
+        <v>26.03663063049316</v>
       </c>
       <c r="E25" t="n">
-        <v>1.383670449256897</v>
+        <v>5.102610111236572</v>
       </c>
       <c r="F25" t="n">
-        <v>1.05855929851532</v>
+        <v>3.435067176818848</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5991455316543579</v>
+        <v>2.897111892700195</v>
       </c>
       <c r="H25" t="n">
-        <v>165.5839538574219</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="26">
@@ -7001,26 +7001,26 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.5986825227737427</v>
+        <v>2.897010564804077</v>
       </c>
       <c r="D26" t="n">
-        <v>1.912855386734009</v>
+        <v>26.03495407104492</v>
       </c>
       <c r="E26" t="n">
-        <v>1.383060097694397</v>
+        <v>5.10244607925415</v>
       </c>
       <c r="F26" t="n">
-        <v>1.058002948760986</v>
+        <v>3.43496561050415</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5986825227737427</v>
+        <v>2.897010564804077</v>
       </c>
       <c r="H26" t="n">
-        <v>165.6265563964844</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="27">
@@ -7029,26 +7029,26 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.5982227325439453</v>
+        <v>2.89690899848938</v>
       </c>
       <c r="D27" t="n">
-        <v>1.911181449890137</v>
+        <v>26.03327751159668</v>
       </c>
       <c r="E27" t="n">
-        <v>1.382454872131348</v>
+        <v>5.10228157043457</v>
       </c>
       <c r="F27" t="n">
-        <v>1.057448267936707</v>
+        <v>3.434864044189453</v>
       </c>
       <c r="G27" t="n">
-        <v>0.5982227325439453</v>
+        <v>2.89690899848938</v>
       </c>
       <c r="H27" t="n">
-        <v>165.6690979003906</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="28">
@@ -7057,26 +7057,26 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.5977677702903748</v>
+        <v>2.896807432174683</v>
       </c>
       <c r="D28" t="n">
-        <v>1.909530997276306</v>
+        <v>26.03159523010254</v>
       </c>
       <c r="E28" t="n">
-        <v>1.381857752799988</v>
+        <v>5.102116584777832</v>
       </c>
       <c r="F28" t="n">
-        <v>1.056896448135376</v>
+        <v>3.434762239456177</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5977677702903748</v>
+        <v>2.896807432174683</v>
       </c>
       <c r="H28" t="n">
-        <v>165.7114715576172</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="29">
@@ -7085,26 +7085,26 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>0.5973156690597534</v>
+        <v>2.896706104278564</v>
       </c>
       <c r="D29" t="n">
-        <v>1.907893657684326</v>
+        <v>26.02992057800293</v>
       </c>
       <c r="E29" t="n">
-        <v>1.38126528263092</v>
+        <v>5.10195255279541</v>
       </c>
       <c r="F29" t="n">
-        <v>1.05634617805481</v>
+        <v>3.434660673141479</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5973156690597534</v>
+        <v>2.896706104278564</v>
       </c>
       <c r="H29" t="n">
-        <v>165.7538299560547</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="30">
@@ -7113,26 +7113,26 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>0.5968677997589111</v>
+        <v>2.896604537963867</v>
       </c>
       <c r="D30" t="n">
-        <v>1.906274795532227</v>
+        <v>26.02823448181152</v>
       </c>
       <c r="E30" t="n">
-        <v>1.380679130554199</v>
+        <v>5.101787567138672</v>
       </c>
       <c r="F30" t="n">
-        <v>1.05579936504364</v>
+        <v>3.434558629989624</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5968677997589111</v>
+        <v>2.896604537963867</v>
       </c>
       <c r="H30" t="n">
-        <v>165.7959289550781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="31">
@@ -7141,26 +7141,26 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0.5964235663414001</v>
+        <v>2.89650297164917</v>
       </c>
       <c r="D31" t="n">
-        <v>1.904672384262085</v>
+        <v>26.02655601501465</v>
       </c>
       <c r="E31" t="n">
-        <v>1.380098700523376</v>
+        <v>5.101623058319092</v>
       </c>
       <c r="F31" t="n">
-        <v>1.055254340171814</v>
+        <v>3.434457063674927</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5964235663414001</v>
+        <v>2.89650297164917</v>
       </c>
       <c r="H31" t="n">
-        <v>165.837890625</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="32">
@@ -7169,26 +7169,26 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.5959835648536682</v>
+        <v>2.896401405334473</v>
       </c>
       <c r="D32" t="n">
-        <v>1.903088450431824</v>
+        <v>26.02486801147461</v>
       </c>
       <c r="E32" t="n">
-        <v>1.379524707794189</v>
+        <v>5.101457595825195</v>
       </c>
       <c r="F32" t="n">
-        <v>1.054713129997253</v>
+        <v>3.434355020523071</v>
       </c>
       <c r="G32" t="n">
-        <v>0.5959835648536682</v>
+        <v>2.896401405334473</v>
       </c>
       <c r="H32" t="n">
-        <v>165.8795776367188</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="33">
@@ -7197,26 +7197,26 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.5955466628074646</v>
+        <v>2.896299362182617</v>
       </c>
       <c r="D33" t="n">
-        <v>1.901520252227783</v>
+        <v>26.0231876373291</v>
       </c>
       <c r="E33" t="n">
-        <v>1.378956198692322</v>
+        <v>5.101292610168457</v>
       </c>
       <c r="F33" t="n">
-        <v>1.054173588752747</v>
+        <v>3.434252977371216</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5955466628074646</v>
+        <v>2.896299362182617</v>
       </c>
       <c r="H33" t="n">
-        <v>165.9213409423828</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="34">
@@ -7225,26 +7225,26 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.5951134562492371</v>
+        <v>2.896197557449341</v>
       </c>
       <c r="D34" t="n">
-        <v>1.899968266487122</v>
+        <v>26.02150535583496</v>
       </c>
       <c r="E34" t="n">
-        <v>1.378393411636353</v>
+        <v>5.101127624511719</v>
       </c>
       <c r="F34" t="n">
-        <v>1.053636193275452</v>
+        <v>3.434151172637939</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5951134562492371</v>
+        <v>2.896197557449341</v>
       </c>
       <c r="H34" t="n">
-        <v>165.9629364013672</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="35">
@@ -7253,26 +7253,26 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.5946835279464722</v>
+        <v>2.896096229553223</v>
       </c>
       <c r="D35" t="n">
-        <v>1.898430347442627</v>
+        <v>26.01982498168945</v>
       </c>
       <c r="E35" t="n">
-        <v>1.377835392951965</v>
+        <v>5.100963115692139</v>
       </c>
       <c r="F35" t="n">
-        <v>1.053100943565369</v>
+        <v>3.434049129486084</v>
       </c>
       <c r="G35" t="n">
-        <v>0.5946835279464722</v>
+        <v>2.896096229553223</v>
       </c>
       <c r="H35" t="n">
-        <v>166.0044708251953</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="36">
@@ -7281,26 +7281,26 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.594257652759552</v>
+        <v>2.895994663238525</v>
       </c>
       <c r="D36" t="n">
-        <v>1.896910905838013</v>
+        <v>26.01814270019531</v>
       </c>
       <c r="E36" t="n">
-        <v>1.377283930778503</v>
+        <v>5.1007981300354</v>
       </c>
       <c r="F36" t="n">
-        <v>1.052569150924683</v>
+        <v>3.433947324752808</v>
       </c>
       <c r="G36" t="n">
-        <v>0.594257652759552</v>
+        <v>2.895994663238525</v>
       </c>
       <c r="H36" t="n">
-        <v>166.0456848144531</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="37">
@@ -7309,26 +7309,26 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5938341617584229</v>
+        <v>2.895892381668091</v>
       </c>
       <c r="D37" t="n">
-        <v>1.895402431488037</v>
+        <v>26.01645660400391</v>
       </c>
       <c r="E37" t="n">
-        <v>1.376736164093018</v>
+        <v>5.100633144378662</v>
       </c>
       <c r="F37" t="n">
-        <v>1.052037835121155</v>
+        <v>3.433845281600952</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5938341617584229</v>
+        <v>2.895892381668091</v>
       </c>
       <c r="H37" t="n">
-        <v>166.0870056152344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="38">
@@ -7337,26 +7337,26 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.5934147834777832</v>
+        <v>2.895790815353394</v>
       </c>
       <c r="D38" t="n">
-        <v>1.893914580345154</v>
+        <v>26.0147762298584</v>
       </c>
       <c r="E38" t="n">
-        <v>1.376195669174194</v>
+        <v>5.100468158721924</v>
       </c>
       <c r="F38" t="n">
-        <v>1.051509499549866</v>
+        <v>3.433743476867676</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5934147834777832</v>
+        <v>2.895790815353394</v>
       </c>
       <c r="H38" t="n">
-        <v>166.1282196044922</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="39">
@@ -7365,26 +7365,26 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.5929980278015137</v>
+        <v>2.895688772201538</v>
       </c>
       <c r="D39" t="n">
-        <v>1.892435669898987</v>
+        <v>26.01308631896973</v>
       </c>
       <c r="E39" t="n">
-        <v>1.375658273696899</v>
+        <v>5.100302696228027</v>
       </c>
       <c r="F39" t="n">
-        <v>1.050983428955078</v>
+        <v>3.433641195297241</v>
       </c>
       <c r="G39" t="n">
-        <v>0.5929980278015137</v>
+        <v>2.895688772201538</v>
       </c>
       <c r="H39" t="n">
-        <v>166.1690368652344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="40">
@@ -7393,26 +7393,26 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.5925851464271545</v>
+        <v>2.895586967468262</v>
       </c>
       <c r="D40" t="n">
-        <v>1.890974044799805</v>
+        <v>26.01140022277832</v>
       </c>
       <c r="E40" t="n">
-        <v>1.375126957893372</v>
+        <v>5.100137233734131</v>
       </c>
       <c r="F40" t="n">
-        <v>1.050459742546082</v>
+        <v>3.433538913726807</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5925851464271545</v>
+        <v>2.895586967468262</v>
       </c>
       <c r="H40" t="n">
-        <v>166.2102508544922</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="41">
@@ -7421,26 +7421,26 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5921760201454163</v>
+        <v>2.895484924316406</v>
       </c>
       <c r="D41" t="n">
-        <v>1.889531254768372</v>
+        <v>26.00971412658691</v>
       </c>
       <c r="E41" t="n">
-        <v>1.374602198600769</v>
+        <v>5.099971771240234</v>
       </c>
       <c r="F41" t="n">
-        <v>1.049938559532166</v>
+        <v>3.433436870574951</v>
       </c>
       <c r="G41" t="n">
-        <v>0.5921760201454163</v>
+        <v>2.895484924316406</v>
       </c>
       <c r="H41" t="n">
-        <v>166.2512512207031</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="42">
@@ -7449,26 +7449,26 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.5917702317237854</v>
+        <v>2.89538311958313</v>
       </c>
       <c r="D42" t="n">
-        <v>1.888102173805237</v>
+        <v>26.00802612304688</v>
       </c>
       <c r="E42" t="n">
-        <v>1.374082326889038</v>
+        <v>5.099806308746338</v>
       </c>
       <c r="F42" t="n">
-        <v>1.049419522285461</v>
+        <v>3.433334589004517</v>
       </c>
       <c r="G42" t="n">
-        <v>0.5917702317237854</v>
+        <v>2.89538311958313</v>
       </c>
       <c r="H42" t="n">
-        <v>166.2920532226562</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="43">
@@ -7477,26 +7477,26 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5913675427436829</v>
+        <v>2.895280838012695</v>
       </c>
       <c r="D43" t="n">
-        <v>1.886686682701111</v>
+        <v>26.00633811950684</v>
       </c>
       <c r="E43" t="n">
-        <v>1.3735671043396</v>
+        <v>5.099640846252441</v>
       </c>
       <c r="F43" t="n">
-        <v>1.048903822898865</v>
+        <v>3.433232307434082</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5913675427436829</v>
+        <v>2.895280838012695</v>
       </c>
       <c r="H43" t="n">
-        <v>166.3327331542969</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="44">
@@ -7505,26 +7505,26 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.5909681916236877</v>
+        <v>2.895178318023682</v>
       </c>
       <c r="D44" t="n">
-        <v>1.885286569595337</v>
+        <v>26.00464820861816</v>
       </c>
       <c r="E44" t="n">
-        <v>1.37305736541748</v>
+        <v>5.099475383758545</v>
       </c>
       <c r="F44" t="n">
-        <v>1.048389554023743</v>
+        <v>3.433129787445068</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5909681916236877</v>
+        <v>2.895178318023682</v>
       </c>
       <c r="H44" t="n">
-        <v>166.3732299804688</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="45">
@@ -7533,26 +7533,26 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.5905714631080627</v>
+        <v>2.895076513290405</v>
       </c>
       <c r="D45" t="n">
-        <v>1.883899450302124</v>
+        <v>26.00295829772949</v>
       </c>
       <c r="E45" t="n">
-        <v>1.372552156448364</v>
+        <v>5.09930944442749</v>
       </c>
       <c r="F45" t="n">
-        <v>1.047877192497253</v>
+        <v>3.433027267456055</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5905714631080627</v>
+        <v>2.895076513290405</v>
       </c>
       <c r="H45" t="n">
-        <v>166.413818359375</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="46">
@@ -7561,26 +7561,26 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.5901781320571899</v>
+        <v>2.894974231719971</v>
       </c>
       <c r="D46" t="n">
-        <v>1.882525682449341</v>
+        <v>26.00126838684082</v>
       </c>
       <c r="E46" t="n">
-        <v>1.372051596641541</v>
+        <v>5.099143981933594</v>
       </c>
       <c r="F46" t="n">
-        <v>1.047367930412292</v>
+        <v>3.43292498588562</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5901781320571899</v>
+        <v>2.894974231719971</v>
       </c>
       <c r="H46" t="n">
-        <v>166.4543151855469</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="47">
@@ -7589,26 +7589,26 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.589788019657135</v>
+        <v>2.894872188568115</v>
       </c>
       <c r="D47" t="n">
-        <v>1.88116729259491</v>
+        <v>25.99957847595215</v>
       </c>
       <c r="E47" t="n">
-        <v>1.371556520462036</v>
+        <v>5.098978042602539</v>
       </c>
       <c r="F47" t="n">
-        <v>1.046859741210938</v>
+        <v>3.432822704315186</v>
       </c>
       <c r="G47" t="n">
-        <v>0.589788019657135</v>
+        <v>2.894872188568115</v>
       </c>
       <c r="H47" t="n">
-        <v>166.4944915771484</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="48">
@@ -7617,26 +7617,26 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.5894008874893188</v>
+        <v>2.894769906997681</v>
       </c>
       <c r="D48" t="n">
-        <v>1.879820346832275</v>
+        <v>25.99788665771484</v>
       </c>
       <c r="E48" t="n">
-        <v>1.371065378189087</v>
+        <v>5.098812103271484</v>
       </c>
       <c r="F48" t="n">
-        <v>1.04637885093689</v>
+        <v>3.432720184326172</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5894008874893188</v>
+        <v>2.894769906997681</v>
       </c>
       <c r="H48" t="n">
-        <v>166.5349731445312</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="49">
@@ -7645,26 +7645,26 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.5890169143676758</v>
+        <v>2.894667625427246</v>
       </c>
       <c r="D49" t="n">
-        <v>1.878488898277283</v>
+        <v>25.9961986541748</v>
       </c>
       <c r="E49" t="n">
-        <v>1.370579719543457</v>
+        <v>5.098646640777588</v>
       </c>
       <c r="F49" t="n">
-        <v>1.045915961265564</v>
+        <v>3.432617902755737</v>
       </c>
       <c r="G49" t="n">
-        <v>0.5890169143676758</v>
+        <v>2.894667625427246</v>
       </c>
       <c r="H49" t="n">
-        <v>166.5750274658203</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="50">
@@ -7673,26 +7673,26 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.588636577129364</v>
+        <v>2.894565343856812</v>
       </c>
       <c r="D50" t="n">
-        <v>1.877171874046326</v>
+        <v>25.99450874328613</v>
       </c>
       <c r="E50" t="n">
-        <v>1.370099186897278</v>
+        <v>5.098481178283691</v>
       </c>
       <c r="F50" t="n">
-        <v>1.045456409454346</v>
+        <v>3.432515382766724</v>
       </c>
       <c r="G50" t="n">
-        <v>0.588636577129364</v>
+        <v>2.894565343856812</v>
       </c>
       <c r="H50" t="n">
-        <v>166.6153259277344</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
     <row r="51">
@@ -7701,26 +7701,26 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>logcosh</t>
+          <t>LogCosh</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.5882579684257507</v>
+        <v>2.894463062286377</v>
       </c>
       <c r="D51" t="n">
-        <v>1.87586498260498</v>
+        <v>25.9928150177002</v>
       </c>
       <c r="E51" t="n">
-        <v>1.369622230529785</v>
+        <v>5.098314762115479</v>
       </c>
       <c r="F51" t="n">
-        <v>1.044996023178101</v>
+        <v>3.432412624359131</v>
       </c>
       <c r="G51" t="n">
-        <v>0.5882579684257507</v>
+        <v>2.894463062286377</v>
       </c>
       <c r="H51" t="n">
-        <v>166.6553039550781</v>
+        <v>11.17303085327148</v>
       </c>
     </row>
   </sheetData>
